--- a/outputs-HGR-r202/train-g__CAG-495_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__CAG-495_split_pruned.xlsx
@@ -9,6 +9,8 @@
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="508">
   <si>
     <t>Row</t>
   </si>
@@ -943,6 +945,603 @@
   </si>
   <si>
     <t>label_UMGS1426_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_121.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_126.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_110.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_97.fasta</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1562,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -977,11 +1576,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -989,6 +1592,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9841,4 +10448,5873 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I101"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2">
+        <v>0.85158363269584991</v>
+      </c>
+      <c r="C2">
+        <v>0.02981904288496131</v>
+      </c>
+      <c r="D2">
+        <v>0.017408089272475089</v>
+      </c>
+      <c r="E2">
+        <v>0.095476045516829658</v>
+      </c>
+      <c r="F2">
+        <v>0.0056514642677736324</v>
+      </c>
+      <c r="G2">
+        <v>6.1725362110367363e-05</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3">
+        <v>0.7588057139359532</v>
+      </c>
+      <c r="C3">
+        <v>0.040669455618931698</v>
+      </c>
+      <c r="D3">
+        <v>0.065462004837850862</v>
+      </c>
+      <c r="E3">
+        <v>0.066486559053444416</v>
+      </c>
+      <c r="F3">
+        <v>0.068141606048248593</v>
+      </c>
+      <c r="G3">
+        <v>0.00043466050557122553</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4">
+        <v>0.51932281869091534</v>
+      </c>
+      <c r="C4">
+        <v>0.03862212057719154</v>
+      </c>
+      <c r="D4">
+        <v>0.047177762261904913</v>
+      </c>
+      <c r="E4">
+        <v>0.34088221049360301</v>
+      </c>
+      <c r="F4">
+        <v>0.048705229092969066</v>
+      </c>
+      <c r="G4">
+        <v>0.0052898588834163615</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5">
+        <v>0.78480438959329113</v>
+      </c>
+      <c r="C5">
+        <v>0.042333652195727045</v>
+      </c>
+      <c r="D5">
+        <v>0.075495900747191605</v>
+      </c>
+      <c r="E5">
+        <v>0.035629391987574394</v>
+      </c>
+      <c r="F5">
+        <v>0.061541649675209129</v>
+      </c>
+      <c r="G5">
+        <v>0.00019501580100693313</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6">
+        <v>0.91573997823213682</v>
+      </c>
+      <c r="C6">
+        <v>0.013364732332883105</v>
+      </c>
+      <c r="D6">
+        <v>0.011567005621031209</v>
+      </c>
+      <c r="E6">
+        <v>0.040351050785689388</v>
+      </c>
+      <c r="F6">
+        <v>0.018483508408278945</v>
+      </c>
+      <c r="G6">
+        <v>0.00049372461998059591</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7">
+        <v>0.47676820686416882</v>
+      </c>
+      <c r="C7">
+        <v>0.033933696701515956</v>
+      </c>
+      <c r="D7">
+        <v>0.16521044813428171</v>
+      </c>
+      <c r="E7">
+        <v>0.18024286444618803</v>
+      </c>
+      <c r="F7">
+        <v>0.052579864594296942</v>
+      </c>
+      <c r="G7">
+        <v>0.091264919259548466</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8">
+        <v>0.14766238966026363</v>
+      </c>
+      <c r="C8">
+        <v>0.074006098548311722</v>
+      </c>
+      <c r="D8">
+        <v>0.31972913244274714</v>
+      </c>
+      <c r="E8">
+        <v>0.12424705567939451</v>
+      </c>
+      <c r="F8">
+        <v>0.32805394513949465</v>
+      </c>
+      <c r="G8">
+        <v>0.0063013785297882765</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9">
+        <v>0.34135642887229745</v>
+      </c>
+      <c r="C9">
+        <v>0.038191067886043761</v>
+      </c>
+      <c r="D9">
+        <v>0.16589071636788261</v>
+      </c>
+      <c r="E9">
+        <v>0.22276385154048603</v>
+      </c>
+      <c r="F9">
+        <v>0.098129383587458263</v>
+      </c>
+      <c r="G9">
+        <v>0.13366855174583184</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10">
+        <v>0.026408889886009149</v>
+      </c>
+      <c r="C10">
+        <v>0.026544987031010159</v>
+      </c>
+      <c r="D10">
+        <v>0.11848243903728352</v>
+      </c>
+      <c r="E10">
+        <v>0.17969780038009786</v>
+      </c>
+      <c r="F10">
+        <v>0.36216499920650036</v>
+      </c>
+      <c r="G10">
+        <v>0.28670088445909891</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11">
+        <v>0.0013220214505687514</v>
+      </c>
+      <c r="C11">
+        <v>0.0030066054142574186</v>
+      </c>
+      <c r="D11">
+        <v>0.035161169872873675</v>
+      </c>
+      <c r="E11">
+        <v>0.10592878128457349</v>
+      </c>
+      <c r="F11">
+        <v>0.12303311861773926</v>
+      </c>
+      <c r="G11">
+        <v>0.73154830335998733</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12">
+        <v>0.88674050586393727</v>
+      </c>
+      <c r="C12">
+        <v>0.024376462286062876</v>
+      </c>
+      <c r="D12">
+        <v>0.035015367788600753</v>
+      </c>
+      <c r="E12">
+        <v>0.031009862291308855</v>
+      </c>
+      <c r="F12">
+        <v>0.022719229108992406</v>
+      </c>
+      <c r="G12">
+        <v>0.00013857266109803908</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13">
+        <v>0.72838224720986544</v>
+      </c>
+      <c r="C13">
+        <v>0.10852706645828182</v>
+      </c>
+      <c r="D13">
+        <v>0.054597343570721484</v>
+      </c>
+      <c r="E13">
+        <v>0.09573264708998877</v>
+      </c>
+      <c r="F13">
+        <v>0.012229322713575597</v>
+      </c>
+      <c r="G13">
+        <v>0.00053137295756698827</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14">
+        <v>0.91968284326748018</v>
+      </c>
+      <c r="C14">
+        <v>0.020037902947803349</v>
+      </c>
+      <c r="D14">
+        <v>0.028387820054058318</v>
+      </c>
+      <c r="E14">
+        <v>0.014504658713262949</v>
+      </c>
+      <c r="F14">
+        <v>0.016750521790215959</v>
+      </c>
+      <c r="G14">
+        <v>0.00063625322717933083</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15">
+        <v>0.0078508374984215534</v>
+      </c>
+      <c r="C15">
+        <v>0.80770745828403678</v>
+      </c>
+      <c r="D15">
+        <v>0.15861561149339068</v>
+      </c>
+      <c r="E15">
+        <v>0.025051589565526281</v>
+      </c>
+      <c r="F15">
+        <v>0.00075969573879513868</v>
+      </c>
+      <c r="G15">
+        <v>1.4807419829547768e-05</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16">
+        <v>0.05724700141068001</v>
+      </c>
+      <c r="C16">
+        <v>0.4120391030508741</v>
+      </c>
+      <c r="D16">
+        <v>0.11082974306121378</v>
+      </c>
+      <c r="E16">
+        <v>0.24634005913768073</v>
+      </c>
+      <c r="F16">
+        <v>0.15091780798884405</v>
+      </c>
+      <c r="G16">
+        <v>0.022626285350707348</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17">
+        <v>0.0099026089257708734</v>
+      </c>
+      <c r="C17">
+        <v>0.96572719600426993</v>
+      </c>
+      <c r="D17">
+        <v>0.013607470868868493</v>
+      </c>
+      <c r="E17">
+        <v>0.0067680130485234186</v>
+      </c>
+      <c r="F17">
+        <v>0.0039927228297364226</v>
+      </c>
+      <c r="G17">
+        <v>1.9883228307810314e-06</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18">
+        <v>0.0036428003743209343</v>
+      </c>
+      <c r="C18">
+        <v>0.95225740187385977</v>
+      </c>
+      <c r="D18">
+        <v>0.030221718792980783</v>
+      </c>
+      <c r="E18">
+        <v>0.010363857368022353</v>
+      </c>
+      <c r="F18">
+        <v>0.0035103917316634684</v>
+      </c>
+      <c r="G18">
+        <v>3.8298591527234555e-06</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19">
+        <v>0.0060492675476004135</v>
+      </c>
+      <c r="C19">
+        <v>0.87949426080582227</v>
+      </c>
+      <c r="D19">
+        <v>0.099920381046735229</v>
+      </c>
+      <c r="E19">
+        <v>0.013087731997482425</v>
+      </c>
+      <c r="F19">
+        <v>0.0014422087968449791</v>
+      </c>
+      <c r="G19">
+        <v>6.1498055146233301e-06</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20">
+        <v>0.0053324515542997417</v>
+      </c>
+      <c r="C20">
+        <v>0.92496606711111184</v>
+      </c>
+      <c r="D20">
+        <v>0.04603763386770502</v>
+      </c>
+      <c r="E20">
+        <v>0.014285011412122881</v>
+      </c>
+      <c r="F20">
+        <v>0.009349682653458001</v>
+      </c>
+      <c r="G20">
+        <v>2.9153401302623205e-05</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21">
+        <v>0.0064121322352050049</v>
+      </c>
+      <c r="C21">
+        <v>0.95428487663210959</v>
+      </c>
+      <c r="D21">
+        <v>0.015834929136388291</v>
+      </c>
+      <c r="E21">
+        <v>0.015658726143952102</v>
+      </c>
+      <c r="F21">
+        <v>0.0078022160183999949</v>
+      </c>
+      <c r="G21">
+        <v>7.1198339450526124e-06</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22">
+        <v>0.0085348230465760091</v>
+      </c>
+      <c r="C22">
+        <v>0.86853535232752144</v>
+      </c>
+      <c r="D22">
+        <v>0.10130860578542125</v>
+      </c>
+      <c r="E22">
+        <v>0.015656752493489457</v>
+      </c>
+      <c r="F22">
+        <v>0.005938350224047372</v>
+      </c>
+      <c r="G22">
+        <v>2.6116122944506886e-05</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23">
+        <v>0.0295082805284024</v>
+      </c>
+      <c r="C23">
+        <v>0.72107602345049437</v>
+      </c>
+      <c r="D23">
+        <v>0.13725515045921843</v>
+      </c>
+      <c r="E23">
+        <v>0.063178455080362197</v>
+      </c>
+      <c r="F23">
+        <v>0.041704749635091354</v>
+      </c>
+      <c r="G23">
+        <v>0.0072773408464310903</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24">
+        <v>0.025190480660155761</v>
+      </c>
+      <c r="C24">
+        <v>0.85395676903187867</v>
+      </c>
+      <c r="D24">
+        <v>0.040125139665516389</v>
+      </c>
+      <c r="E24">
+        <v>0.056562140058425026</v>
+      </c>
+      <c r="F24">
+        <v>0.023587627320661195</v>
+      </c>
+      <c r="G24">
+        <v>0.0005778432633631068</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B25">
+        <v>0.032272158307706515</v>
+      </c>
+      <c r="C25">
+        <v>0.77981469393773051</v>
+      </c>
+      <c r="D25">
+        <v>0.13827493890859352</v>
+      </c>
+      <c r="E25">
+        <v>0.026102280426277994</v>
+      </c>
+      <c r="F25">
+        <v>0.023444942892568925</v>
+      </c>
+      <c r="G25">
+        <v>9.0985527122578439e-05</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B26">
+        <v>0.0076943979547209017</v>
+      </c>
+      <c r="C26">
+        <v>0.93091965053747483</v>
+      </c>
+      <c r="D26">
+        <v>0.018663069378639902</v>
+      </c>
+      <c r="E26">
+        <v>0.023451663113368441</v>
+      </c>
+      <c r="F26">
+        <v>0.019257109754855634</v>
+      </c>
+      <c r="G26">
+        <v>1.4109260940281906e-05</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27">
+        <v>0.024484115610811923</v>
+      </c>
+      <c r="C27">
+        <v>0.65506509158037163</v>
+      </c>
+      <c r="D27">
+        <v>0.14145631124769062</v>
+      </c>
+      <c r="E27">
+        <v>0.065843922299697766</v>
+      </c>
+      <c r="F27">
+        <v>0.11302697959239139</v>
+      </c>
+      <c r="G27">
+        <v>0.00012357966903659191</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B28">
+        <v>0.096181454826301999</v>
+      </c>
+      <c r="C28">
+        <v>0.17195306017333781</v>
+      </c>
+      <c r="D28">
+        <v>0.41322688981618166</v>
+      </c>
+      <c r="E28">
+        <v>0.14894295825682458</v>
+      </c>
+      <c r="F28">
+        <v>0.15122655190752096</v>
+      </c>
+      <c r="G28">
+        <v>0.018469085019833072</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29">
+        <v>0.012183338421685229</v>
+      </c>
+      <c r="C29">
+        <v>0.85742151017814394</v>
+      </c>
+      <c r="D29">
+        <v>0.077259734382839021</v>
+      </c>
+      <c r="E29">
+        <v>0.016563656476495783</v>
+      </c>
+      <c r="F29">
+        <v>0.036551696587345459</v>
+      </c>
+      <c r="G29">
+        <v>2.0063953490737074e-05</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30">
+        <v>0.0052721461276393862</v>
+      </c>
+      <c r="C30">
+        <v>0.89355361562786617</v>
+      </c>
+      <c r="D30">
+        <v>0.038780747444267828</v>
+      </c>
+      <c r="E30">
+        <v>0.0083212404047363579</v>
+      </c>
+      <c r="F30">
+        <v>0.054062975142027535</v>
+      </c>
+      <c r="G30">
+        <v>9.2752534627382721e-06</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31">
+        <v>0.083626596856637841</v>
+      </c>
+      <c r="C31">
+        <v>0.30999716002053224</v>
+      </c>
+      <c r="D31">
+        <v>0.29973381238670899</v>
+      </c>
+      <c r="E31">
+        <v>0.12163411122008418</v>
+      </c>
+      <c r="F31">
+        <v>0.12865283610401018</v>
+      </c>
+      <c r="G31">
+        <v>0.056355483412026487</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32">
+        <v>0.093757777387569116</v>
+      </c>
+      <c r="C32">
+        <v>0.1388276096825197</v>
+      </c>
+      <c r="D32">
+        <v>0.14255554937456885</v>
+      </c>
+      <c r="E32">
+        <v>0.29939086665874137</v>
+      </c>
+      <c r="F32">
+        <v>0.30425166375336488</v>
+      </c>
+      <c r="G32">
+        <v>0.021216533143236061</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33">
+        <v>0.064915212808397155</v>
+      </c>
+      <c r="C33">
+        <v>0.7059593296471377</v>
+      </c>
+      <c r="D33">
+        <v>0.085508378366012189</v>
+      </c>
+      <c r="E33">
+        <v>0.082022951968155677</v>
+      </c>
+      <c r="F33">
+        <v>0.060328983717477927</v>
+      </c>
+      <c r="G33">
+        <v>0.0012651434928192241</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34">
+        <v>0.14865450846854508</v>
+      </c>
+      <c r="C34">
+        <v>0.019992811506615003</v>
+      </c>
+      <c r="D34">
+        <v>0.22739782483642823</v>
+      </c>
+      <c r="E34">
+        <v>0.07328849370422956</v>
+      </c>
+      <c r="F34">
+        <v>0.48524452902196291</v>
+      </c>
+      <c r="G34">
+        <v>0.045421832462219314</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35">
+        <v>0.0071752104604430964</v>
+      </c>
+      <c r="C35">
+        <v>0.28606912210709073</v>
+      </c>
+      <c r="D35">
+        <v>0.12203212800232131</v>
+      </c>
+      <c r="E35">
+        <v>0.071272419015421432</v>
+      </c>
+      <c r="F35">
+        <v>0.43116113253681032</v>
+      </c>
+      <c r="G35">
+        <v>0.082289987877913112</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B36">
+        <v>0.01446196454038475</v>
+      </c>
+      <c r="C36">
+        <v>0.0095183104808149871</v>
+      </c>
+      <c r="D36">
+        <v>0.95065220558295427</v>
+      </c>
+      <c r="E36">
+        <v>0.021594528767083159</v>
+      </c>
+      <c r="F36">
+        <v>0.0035712174991954738</v>
+      </c>
+      <c r="G36">
+        <v>0.00020177312956734948</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37">
+        <v>0.05111020763211567</v>
+      </c>
+      <c r="C37">
+        <v>0.042978758895956544</v>
+      </c>
+      <c r="D37">
+        <v>0.81577273220354474</v>
+      </c>
+      <c r="E37">
+        <v>0.050309793042277444</v>
+      </c>
+      <c r="F37">
+        <v>0.038259795494111085</v>
+      </c>
+      <c r="G37">
+        <v>0.0015687127319947204</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38">
+        <v>0.0075317928866685709</v>
+      </c>
+      <c r="C38">
+        <v>0.08940312504763992</v>
+      </c>
+      <c r="D38">
+        <v>0.83413779604123484</v>
+      </c>
+      <c r="E38">
+        <v>0.046761659986045076</v>
+      </c>
+      <c r="F38">
+        <v>0.022043277543658334</v>
+      </c>
+      <c r="G38">
+        <v>0.00012234849475315177</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39">
+        <v>0.014678786791853813</v>
+      </c>
+      <c r="C39">
+        <v>0.044209150149990044</v>
+      </c>
+      <c r="D39">
+        <v>0.54926309169615251</v>
+      </c>
+      <c r="E39">
+        <v>0.37299849686030156</v>
+      </c>
+      <c r="F39">
+        <v>0.014566806724737263</v>
+      </c>
+      <c r="G39">
+        <v>0.0042836677769647552</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40">
+        <v>0.031867072664709076</v>
+      </c>
+      <c r="C40">
+        <v>0.024303569072373462</v>
+      </c>
+      <c r="D40">
+        <v>0.8585636344543599</v>
+      </c>
+      <c r="E40">
+        <v>0.081001546164866767</v>
+      </c>
+      <c r="F40">
+        <v>0.0037145738148944298</v>
+      </c>
+      <c r="G40">
+        <v>0.0005496038287961919</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B41">
+        <v>0.019654505352366323</v>
+      </c>
+      <c r="C41">
+        <v>0.06940888197350073</v>
+      </c>
+      <c r="D41">
+        <v>0.83522887191182393</v>
+      </c>
+      <c r="E41">
+        <v>0.046839252034527497</v>
+      </c>
+      <c r="F41">
+        <v>0.026728073411483401</v>
+      </c>
+      <c r="G41">
+        <v>0.0021404153162980807</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B42">
+        <v>0.015378009183545427</v>
+      </c>
+      <c r="C42">
+        <v>0.041240224041088493</v>
+      </c>
+      <c r="D42">
+        <v>0.48012131890042054</v>
+      </c>
+      <c r="E42">
+        <v>0.061072386816417551</v>
+      </c>
+      <c r="F42">
+        <v>0.12349058673563744</v>
+      </c>
+      <c r="G42">
+        <v>0.27869747432289038</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B43">
+        <v>0.017277022231611112</v>
+      </c>
+      <c r="C43">
+        <v>0.045411778624247584</v>
+      </c>
+      <c r="D43">
+        <v>0.6637638872876005</v>
+      </c>
+      <c r="E43">
+        <v>0.11063606989683962</v>
+      </c>
+      <c r="F43">
+        <v>0.13082205155998505</v>
+      </c>
+      <c r="G43">
+        <v>0.032089190399716111</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B44">
+        <v>0.054234761011462733</v>
+      </c>
+      <c r="C44">
+        <v>0.048806673313063945</v>
+      </c>
+      <c r="D44">
+        <v>0.80604615770679688</v>
+      </c>
+      <c r="E44">
+        <v>0.074655146593977109</v>
+      </c>
+      <c r="F44">
+        <v>0.014732008983489971</v>
+      </c>
+      <c r="G44">
+        <v>0.0015252523912093398</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B45">
+        <v>0.020613641991607111</v>
+      </c>
+      <c r="C45">
+        <v>0.054773253981710887</v>
+      </c>
+      <c r="D45">
+        <v>0.72487257376598691</v>
+      </c>
+      <c r="E45">
+        <v>0.065869532751483342</v>
+      </c>
+      <c r="F45">
+        <v>0.12202364324493836</v>
+      </c>
+      <c r="G45">
+        <v>0.011847354264273358</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46">
+        <v>0.019407349609575689</v>
+      </c>
+      <c r="C46">
+        <v>0.024538509562497365</v>
+      </c>
+      <c r="D46">
+        <v>0.60593600342931386</v>
+      </c>
+      <c r="E46">
+        <v>0.054641835065905434</v>
+      </c>
+      <c r="F46">
+        <v>0.29144780285516592</v>
+      </c>
+      <c r="G46">
+        <v>0.0040284994775419093</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B47">
+        <v>0.059081990380443664</v>
+      </c>
+      <c r="C47">
+        <v>0.083711402087123993</v>
+      </c>
+      <c r="D47">
+        <v>0.52789173581700488</v>
+      </c>
+      <c r="E47">
+        <v>0.084604849778705277</v>
+      </c>
+      <c r="F47">
+        <v>0.23192656439417644</v>
+      </c>
+      <c r="G47">
+        <v>0.012783457542545803</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B48">
+        <v>0.074925440148673028</v>
+      </c>
+      <c r="C48">
+        <v>0.074527013015676685</v>
+      </c>
+      <c r="D48">
+        <v>0.43584989913076155</v>
+      </c>
+      <c r="E48">
+        <v>0.14640644348685977</v>
+      </c>
+      <c r="F48">
+        <v>0.26027252548626462</v>
+      </c>
+      <c r="G48">
+        <v>0.0080186787317645686</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B49">
+        <v>0.032813826068120146</v>
+      </c>
+      <c r="C49">
+        <v>0.31273173151986983</v>
+      </c>
+      <c r="D49">
+        <v>0.27233040875527631</v>
+      </c>
+      <c r="E49">
+        <v>0.11739536347245372</v>
+      </c>
+      <c r="F49">
+        <v>0.26024791152900084</v>
+      </c>
+      <c r="G49">
+        <v>0.0044807586552791266</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B50">
+        <v>0.062340015929203671</v>
+      </c>
+      <c r="C50">
+        <v>0.29963180407840989</v>
+      </c>
+      <c r="D50">
+        <v>0.34052535877682699</v>
+      </c>
+      <c r="E50">
+        <v>0.069512751217941357</v>
+      </c>
+      <c r="F50">
+        <v>0.21730398127006625</v>
+      </c>
+      <c r="G50">
+        <v>0.010686088727551791</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B51">
+        <v>0.037005464152240278</v>
+      </c>
+      <c r="C51">
+        <v>0.069250783426284809</v>
+      </c>
+      <c r="D51">
+        <v>0.15201416507769322</v>
+      </c>
+      <c r="E51">
+        <v>0.035202894040059225</v>
+      </c>
+      <c r="F51">
+        <v>0.56606528226976016</v>
+      </c>
+      <c r="G51">
+        <v>0.14046141103396226</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B52">
+        <v>0.0091422684627947247</v>
+      </c>
+      <c r="C52">
+        <v>0.010205669975167149</v>
+      </c>
+      <c r="D52">
+        <v>0.88704726756437158</v>
+      </c>
+      <c r="E52">
+        <v>0.051734504240885756</v>
+      </c>
+      <c r="F52">
+        <v>0.039495930830179382</v>
+      </c>
+      <c r="G52">
+        <v>0.0023743589266013664</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B53">
+        <v>0.037435458355212448</v>
+      </c>
+      <c r="C53">
+        <v>0.05658691838391737</v>
+      </c>
+      <c r="D53">
+        <v>0.11410428914086576</v>
+      </c>
+      <c r="E53">
+        <v>0.75181397900881552</v>
+      </c>
+      <c r="F53">
+        <v>0.036046500582762549</v>
+      </c>
+      <c r="G53">
+        <v>0.0040128545284262027</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B54">
+        <v>0.042321687425819168</v>
+      </c>
+      <c r="C54">
+        <v>0.10722946167885652</v>
+      </c>
+      <c r="D54">
+        <v>0.12826097800348094</v>
+      </c>
+      <c r="E54">
+        <v>0.57900230768912553</v>
+      </c>
+      <c r="F54">
+        <v>0.12494161296736293</v>
+      </c>
+      <c r="G54">
+        <v>0.018243952235354799</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B55">
+        <v>0.036351478178623435</v>
+      </c>
+      <c r="C55">
+        <v>0.033603887250655648</v>
+      </c>
+      <c r="D55">
+        <v>0.09768472138362029</v>
+      </c>
+      <c r="E55">
+        <v>0.82402884609571136</v>
+      </c>
+      <c r="F55">
+        <v>0.0065331248767064257</v>
+      </c>
+      <c r="G55">
+        <v>0.0017979422146828076</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B56">
+        <v>0.035697639720733816</v>
+      </c>
+      <c r="C56">
+        <v>0.028847142402566989</v>
+      </c>
+      <c r="D56">
+        <v>0.13421745781442351</v>
+      </c>
+      <c r="E56">
+        <v>0.20327533379029131</v>
+      </c>
+      <c r="F56">
+        <v>0.58635887496560446</v>
+      </c>
+      <c r="G56">
+        <v>0.01160355130637993</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B57">
+        <v>0.043956032428753067</v>
+      </c>
+      <c r="C57">
+        <v>0.070881912362907751</v>
+      </c>
+      <c r="D57">
+        <v>0.60004900560511321</v>
+      </c>
+      <c r="E57">
+        <v>0.097419925375920702</v>
+      </c>
+      <c r="F57">
+        <v>0.16464951534895406</v>
+      </c>
+      <c r="G57">
+        <v>0.023043608878351454</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B58">
+        <v>0.20919159842533852</v>
+      </c>
+      <c r="C58">
+        <v>0.016068644151990049</v>
+      </c>
+      <c r="D58">
+        <v>0.1124535834517728</v>
+      </c>
+      <c r="E58">
+        <v>0.161807116435501</v>
+      </c>
+      <c r="F58">
+        <v>0.49764467099556836</v>
+      </c>
+      <c r="G58">
+        <v>0.0028343865398293535</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B59">
+        <v>0.055823522919604941</v>
+      </c>
+      <c r="C59">
+        <v>0.14292384825490922</v>
+      </c>
+      <c r="D59">
+        <v>0.20349544289339389</v>
+      </c>
+      <c r="E59">
+        <v>0.10593944659438803</v>
+      </c>
+      <c r="F59">
+        <v>0.1549321893735538</v>
+      </c>
+      <c r="G59">
+        <v>0.33688554996415015</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B60">
+        <v>0.0039520246045726473</v>
+      </c>
+      <c r="C60">
+        <v>0.10312856871018233</v>
+      </c>
+      <c r="D60">
+        <v>0.039900603900345215</v>
+      </c>
+      <c r="E60">
+        <v>0.83773182015343306</v>
+      </c>
+      <c r="F60">
+        <v>0.011175744434949078</v>
+      </c>
+      <c r="G60">
+        <v>0.0041112381965177159</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61">
+        <v>0.005314475692989715</v>
+      </c>
+      <c r="C61">
+        <v>0.030708486694920975</v>
+      </c>
+      <c r="D61">
+        <v>0.025245171730432798</v>
+      </c>
+      <c r="E61">
+        <v>0.0091443661990021092</v>
+      </c>
+      <c r="F61">
+        <v>0.92953073195063862</v>
+      </c>
+      <c r="G61">
+        <v>5.6767732015817239e-05</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B62">
+        <v>0.030094734632804411</v>
+      </c>
+      <c r="C62">
+        <v>0.054038756675467516</v>
+      </c>
+      <c r="D62">
+        <v>0.2429197900669933</v>
+      </c>
+      <c r="E62">
+        <v>0.17744673602522318</v>
+      </c>
+      <c r="F62">
+        <v>0.47712630717722043</v>
+      </c>
+      <c r="G62">
+        <v>0.0183736754222911</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B63">
+        <v>0.014689951618229566</v>
+      </c>
+      <c r="C63">
+        <v>0.028069982782905702</v>
+      </c>
+      <c r="D63">
+        <v>0.035677547365949018</v>
+      </c>
+      <c r="E63">
+        <v>0.026790666488299489</v>
+      </c>
+      <c r="F63">
+        <v>0.89352087191740015</v>
+      </c>
+      <c r="G63">
+        <v>0.0012509798272160137</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B64">
+        <v>0.087038884731216903</v>
+      </c>
+      <c r="C64">
+        <v>0.14158969870143534</v>
+      </c>
+      <c r="D64">
+        <v>0.065053370876120689</v>
+      </c>
+      <c r="E64">
+        <v>0.05554824699893289</v>
+      </c>
+      <c r="F64">
+        <v>0.64734021548119292</v>
+      </c>
+      <c r="G64">
+        <v>0.0034295832111013481</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B65">
+        <v>0.0092338152885249134</v>
+      </c>
+      <c r="C65">
+        <v>0.0074860505287537077</v>
+      </c>
+      <c r="D65">
+        <v>0.069582394511065612</v>
+      </c>
+      <c r="E65">
+        <v>0.0036053875150556893</v>
+      </c>
+      <c r="F65">
+        <v>0.90862765845879112</v>
+      </c>
+      <c r="G65">
+        <v>0.0014646936978088376</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B66">
+        <v>0.03673789584957507</v>
+      </c>
+      <c r="C66">
+        <v>0.044023892564762593</v>
+      </c>
+      <c r="D66">
+        <v>0.36238617173469417</v>
+      </c>
+      <c r="E66">
+        <v>0.060782504558683913</v>
+      </c>
+      <c r="F66">
+        <v>0.49226079060408628</v>
+      </c>
+      <c r="G66">
+        <v>0.0038087446881979576</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B67">
+        <v>0.029536464012568341</v>
+      </c>
+      <c r="C67">
+        <v>0.013734310049270226</v>
+      </c>
+      <c r="D67">
+        <v>0.052001971455451615</v>
+      </c>
+      <c r="E67">
+        <v>0.032244283023090244</v>
+      </c>
+      <c r="F67">
+        <v>0.87131051613624444</v>
+      </c>
+      <c r="G67">
+        <v>0.0011724553233751433</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B68">
+        <v>0.013781105420678086</v>
+      </c>
+      <c r="C68">
+        <v>0.019535240485042939</v>
+      </c>
+      <c r="D68">
+        <v>0.086956776493647581</v>
+      </c>
+      <c r="E68">
+        <v>0.031187879427786228</v>
+      </c>
+      <c r="F68">
+        <v>0.84481362223875633</v>
+      </c>
+      <c r="G68">
+        <v>0.0037253759340888678</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B69">
+        <v>0.043057241798633822</v>
+      </c>
+      <c r="C69">
+        <v>0.066211262292369941</v>
+      </c>
+      <c r="D69">
+        <v>0.1153462390601461</v>
+      </c>
+      <c r="E69">
+        <v>0.065394601661142165</v>
+      </c>
+      <c r="F69">
+        <v>0.69033048367904826</v>
+      </c>
+      <c r="G69">
+        <v>0.019660171508659764</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B70">
+        <v>0.024993151778493983</v>
+      </c>
+      <c r="C70">
+        <v>0.0071090442186783499</v>
+      </c>
+      <c r="D70">
+        <v>0.059607446574178241</v>
+      </c>
+      <c r="E70">
+        <v>0.03995416134032833</v>
+      </c>
+      <c r="F70">
+        <v>0.86517795481820103</v>
+      </c>
+      <c r="G70">
+        <v>0.0031582412701200786</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B71">
+        <v>0.02207818978866679</v>
+      </c>
+      <c r="C71">
+        <v>0.013781052617346832</v>
+      </c>
+      <c r="D71">
+        <v>0.071533817233853561</v>
+      </c>
+      <c r="E71">
+        <v>0.041325220683135676</v>
+      </c>
+      <c r="F71">
+        <v>0.60262067487818627</v>
+      </c>
+      <c r="G71">
+        <v>0.24866104479881088</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B72">
+        <v>0.077044611019579282</v>
+      </c>
+      <c r="C72">
+        <v>0.086219099758639312</v>
+      </c>
+      <c r="D72">
+        <v>0.1508456329706917</v>
+      </c>
+      <c r="E72">
+        <v>0.17409949033762784</v>
+      </c>
+      <c r="F72">
+        <v>0.50271365937277857</v>
+      </c>
+      <c r="G72">
+        <v>0.009077506540683419</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B73">
+        <v>0.026765862270629191</v>
+      </c>
+      <c r="C73">
+        <v>0.26619784740169872</v>
+      </c>
+      <c r="D73">
+        <v>0.11350736251263931</v>
+      </c>
+      <c r="E73">
+        <v>0.087350270896935131</v>
+      </c>
+      <c r="F73">
+        <v>0.50452664051791096</v>
+      </c>
+      <c r="G73">
+        <v>0.001652016400186633</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B74">
+        <v>0.015485248619572043</v>
+      </c>
+      <c r="C74">
+        <v>0.053824921068179724</v>
+      </c>
+      <c r="D74">
+        <v>0.090906427040030741</v>
+      </c>
+      <c r="E74">
+        <v>0.049534299526666964</v>
+      </c>
+      <c r="F74">
+        <v>0.78948972866843448</v>
+      </c>
+      <c r="G74">
+        <v>0.00075937507711600918</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B75">
+        <v>0.0049526103629094235</v>
+      </c>
+      <c r="C75">
+        <v>0.028342901590673306</v>
+      </c>
+      <c r="D75">
+        <v>0.014054069176820424</v>
+      </c>
+      <c r="E75">
+        <v>0.03306909187390783</v>
+      </c>
+      <c r="F75">
+        <v>0.91926233706370497</v>
+      </c>
+      <c r="G75">
+        <v>0.00031898993198406408</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B76">
+        <v>0.0291436712834569</v>
+      </c>
+      <c r="C76">
+        <v>0.13695646074794349</v>
+      </c>
+      <c r="D76">
+        <v>0.10869852435622429</v>
+      </c>
+      <c r="E76">
+        <v>0.1761480013540058</v>
+      </c>
+      <c r="F76">
+        <v>0.18128847238245849</v>
+      </c>
+      <c r="G76">
+        <v>0.36776486987591095</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B77">
+        <v>0.091407057513283124</v>
+      </c>
+      <c r="C77">
+        <v>0.18971834445736102</v>
+      </c>
+      <c r="D77">
+        <v>0.032788026533134333</v>
+      </c>
+      <c r="E77">
+        <v>0.43521645314512203</v>
+      </c>
+      <c r="F77">
+        <v>0.23242588317933616</v>
+      </c>
+      <c r="G77">
+        <v>0.018444235171763267</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B78">
+        <v>0.0001210610622468371</v>
+      </c>
+      <c r="C78">
+        <v>0.10620250794427862</v>
+      </c>
+      <c r="D78">
+        <v>0.00031689152495199423</v>
+      </c>
+      <c r="E78">
+        <v>0.087833190743857578</v>
+      </c>
+      <c r="F78">
+        <v>0.24331930636060323</v>
+      </c>
+      <c r="G78">
+        <v>0.56220704236406172</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B79">
+        <v>0.0046450873505718996</v>
+      </c>
+      <c r="C79">
+        <v>0.011783458139789971</v>
+      </c>
+      <c r="D79">
+        <v>0.0059948129892088853</v>
+      </c>
+      <c r="E79">
+        <v>0.0099285826168021684</v>
+      </c>
+      <c r="F79">
+        <v>0.008822065109976792</v>
+      </c>
+      <c r="G79">
+        <v>0.9588259937936503</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B80">
+        <v>0.004276095259093878</v>
+      </c>
+      <c r="C80">
+        <v>0.013612939296690187</v>
+      </c>
+      <c r="D80">
+        <v>0.010249872609325505</v>
+      </c>
+      <c r="E80">
+        <v>0.0021776082506428343</v>
+      </c>
+      <c r="F80">
+        <v>0.015137175364932851</v>
+      </c>
+      <c r="G80">
+        <v>0.95454630921931483</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B81">
+        <v>0.0027936815885678894</v>
+      </c>
+      <c r="C81">
+        <v>0.020549576847382608</v>
+      </c>
+      <c r="D81">
+        <v>0.019496243283095484</v>
+      </c>
+      <c r="E81">
+        <v>0.0025998168489414506</v>
+      </c>
+      <c r="F81">
+        <v>0.00024974360209337816</v>
+      </c>
+      <c r="G81">
+        <v>0.95431093782991927</v>
+      </c>
+      <c r="H81">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B82">
+        <v>0.0033554781203585138</v>
+      </c>
+      <c r="C82">
+        <v>0.014227569653525753</v>
+      </c>
+      <c r="D82">
+        <v>0.021374961682954222</v>
+      </c>
+      <c r="E82">
+        <v>0.0059322202574399003</v>
+      </c>
+      <c r="F82">
+        <v>0.011300362205260388</v>
+      </c>
+      <c r="G82">
+        <v>0.94380940808046121</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B83">
+        <v>0.0012155117869159834</v>
+      </c>
+      <c r="C83">
+        <v>0.011499278238099472</v>
+      </c>
+      <c r="D83">
+        <v>0.013837994522273689</v>
+      </c>
+      <c r="E83">
+        <v>0.00495999293257388</v>
+      </c>
+      <c r="F83">
+        <v>0.0017556684152956812</v>
+      </c>
+      <c r="G83">
+        <v>0.96673155410484124</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B84">
+        <v>0.00061596069690219408</v>
+      </c>
+      <c r="C84">
+        <v>0.01166793798740398</v>
+      </c>
+      <c r="D84">
+        <v>0.022417876697134718</v>
+      </c>
+      <c r="E84">
+        <v>0.00863333043196347</v>
+      </c>
+      <c r="F84">
+        <v>0.002672420705203047</v>
+      </c>
+      <c r="G84">
+        <v>0.9539924734813926</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B85">
+        <v>0.022233165096834779</v>
+      </c>
+      <c r="C85">
+        <v>0.0083105345622060973</v>
+      </c>
+      <c r="D85">
+        <v>0.052077024572088876</v>
+      </c>
+      <c r="E85">
+        <v>0.022664102643847737</v>
+      </c>
+      <c r="F85">
+        <v>0.005388040967433531</v>
+      </c>
+      <c r="G85">
+        <v>0.88932713215758896</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B86">
+        <v>0.0007134867750795865</v>
+      </c>
+      <c r="C86">
+        <v>0.0043243598312978698</v>
+      </c>
+      <c r="D86">
+        <v>0.0077712683544366749</v>
+      </c>
+      <c r="E86">
+        <v>0.038756213986679819</v>
+      </c>
+      <c r="F86">
+        <v>0.012088620964716929</v>
+      </c>
+      <c r="G86">
+        <v>0.93634605008778915</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B87">
+        <v>0.0067117995276244962</v>
+      </c>
+      <c r="C87">
+        <v>0.0065206180103622091</v>
+      </c>
+      <c r="D87">
+        <v>0.046952737492644572</v>
+      </c>
+      <c r="E87">
+        <v>0.0097100317165505334</v>
+      </c>
+      <c r="F87">
+        <v>0.031934890463255254</v>
+      </c>
+      <c r="G87">
+        <v>0.89816992278956298</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B88">
+        <v>0.020278198632232153</v>
+      </c>
+      <c r="C88">
+        <v>0.0082832988471387686</v>
+      </c>
+      <c r="D88">
+        <v>0.033549170317095756</v>
+      </c>
+      <c r="E88">
+        <v>0.033917048429620997</v>
+      </c>
+      <c r="F88">
+        <v>0.045014320124904937</v>
+      </c>
+      <c r="G88">
+        <v>0.85895796364900734</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B89">
+        <v>0.030336950093278185</v>
+      </c>
+      <c r="C89">
+        <v>0.01371915421027539</v>
+      </c>
+      <c r="D89">
+        <v>0.05654224294499912</v>
+      </c>
+      <c r="E89">
+        <v>0.037713021881038367</v>
+      </c>
+      <c r="F89">
+        <v>0.032208268215622129</v>
+      </c>
+      <c r="G89">
+        <v>0.82948036265478686</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B90">
+        <v>0.0041422510404165464</v>
+      </c>
+      <c r="C90">
+        <v>0.0059957520671388301</v>
+      </c>
+      <c r="D90">
+        <v>0.021517483723531079</v>
+      </c>
+      <c r="E90">
+        <v>0.0033616746119774499</v>
+      </c>
+      <c r="F90">
+        <v>0.0079954682394693371</v>
+      </c>
+      <c r="G90">
+        <v>0.95698737031746672</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B91">
+        <v>0.011860344376464932</v>
+      </c>
+      <c r="C91">
+        <v>0.0057965061924675643</v>
+      </c>
+      <c r="D91">
+        <v>0.028708519029230831</v>
+      </c>
+      <c r="E91">
+        <v>0.023657150738715202</v>
+      </c>
+      <c r="F91">
+        <v>0.0067034971068776769</v>
+      </c>
+      <c r="G91">
+        <v>0.92327398255624382</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B92">
+        <v>0.011964882036207033</v>
+      </c>
+      <c r="C92">
+        <v>0.0082199578429500431</v>
+      </c>
+      <c r="D92">
+        <v>0.028082655408112063</v>
+      </c>
+      <c r="E92">
+        <v>0.019024534441979376</v>
+      </c>
+      <c r="F92">
+        <v>0.0074339060841800376</v>
+      </c>
+      <c r="G92">
+        <v>0.92527406418657143</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B93">
+        <v>0.0042515381999312834</v>
+      </c>
+      <c r="C93">
+        <v>0.0011583301469966526</v>
+      </c>
+      <c r="D93">
+        <v>0.0026557838833548564</v>
+      </c>
+      <c r="E93">
+        <v>0.0043863295932130928</v>
+      </c>
+      <c r="F93">
+        <v>0.011115709480082198</v>
+      </c>
+      <c r="G93">
+        <v>0.97643230869642195</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B94">
+        <v>0.0015641668411793593</v>
+      </c>
+      <c r="C94">
+        <v>0.0015359982147468642</v>
+      </c>
+      <c r="D94">
+        <v>0.10128246345513917</v>
+      </c>
+      <c r="E94">
+        <v>0.019303448765840149</v>
+      </c>
+      <c r="F94">
+        <v>0.0095179911097994056</v>
+      </c>
+      <c r="G94">
+        <v>0.86679593161329505</v>
+      </c>
+      <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B95">
+        <v>0.029097932749435805</v>
+      </c>
+      <c r="C95">
+        <v>0.0044791649240313418</v>
+      </c>
+      <c r="D95">
+        <v>0.044334182153234057</v>
+      </c>
+      <c r="E95">
+        <v>0.011041797953303756</v>
+      </c>
+      <c r="F95">
+        <v>0.067140021961356502</v>
+      </c>
+      <c r="G95">
+        <v>0.84390690025863846</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96">
+        <v>0.015550866996742768</v>
+      </c>
+      <c r="C96">
+        <v>0.017403552385755534</v>
+      </c>
+      <c r="D96">
+        <v>0.073496986497115294</v>
+      </c>
+      <c r="E96">
+        <v>0.051973986597980318</v>
+      </c>
+      <c r="F96">
+        <v>0.0428184240550833</v>
+      </c>
+      <c r="G96">
+        <v>0.79875618346732269</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B97">
+        <v>0.20366568818240205</v>
+      </c>
+      <c r="C97">
+        <v>0.016328468416738583</v>
+      </c>
+      <c r="D97">
+        <v>0.063492782684339458</v>
+      </c>
+      <c r="E97">
+        <v>0.041016338420026575</v>
+      </c>
+      <c r="F97">
+        <v>0.19979349843093622</v>
+      </c>
+      <c r="G97">
+        <v>0.47570322386555708</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B98">
+        <v>0.0013657577016188672</v>
+      </c>
+      <c r="C98">
+        <v>0.024856722605124722</v>
+      </c>
+      <c r="D98">
+        <v>0.043444364113243754</v>
+      </c>
+      <c r="E98">
+        <v>0.0078051329234926073</v>
+      </c>
+      <c r="F98">
+        <v>0.0041672550820782131</v>
+      </c>
+      <c r="G98">
+        <v>0.91836076757444174</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B99">
+        <v>0.014185685920510414</v>
+      </c>
+      <c r="C99">
+        <v>0.019059359528823878</v>
+      </c>
+      <c r="D99">
+        <v>0.024748554818819438</v>
+      </c>
+      <c r="E99">
+        <v>0.028915591016702855</v>
+      </c>
+      <c r="F99">
+        <v>0.074692817402281744</v>
+      </c>
+      <c r="G99">
+        <v>0.83839799131286163</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B100">
+        <v>0.0058137339186255625</v>
+      </c>
+      <c r="C100">
+        <v>0.0036208267109075344</v>
+      </c>
+      <c r="D100">
+        <v>0.023558719043374643</v>
+      </c>
+      <c r="E100">
+        <v>0.031686424105573104</v>
+      </c>
+      <c r="F100">
+        <v>0.031300687992049624</v>
+      </c>
+      <c r="G100">
+        <v>0.90401960822946947</v>
+      </c>
+      <c r="H100">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B101">
+        <v>0.0025139263342447218</v>
+      </c>
+      <c r="C101">
+        <v>0.0001867539703053331</v>
+      </c>
+      <c r="D101">
+        <v>0.016129228908428748</v>
+      </c>
+      <c r="E101">
+        <v>0.032407387962291735</v>
+      </c>
+      <c r="F101">
+        <v>0.024416354355600141</v>
+      </c>
+      <c r="G101">
+        <v>0.92434634846912933</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I100"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2">
+        <v>0.61696108985967668</v>
+      </c>
+      <c r="C2">
+        <v>0.088721981811376666</v>
+      </c>
+      <c r="D2">
+        <v>0.019911486408575478</v>
+      </c>
+      <c r="E2">
+        <v>0.17740692820454296</v>
+      </c>
+      <c r="F2">
+        <v>0.094367117423036953</v>
+      </c>
+      <c r="G2">
+        <v>0.002631396292791275</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3">
+        <v>0.75943612730272858</v>
+      </c>
+      <c r="C3">
+        <v>0.0059848272182531732</v>
+      </c>
+      <c r="D3">
+        <v>0.11061480809328421</v>
+      </c>
+      <c r="E3">
+        <v>0.02351559125140357</v>
+      </c>
+      <c r="F3">
+        <v>0.10026103090293498</v>
+      </c>
+      <c r="G3">
+        <v>0.00018761523139561886</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4">
+        <v>0.88893096979341824</v>
+      </c>
+      <c r="C4">
+        <v>0.023102699627706554</v>
+      </c>
+      <c r="D4">
+        <v>0.0074378002659729039</v>
+      </c>
+      <c r="E4">
+        <v>0.041879880988134013</v>
+      </c>
+      <c r="F4">
+        <v>0.038360989238612558</v>
+      </c>
+      <c r="G4">
+        <v>0.00028766008615564351</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5">
+        <v>0.38162414208638229</v>
+      </c>
+      <c r="C5">
+        <v>0.02764633688679809</v>
+      </c>
+      <c r="D5">
+        <v>0.14157044286706541</v>
+      </c>
+      <c r="E5">
+        <v>0.14179844125178159</v>
+      </c>
+      <c r="F5">
+        <v>0.28023670122886551</v>
+      </c>
+      <c r="G5">
+        <v>0.027123935679107043</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6">
+        <v>0.64883605500307406</v>
+      </c>
+      <c r="C6">
+        <v>0.024290173771835191</v>
+      </c>
+      <c r="D6">
+        <v>0.10078665761881613</v>
+      </c>
+      <c r="E6">
+        <v>0.10528729806040457</v>
+      </c>
+      <c r="F6">
+        <v>0.11398330033005344</v>
+      </c>
+      <c r="G6">
+        <v>0.0068165152158168258</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7">
+        <v>0.47119729927879889</v>
+      </c>
+      <c r="C7">
+        <v>0.14915909168300151</v>
+      </c>
+      <c r="D7">
+        <v>0.23937368120279909</v>
+      </c>
+      <c r="E7">
+        <v>0.039995760006254343</v>
+      </c>
+      <c r="F7">
+        <v>0.097683721109352209</v>
+      </c>
+      <c r="G7">
+        <v>0.0025904467197939559</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8">
+        <v>0.40012436816069913</v>
+      </c>
+      <c r="C8">
+        <v>0.14904031516249819</v>
+      </c>
+      <c r="D8">
+        <v>0.089324849833744571</v>
+      </c>
+      <c r="E8">
+        <v>0.15744233183577686</v>
+      </c>
+      <c r="F8">
+        <v>0.20093385766038599</v>
+      </c>
+      <c r="G8">
+        <v>0.0031342773468952924</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9">
+        <v>0.065483837077451298</v>
+      </c>
+      <c r="C9">
+        <v>0.06784444552972374</v>
+      </c>
+      <c r="D9">
+        <v>0.062784479382175948</v>
+      </c>
+      <c r="E9">
+        <v>0.1332901556291386</v>
+      </c>
+      <c r="F9">
+        <v>0.46973404181899664</v>
+      </c>
+      <c r="G9">
+        <v>0.20086304056251392</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10">
+        <v>0.0063320796465511026</v>
+      </c>
+      <c r="C10">
+        <v>0.083108239795444488</v>
+      </c>
+      <c r="D10">
+        <v>0.2699632684648185</v>
+      </c>
+      <c r="E10">
+        <v>0.24332005364523782</v>
+      </c>
+      <c r="F10">
+        <v>0.35281145769310157</v>
+      </c>
+      <c r="G10">
+        <v>0.044464900754846534</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11">
+        <v>0.015964524998970709</v>
+      </c>
+      <c r="C11">
+        <v>0.15438598643361651</v>
+      </c>
+      <c r="D11">
+        <v>0.15849223070297441</v>
+      </c>
+      <c r="E11">
+        <v>0.08517612189058732</v>
+      </c>
+      <c r="F11">
+        <v>0.23401915328038686</v>
+      </c>
+      <c r="G11">
+        <v>0.35196198269346435</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12">
+        <v>0.83106979343837784</v>
+      </c>
+      <c r="C12">
+        <v>0.0061298360003503851</v>
+      </c>
+      <c r="D12">
+        <v>0.12909043288190747</v>
+      </c>
+      <c r="E12">
+        <v>0.020866006676292483</v>
+      </c>
+      <c r="F12">
+        <v>0.012686112818790712</v>
+      </c>
+      <c r="G12">
+        <v>0.00015781818428117674</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13">
+        <v>0.0035927575217806055</v>
+      </c>
+      <c r="C13">
+        <v>0.96530967797583977</v>
+      </c>
+      <c r="D13">
+        <v>0.013485790199762629</v>
+      </c>
+      <c r="E13">
+        <v>0.016181828307024543</v>
+      </c>
+      <c r="F13">
+        <v>0.0014191559227418431</v>
+      </c>
+      <c r="G13">
+        <v>1.0790072850650912e-05</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14">
+        <v>0.0055099242119872613</v>
+      </c>
+      <c r="C14">
+        <v>0.97117977266582711</v>
+      </c>
+      <c r="D14">
+        <v>0.013663500020502021</v>
+      </c>
+      <c r="E14">
+        <v>0.007594058733360289</v>
+      </c>
+      <c r="F14">
+        <v>0.0020452277985165859</v>
+      </c>
+      <c r="G14">
+        <v>7.516569806738324e-06</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15">
+        <v>0.0090688865637201521</v>
+      </c>
+      <c r="C15">
+        <v>0.95962680310775617</v>
+      </c>
+      <c r="D15">
+        <v>0.018964816637105589</v>
+      </c>
+      <c r="E15">
+        <v>0.0077518097074402428</v>
+      </c>
+      <c r="F15">
+        <v>0.0045864015843083052</v>
+      </c>
+      <c r="G15">
+        <v>1.2823996695134178e-06</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B16">
+        <v>0.0031844558499273517</v>
+      </c>
+      <c r="C16">
+        <v>0.96666088252391746</v>
+      </c>
+      <c r="D16">
+        <v>0.0052477452440566133</v>
+      </c>
+      <c r="E16">
+        <v>0.020395640279632362</v>
+      </c>
+      <c r="F16">
+        <v>0.004504169987422358</v>
+      </c>
+      <c r="G16">
+        <v>7.1061150438238853e-06</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B17">
+        <v>0.0090469528713908783</v>
+      </c>
+      <c r="C17">
+        <v>0.9527710426473921</v>
+      </c>
+      <c r="D17">
+        <v>0.023101227932412965</v>
+      </c>
+      <c r="E17">
+        <v>0.011342350315425478</v>
+      </c>
+      <c r="F17">
+        <v>0.0037233270403037441</v>
+      </c>
+      <c r="G17">
+        <v>1.5099193074920896e-05</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18">
+        <v>0.034016944428622541</v>
+      </c>
+      <c r="C18">
+        <v>0.83091430562275304</v>
+      </c>
+      <c r="D18">
+        <v>0.069832872398264814</v>
+      </c>
+      <c r="E18">
+        <v>0.029023205138823432</v>
+      </c>
+      <c r="F18">
+        <v>0.036168818294125597</v>
+      </c>
+      <c r="G18">
+        <v>4.3854117410415541e-05</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B19">
+        <v>0.0027575598177030426</v>
+      </c>
+      <c r="C19">
+        <v>0.97065738026309534</v>
+      </c>
+      <c r="D19">
+        <v>0.011599151790361428</v>
+      </c>
+      <c r="E19">
+        <v>0.012577585426233273</v>
+      </c>
+      <c r="F19">
+        <v>0.0024020969121729902</v>
+      </c>
+      <c r="G19">
+        <v>6.2257904339226104e-06</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B20">
+        <v>0.0031937850055133313</v>
+      </c>
+      <c r="C20">
+        <v>0.97273166743727435</v>
+      </c>
+      <c r="D20">
+        <v>0.014321873899825418</v>
+      </c>
+      <c r="E20">
+        <v>0.0089528765121297711</v>
+      </c>
+      <c r="F20">
+        <v>0.00079779211605692586</v>
+      </c>
+      <c r="G20">
+        <v>2.0050292002772257e-06</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B21">
+        <v>0.0032783414886671585</v>
+      </c>
+      <c r="C21">
+        <v>0.97291106249069803</v>
+      </c>
+      <c r="D21">
+        <v>0.012336272802265192</v>
+      </c>
+      <c r="E21">
+        <v>0.010571540976570218</v>
+      </c>
+      <c r="F21">
+        <v>0.00090231752931670464</v>
+      </c>
+      <c r="G21">
+        <v>4.6471248271564314e-07</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22">
+        <v>0.0045742900151499819</v>
+      </c>
+      <c r="C22">
+        <v>0.94495966354219318</v>
+      </c>
+      <c r="D22">
+        <v>0.027960476998047445</v>
+      </c>
+      <c r="E22">
+        <v>0.00635251146442999</v>
+      </c>
+      <c r="F22">
+        <v>0.01614582778798599</v>
+      </c>
+      <c r="G22">
+        <v>7.2301921933651938e-06</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23">
+        <v>0.076636720187111582</v>
+      </c>
+      <c r="C23">
+        <v>0.69811963132406052</v>
+      </c>
+      <c r="D23">
+        <v>0.076816808515326837</v>
+      </c>
+      <c r="E23">
+        <v>0.029768330502699961</v>
+      </c>
+      <c r="F23">
+        <v>0.11811258854225991</v>
+      </c>
+      <c r="G23">
+        <v>0.00054592092854106422</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B24">
+        <v>0.030673332235278822</v>
+      </c>
+      <c r="C24">
+        <v>0.92052576142122233</v>
+      </c>
+      <c r="D24">
+        <v>0.011413192129372895</v>
+      </c>
+      <c r="E24">
+        <v>0.026208554025968285</v>
+      </c>
+      <c r="F24">
+        <v>0.011159673759093229</v>
+      </c>
+      <c r="G24">
+        <v>1.9486429064620221e-05</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B25">
+        <v>0.0046802832076323648</v>
+      </c>
+      <c r="C25">
+        <v>0.95145515894514321</v>
+      </c>
+      <c r="D25">
+        <v>0.003756733808986367</v>
+      </c>
+      <c r="E25">
+        <v>0.0086256178996540946</v>
+      </c>
+      <c r="F25">
+        <v>0.031468903273267297</v>
+      </c>
+      <c r="G25">
+        <v>1.3302865316742086e-05</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B26">
+        <v>0.025078152625868318</v>
+      </c>
+      <c r="C26">
+        <v>0.88826873173837939</v>
+      </c>
+      <c r="D26">
+        <v>0.03575315732402691</v>
+      </c>
+      <c r="E26">
+        <v>0.026824011933960331</v>
+      </c>
+      <c r="F26">
+        <v>0.023957438568135644</v>
+      </c>
+      <c r="G26">
+        <v>0.00011850780962931426</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27">
+        <v>0.1513646427110848</v>
+      </c>
+      <c r="C27">
+        <v>0.18792487285919879</v>
+      </c>
+      <c r="D27">
+        <v>0.23252239619515833</v>
+      </c>
+      <c r="E27">
+        <v>0.20464365984550806</v>
+      </c>
+      <c r="F27">
+        <v>0.22044447404853593</v>
+      </c>
+      <c r="G27">
+        <v>0.0030999543405140616</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B28">
+        <v>0.0039322763026976458</v>
+      </c>
+      <c r="C28">
+        <v>0.95180998607727907</v>
+      </c>
+      <c r="D28">
+        <v>0.030616784777564899</v>
+      </c>
+      <c r="E28">
+        <v>0.011020045200545803</v>
+      </c>
+      <c r="F28">
+        <v>0.0026049095773146291</v>
+      </c>
+      <c r="G28">
+        <v>1.5998064597861147e-05</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B29">
+        <v>0.0043517385204738124</v>
+      </c>
+      <c r="C29">
+        <v>0.9477461577924462</v>
+      </c>
+      <c r="D29">
+        <v>0.02104733760475147</v>
+      </c>
+      <c r="E29">
+        <v>0.014705466194612453</v>
+      </c>
+      <c r="F29">
+        <v>0.012116979239613175</v>
+      </c>
+      <c r="G29">
+        <v>3.2320648102796401e-05</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B30">
+        <v>0.22659390393123535</v>
+      </c>
+      <c r="C30">
+        <v>0.3581957589837112</v>
+      </c>
+      <c r="D30">
+        <v>0.042555470819464473</v>
+      </c>
+      <c r="E30">
+        <v>0.23943912116345617</v>
+      </c>
+      <c r="F30">
+        <v>0.11805598675054572</v>
+      </c>
+      <c r="G30">
+        <v>0.015159758351587092</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B31">
+        <v>0.0051407226651364107</v>
+      </c>
+      <c r="C31">
+        <v>0.90245318304039357</v>
+      </c>
+      <c r="D31">
+        <v>0.018787834827675681</v>
+      </c>
+      <c r="E31">
+        <v>0.01716504210996057</v>
+      </c>
+      <c r="F31">
+        <v>0.056167852929990492</v>
+      </c>
+      <c r="G31">
+        <v>0.00028536442684320745</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B32">
+        <v>0.0023402521250363607</v>
+      </c>
+      <c r="C32">
+        <v>0.9793694630272467</v>
+      </c>
+      <c r="D32">
+        <v>0.0035067743043804395</v>
+      </c>
+      <c r="E32">
+        <v>0.0084070765859986553</v>
+      </c>
+      <c r="F32">
+        <v>0.0063735392944371727</v>
+      </c>
+      <c r="G32">
+        <v>2.8946629006588532e-06</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B33">
+        <v>0.0008956265517808601</v>
+      </c>
+      <c r="C33">
+        <v>0.67969865690836762</v>
+      </c>
+      <c r="D33">
+        <v>0.16618379458265639</v>
+      </c>
+      <c r="E33">
+        <v>0.04559758209134062</v>
+      </c>
+      <c r="F33">
+        <v>0.10673088088249001</v>
+      </c>
+      <c r="G33">
+        <v>0.00089345898336457192</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B34">
+        <v>0.0025592754839756596</v>
+      </c>
+      <c r="C34">
+        <v>0.81914713242564219</v>
+      </c>
+      <c r="D34">
+        <v>0.014966012109311677</v>
+      </c>
+      <c r="E34">
+        <v>0.10465657001605382</v>
+      </c>
+      <c r="F34">
+        <v>0.058661284797373654</v>
+      </c>
+      <c r="G34">
+        <v>9.7251676429560467e-06</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B35">
+        <v>0.00010399704897389486</v>
+      </c>
+      <c r="C35">
+        <v>0.61082935769687141</v>
+      </c>
+      <c r="D35">
+        <v>0.049626035322109734</v>
+      </c>
+      <c r="E35">
+        <v>0.023659718085512173</v>
+      </c>
+      <c r="F35">
+        <v>0.31480252508483281</v>
+      </c>
+      <c r="G35">
+        <v>0.00097836676169999371</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B36">
+        <v>0.0019275624301270328</v>
+      </c>
+      <c r="C36">
+        <v>0.0014099710815948215</v>
+      </c>
+      <c r="D36">
+        <v>0.95306454404296415</v>
+      </c>
+      <c r="E36">
+        <v>0.035037511522433555</v>
+      </c>
+      <c r="F36">
+        <v>0.0072397598541157791</v>
+      </c>
+      <c r="G36">
+        <v>0.0013206510687647425</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B37">
+        <v>0.15382904256971328</v>
+      </c>
+      <c r="C37">
+        <v>0.072161643831305161</v>
+      </c>
+      <c r="D37">
+        <v>0.65442565744909076</v>
+      </c>
+      <c r="E37">
+        <v>0.08174094477169315</v>
+      </c>
+      <c r="F37">
+        <v>0.034887511470805613</v>
+      </c>
+      <c r="G37">
+        <v>0.0029551999073919519</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B38">
+        <v>0.075878754761031772</v>
+      </c>
+      <c r="C38">
+        <v>0.035691004139551966</v>
+      </c>
+      <c r="D38">
+        <v>0.678668435793641</v>
+      </c>
+      <c r="E38">
+        <v>0.10708338434098416</v>
+      </c>
+      <c r="F38">
+        <v>0.10092515363588334</v>
+      </c>
+      <c r="G38">
+        <v>0.0017532673289079362</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B39">
+        <v>0.02987091203621918</v>
+      </c>
+      <c r="C39">
+        <v>0.18308969406434747</v>
+      </c>
+      <c r="D39">
+        <v>0.64768038714902898</v>
+      </c>
+      <c r="E39">
+        <v>0.047740990526806831</v>
+      </c>
+      <c r="F39">
+        <v>0.090733824334855717</v>
+      </c>
+      <c r="G39">
+        <v>0.00088419188874195827</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B40">
+        <v>0.21739414383810893</v>
+      </c>
+      <c r="C40">
+        <v>0.01783137403515328</v>
+      </c>
+      <c r="D40">
+        <v>0.69786306476570947</v>
+      </c>
+      <c r="E40">
+        <v>0.053800744234870558</v>
+      </c>
+      <c r="F40">
+        <v>0.0097568883117537496</v>
+      </c>
+      <c r="G40">
+        <v>0.0033537848144038615</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B41">
+        <v>0.10449559707715041</v>
+      </c>
+      <c r="C41">
+        <v>0.028803478893485935</v>
+      </c>
+      <c r="D41">
+        <v>0.63636051924808112</v>
+      </c>
+      <c r="E41">
+        <v>0.14474744248252183</v>
+      </c>
+      <c r="F41">
+        <v>0.079982905590712375</v>
+      </c>
+      <c r="G41">
+        <v>0.0056100567080483495</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B42">
+        <v>0.004447045748714175</v>
+      </c>
+      <c r="C42">
+        <v>0.0049911584655498286</v>
+      </c>
+      <c r="D42">
+        <v>0.85660759136114073</v>
+      </c>
+      <c r="E42">
+        <v>0.043106865061232465</v>
+      </c>
+      <c r="F42">
+        <v>0.085530796015042765</v>
+      </c>
+      <c r="G42">
+        <v>0.0053165433483201322</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B43">
+        <v>0.10873071925319013</v>
+      </c>
+      <c r="C43">
+        <v>0.022429988382884125</v>
+      </c>
+      <c r="D43">
+        <v>0.60168320851112456</v>
+      </c>
+      <c r="E43">
+        <v>0.10126565652582499</v>
+      </c>
+      <c r="F43">
+        <v>0.1462770566945755</v>
+      </c>
+      <c r="G43">
+        <v>0.019613370632400772</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44">
+        <v>0.018052368292466901</v>
+      </c>
+      <c r="C44">
+        <v>0.01857406060007127</v>
+      </c>
+      <c r="D44">
+        <v>0.89080920970473276</v>
+      </c>
+      <c r="E44">
+        <v>0.053997576620552969</v>
+      </c>
+      <c r="F44">
+        <v>0.014569592699124253</v>
+      </c>
+      <c r="G44">
+        <v>0.0039971920830518849</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B45">
+        <v>0.054981967351773249</v>
+      </c>
+      <c r="C45">
+        <v>0.10086360922451564</v>
+      </c>
+      <c r="D45">
+        <v>0.5158524584059565</v>
+      </c>
+      <c r="E45">
+        <v>0.078678160479099674</v>
+      </c>
+      <c r="F45">
+        <v>0.23754555814952838</v>
+      </c>
+      <c r="G45">
+        <v>0.012078246389126518</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B46">
+        <v>0.095244940598094713</v>
+      </c>
+      <c r="C46">
+        <v>0.0084382958018338894</v>
+      </c>
+      <c r="D46">
+        <v>0.0084605821796975532</v>
+      </c>
+      <c r="E46">
+        <v>0.010699472837357723</v>
+      </c>
+      <c r="F46">
+        <v>0.026287690436037247</v>
+      </c>
+      <c r="G46">
+        <v>0.85086901814697891</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B47">
+        <v>0.043378563847838572</v>
+      </c>
+      <c r="C47">
+        <v>0.026654365564960029</v>
+      </c>
+      <c r="D47">
+        <v>0.094806779819232107</v>
+      </c>
+      <c r="E47">
+        <v>0.74985172682173806</v>
+      </c>
+      <c r="F47">
+        <v>0.074557074515962399</v>
+      </c>
+      <c r="G47">
+        <v>0.010751489430268657</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B48">
+        <v>0.0045962600255953162</v>
+      </c>
+      <c r="C48">
+        <v>0.041156258471932612</v>
+      </c>
+      <c r="D48">
+        <v>0.12655900763956496</v>
+      </c>
+      <c r="E48">
+        <v>0.70152935355016832</v>
+      </c>
+      <c r="F48">
+        <v>0.11811202010806297</v>
+      </c>
+      <c r="G48">
+        <v>0.0080471002046757899</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B49">
+        <v>0.054094282179397941</v>
+      </c>
+      <c r="C49">
+        <v>0.099251787589511115</v>
+      </c>
+      <c r="D49">
+        <v>0.21522220746883403</v>
+      </c>
+      <c r="E49">
+        <v>0.38851190500072214</v>
+      </c>
+      <c r="F49">
+        <v>0.24059219157717307</v>
+      </c>
+      <c r="G49">
+        <v>0.0023276261843617235</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B50">
+        <v>0.029200433923080211</v>
+      </c>
+      <c r="C50">
+        <v>0.12147760247565727</v>
+      </c>
+      <c r="D50">
+        <v>0.21369642086092686</v>
+      </c>
+      <c r="E50">
+        <v>0.50756960319314293</v>
+      </c>
+      <c r="F50">
+        <v>0.098353545029659178</v>
+      </c>
+      <c r="G50">
+        <v>0.029702394517533329</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B51">
+        <v>0.12596926449856438</v>
+      </c>
+      <c r="C51">
+        <v>0.15790934333094664</v>
+      </c>
+      <c r="D51">
+        <v>0.11631792501943498</v>
+      </c>
+      <c r="E51">
+        <v>0.38663534255157711</v>
+      </c>
+      <c r="F51">
+        <v>0.21156055778766147</v>
+      </c>
+      <c r="G51">
+        <v>0.0016075668118154078</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B52">
+        <v>0.21601752072034477</v>
+      </c>
+      <c r="C52">
+        <v>0.026604332719935106</v>
+      </c>
+      <c r="D52">
+        <v>0.091279644786031941</v>
+      </c>
+      <c r="E52">
+        <v>0.5199646089918164</v>
+      </c>
+      <c r="F52">
+        <v>0.12817445780822095</v>
+      </c>
+      <c r="G52">
+        <v>0.017959434973650892</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B53">
+        <v>0.13507985773505424</v>
+      </c>
+      <c r="C53">
+        <v>0.14456166038437859</v>
+      </c>
+      <c r="D53">
+        <v>0.10718864373405677</v>
+      </c>
+      <c r="E53">
+        <v>0.440045623523868</v>
+      </c>
+      <c r="F53">
+        <v>0.15842534213618467</v>
+      </c>
+      <c r="G53">
+        <v>0.014698872486457727</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B54">
+        <v>0.27970928291305996</v>
+      </c>
+      <c r="C54">
+        <v>0.063791750155987106</v>
+      </c>
+      <c r="D54">
+        <v>0.011319886649799434</v>
+      </c>
+      <c r="E54">
+        <v>0.4282485255266697</v>
+      </c>
+      <c r="F54">
+        <v>0.21511364384848417</v>
+      </c>
+      <c r="G54">
+        <v>0.0018169109059996641</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B55">
+        <v>0.1845311667462177</v>
+      </c>
+      <c r="C55">
+        <v>0.035758119692341828</v>
+      </c>
+      <c r="D55">
+        <v>0.24233230114226431</v>
+      </c>
+      <c r="E55">
+        <v>0.35543558912441114</v>
+      </c>
+      <c r="F55">
+        <v>0.17378952098932288</v>
+      </c>
+      <c r="G55">
+        <v>0.008153302305442145</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B56">
+        <v>0.060677114307711735</v>
+      </c>
+      <c r="C56">
+        <v>0.12225420902944506</v>
+      </c>
+      <c r="D56">
+        <v>0.41313914724879947</v>
+      </c>
+      <c r="E56">
+        <v>0.34059570582631543</v>
+      </c>
+      <c r="F56">
+        <v>0.015410217121000455</v>
+      </c>
+      <c r="G56">
+        <v>0.047923606466727685</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B57">
+        <v>0.20934071926366624</v>
+      </c>
+      <c r="C57">
+        <v>0.24367080409035102</v>
+      </c>
+      <c r="D57">
+        <v>0.19982830475659244</v>
+      </c>
+      <c r="E57">
+        <v>0.23804928684868487</v>
+      </c>
+      <c r="F57">
+        <v>0.10196915544199621</v>
+      </c>
+      <c r="G57">
+        <v>0.0071417295987092578</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B58">
+        <v>0.21093000395482794</v>
+      </c>
+      <c r="C58">
+        <v>0.074057221458975198</v>
+      </c>
+      <c r="D58">
+        <v>0.11334472749555319</v>
+      </c>
+      <c r="E58">
+        <v>0.37654107743091936</v>
+      </c>
+      <c r="F58">
+        <v>0.15312943162935602</v>
+      </c>
+      <c r="G58">
+        <v>0.071997538030368263</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B59">
+        <v>0.040641492103593017</v>
+      </c>
+      <c r="C59">
+        <v>0.060217288970657985</v>
+      </c>
+      <c r="D59">
+        <v>0.51377015492286726</v>
+      </c>
+      <c r="E59">
+        <v>0.30802914699144041</v>
+      </c>
+      <c r="F59">
+        <v>0.036044730774724192</v>
+      </c>
+      <c r="G59">
+        <v>0.041297186236717139</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B60">
+        <v>0.0086466355971547091</v>
+      </c>
+      <c r="C60">
+        <v>0.17513355079061604</v>
+      </c>
+      <c r="D60">
+        <v>0.16443220672031264</v>
+      </c>
+      <c r="E60">
+        <v>0.22824298998813367</v>
+      </c>
+      <c r="F60">
+        <v>0.2171959561447932</v>
+      </c>
+      <c r="G60">
+        <v>0.20634866075898969</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B61">
+        <v>0.012304877497523306</v>
+      </c>
+      <c r="C61">
+        <v>0.095283425014901224</v>
+      </c>
+      <c r="D61">
+        <v>0.060673266556683716</v>
+      </c>
+      <c r="E61">
+        <v>0.047639060744149274</v>
+      </c>
+      <c r="F61">
+        <v>0.78116310001996681</v>
+      </c>
+      <c r="G61">
+        <v>0.0029362701667756878</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B62">
+        <v>0.017529604654056667</v>
+      </c>
+      <c r="C62">
+        <v>0.0016105892526742001</v>
+      </c>
+      <c r="D62">
+        <v>0.051478801524400493</v>
+      </c>
+      <c r="E62">
+        <v>0.024095159333655563</v>
+      </c>
+      <c r="F62">
+        <v>0.90331276982282604</v>
+      </c>
+      <c r="G62">
+        <v>0.0019730754123870615</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B63">
+        <v>0.010312104321659776</v>
+      </c>
+      <c r="C63">
+        <v>0.042357430748146435</v>
+      </c>
+      <c r="D63">
+        <v>0.032302326717577275</v>
+      </c>
+      <c r="E63">
+        <v>0.045700792547731073</v>
+      </c>
+      <c r="F63">
+        <v>0.86822907893004775</v>
+      </c>
+      <c r="G63">
+        <v>0.0010982667348377146</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B64">
+        <v>0.15379220766164273</v>
+      </c>
+      <c r="C64">
+        <v>0.11734320305179456</v>
+      </c>
+      <c r="D64">
+        <v>0.13943039388083647</v>
+      </c>
+      <c r="E64">
+        <v>0.10071061387487118</v>
+      </c>
+      <c r="F64">
+        <v>0.47813755622050486</v>
+      </c>
+      <c r="G64">
+        <v>0.010586025310350231</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B65">
+        <v>0.077217130333052678</v>
+      </c>
+      <c r="C65">
+        <v>0.02400305018541294</v>
+      </c>
+      <c r="D65">
+        <v>0.019240221624506098</v>
+      </c>
+      <c r="E65">
+        <v>0.021564464300861945</v>
+      </c>
+      <c r="F65">
+        <v>0.85319726570975596</v>
+      </c>
+      <c r="G65">
+        <v>0.0047778678464103913</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B66">
+        <v>0.075556616925849349</v>
+      </c>
+      <c r="C66">
+        <v>0.11966530695918454</v>
+      </c>
+      <c r="D66">
+        <v>0.031459291039626455</v>
+      </c>
+      <c r="E66">
+        <v>0.032604596240300834</v>
+      </c>
+      <c r="F66">
+        <v>0.73678753644226547</v>
+      </c>
+      <c r="G66">
+        <v>0.0039266523927733686</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B67">
+        <v>0.022915410405929117</v>
+      </c>
+      <c r="C67">
+        <v>0.052443380175869039</v>
+      </c>
+      <c r="D67">
+        <v>0.075199439133469562</v>
+      </c>
+      <c r="E67">
+        <v>0.052765589113681406</v>
+      </c>
+      <c r="F67">
+        <v>0.79636995204201799</v>
+      </c>
+      <c r="G67">
+        <v>0.00030622912903287324</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B68">
+        <v>0.0072475230705002979</v>
+      </c>
+      <c r="C68">
+        <v>0.0050336127708414148</v>
+      </c>
+      <c r="D68">
+        <v>0.0052527734041086993</v>
+      </c>
+      <c r="E68">
+        <v>0.018071147660469054</v>
+      </c>
+      <c r="F68">
+        <v>0.96408579192219812</v>
+      </c>
+      <c r="G68">
+        <v>0.00030915117188235445</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B69">
+        <v>0.08258449406150746</v>
+      </c>
+      <c r="C69">
+        <v>0.01689203418412405</v>
+      </c>
+      <c r="D69">
+        <v>0.017913466784218148</v>
+      </c>
+      <c r="E69">
+        <v>0.098434319445742782</v>
+      </c>
+      <c r="F69">
+        <v>0.68038883757161883</v>
+      </c>
+      <c r="G69">
+        <v>0.10378684795278878</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B70">
+        <v>0.046793986367000308</v>
+      </c>
+      <c r="C70">
+        <v>0.058142991157460487</v>
+      </c>
+      <c r="D70">
+        <v>0.34659655650947419</v>
+      </c>
+      <c r="E70">
+        <v>0.14065545811121274</v>
+      </c>
+      <c r="F70">
+        <v>0.29163969358573943</v>
+      </c>
+      <c r="G70">
+        <v>0.11617131426911288</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B71">
+        <v>0.0010768831388488569</v>
+      </c>
+      <c r="C71">
+        <v>0.061275348316623714</v>
+      </c>
+      <c r="D71">
+        <v>0.045845230220729588</v>
+      </c>
+      <c r="E71">
+        <v>0.070693478056844491</v>
+      </c>
+      <c r="F71">
+        <v>0.8141027127937166</v>
+      </c>
+      <c r="G71">
+        <v>0.007006347473236741</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B72">
+        <v>0.014630034619705232</v>
+      </c>
+      <c r="C72">
+        <v>0.052555674499579208</v>
+      </c>
+      <c r="D72">
+        <v>0.038308463671974963</v>
+      </c>
+      <c r="E72">
+        <v>0.077041375283882996</v>
+      </c>
+      <c r="F72">
+        <v>0.79659542407270534</v>
+      </c>
+      <c r="G72">
+        <v>0.020869027852152347</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B73">
+        <v>0.0052055376253878375</v>
+      </c>
+      <c r="C73">
+        <v>0.021922020386449977</v>
+      </c>
+      <c r="D73">
+        <v>0.044822961212191287</v>
+      </c>
+      <c r="E73">
+        <v>0.22750435003611741</v>
+      </c>
+      <c r="F73">
+        <v>0.69508757235182128</v>
+      </c>
+      <c r="G73">
+        <v>0.0054575583880322291</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B74">
+        <v>0.018294225219967517</v>
+      </c>
+      <c r="C74">
+        <v>0.050952272375314883</v>
+      </c>
+      <c r="D74">
+        <v>0.1822477172265819</v>
+      </c>
+      <c r="E74">
+        <v>0.27593968393286039</v>
+      </c>
+      <c r="F74">
+        <v>0.20061709952968615</v>
+      </c>
+      <c r="G74">
+        <v>0.27194900171558928</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B75">
+        <v>0.045228069164466492</v>
+      </c>
+      <c r="C75">
+        <v>0.0024513657139065702</v>
+      </c>
+      <c r="D75">
+        <v>0.0015627393943039639</v>
+      </c>
+      <c r="E75">
+        <v>0.03620583385633859</v>
+      </c>
+      <c r="F75">
+        <v>0.0022885943251330495</v>
+      </c>
+      <c r="G75">
+        <v>0.9122633975458514</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B76">
+        <v>0.28719892425819094</v>
+      </c>
+      <c r="C76">
+        <v>0.01169955011687167</v>
+      </c>
+      <c r="D76">
+        <v>0.2118294790886158</v>
+      </c>
+      <c r="E76">
+        <v>0.084802933242006939</v>
+      </c>
+      <c r="F76">
+        <v>0.0030774714747255636</v>
+      </c>
+      <c r="G76">
+        <v>0.40139164181958908</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B77">
+        <v>0.0027531670587359462</v>
+      </c>
+      <c r="C77">
+        <v>0.0071795732697134615</v>
+      </c>
+      <c r="D77">
+        <v>0.021022223574144842</v>
+      </c>
+      <c r="E77">
+        <v>0.013453335927354863</v>
+      </c>
+      <c r="F77">
+        <v>0.0056197848749468008</v>
+      </c>
+      <c r="G77">
+        <v>0.94997191529510405</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+      <c r="I77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B78">
+        <v>0.021934837997826948</v>
+      </c>
+      <c r="C78">
+        <v>0.0013345718391463313</v>
+      </c>
+      <c r="D78">
+        <v>0.008190818241575611</v>
+      </c>
+      <c r="E78">
+        <v>0.0058383170322423034</v>
+      </c>
+      <c r="F78">
+        <v>0.013453767464081183</v>
+      </c>
+      <c r="G78">
+        <v>0.94924768742512766</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B79">
+        <v>1.7629605999194751e-05</v>
+      </c>
+      <c r="C79">
+        <v>0.0055765079017176386</v>
+      </c>
+      <c r="D79">
+        <v>0.028506487053938042</v>
+      </c>
+      <c r="E79">
+        <v>0.020667106885979794</v>
+      </c>
+      <c r="F79">
+        <v>0.1126171493960105</v>
+      </c>
+      <c r="G79">
+        <v>0.83261511915635478</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B80">
+        <v>0.046409884409410365</v>
+      </c>
+      <c r="C80">
+        <v>0.019301869642886563</v>
+      </c>
+      <c r="D80">
+        <v>0.27676438425254929</v>
+      </c>
+      <c r="E80">
+        <v>0.087401013097398728</v>
+      </c>
+      <c r="F80">
+        <v>0.069152755902372548</v>
+      </c>
+      <c r="G80">
+        <v>0.5009700926953824</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B81">
+        <v>0.011729207210164933</v>
+      </c>
+      <c r="C81">
+        <v>0.0024085945940998795</v>
+      </c>
+      <c r="D81">
+        <v>0.013374436761416877</v>
+      </c>
+      <c r="E81">
+        <v>0.015233664284570167</v>
+      </c>
+      <c r="F81">
+        <v>0.012313734776388911</v>
+      </c>
+      <c r="G81">
+        <v>0.94494036237335921</v>
+      </c>
+      <c r="H81">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B82">
+        <v>0.0092208842555194168</v>
+      </c>
+      <c r="C82">
+        <v>0.0054232073215772702</v>
+      </c>
+      <c r="D82">
+        <v>0.027904069559348117</v>
+      </c>
+      <c r="E82">
+        <v>0.026077674525967813</v>
+      </c>
+      <c r="F82">
+        <v>0.034236097144524344</v>
+      </c>
+      <c r="G82">
+        <v>0.89713806719306299</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B83">
+        <v>0.0073502117331376553</v>
+      </c>
+      <c r="C83">
+        <v>0.0050423418389870956</v>
+      </c>
+      <c r="D83">
+        <v>0.019024866558533849</v>
+      </c>
+      <c r="E83">
+        <v>0.032234898523427008</v>
+      </c>
+      <c r="F83">
+        <v>0.0092525825735379052</v>
+      </c>
+      <c r="G83">
+        <v>0.9270950987723765</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B84">
+        <v>0.027684794870407176</v>
+      </c>
+      <c r="C84">
+        <v>0.0036416410198097022</v>
+      </c>
+      <c r="D84">
+        <v>0.011041464083268516</v>
+      </c>
+      <c r="E84">
+        <v>0.018337130418864121</v>
+      </c>
+      <c r="F84">
+        <v>0.017495188653759673</v>
+      </c>
+      <c r="G84">
+        <v>0.9217997809538907</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B85">
+        <v>0.012330386442357909</v>
+      </c>
+      <c r="C85">
+        <v>0.0055447419020808759</v>
+      </c>
+      <c r="D85">
+        <v>0.023720909537756296</v>
+      </c>
+      <c r="E85">
+        <v>0.014100534052142333</v>
+      </c>
+      <c r="F85">
+        <v>0.0197620382200814</v>
+      </c>
+      <c r="G85">
+        <v>0.92454138984558121</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B86">
+        <v>0.013347899664887784</v>
+      </c>
+      <c r="C86">
+        <v>0.0055212945420650729</v>
+      </c>
+      <c r="D86">
+        <v>0.021871449371662917</v>
+      </c>
+      <c r="E86">
+        <v>0.016865448247647279</v>
+      </c>
+      <c r="F86">
+        <v>0.0099053034130900212</v>
+      </c>
+      <c r="G86">
+        <v>0.93248860476064699</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B87">
+        <v>0.0045706117744074518</v>
+      </c>
+      <c r="C87">
+        <v>0.0092329283782343619</v>
+      </c>
+      <c r="D87">
+        <v>0.12817506001581586</v>
+      </c>
+      <c r="E87">
+        <v>0.022219114430599193</v>
+      </c>
+      <c r="F87">
+        <v>0.0047664638897008966</v>
+      </c>
+      <c r="G87">
+        <v>0.83103582151124222</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B88">
+        <v>0.039006239205363169</v>
+      </c>
+      <c r="C88">
+        <v>0.0036400513270205253</v>
+      </c>
+      <c r="D88">
+        <v>0.051765552285037451</v>
+      </c>
+      <c r="E88">
+        <v>0.036691765202868078</v>
+      </c>
+      <c r="F88">
+        <v>0.00431010845465204</v>
+      </c>
+      <c r="G88">
+        <v>0.86458628352505873</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B89">
+        <v>0.062273441785027819</v>
+      </c>
+      <c r="C89">
+        <v>0.0017434463318321742</v>
+      </c>
+      <c r="D89">
+        <v>0.0038193136706111252</v>
+      </c>
+      <c r="E89">
+        <v>0.011463562492885864</v>
+      </c>
+      <c r="F89">
+        <v>0.0087626992337757961</v>
+      </c>
+      <c r="G89">
+        <v>0.91193753648586728</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B90">
+        <v>0.0038576167932743858</v>
+      </c>
+      <c r="C90">
+        <v>0.0079774612128769955</v>
+      </c>
+      <c r="D90">
+        <v>0.025776957852151613</v>
+      </c>
+      <c r="E90">
+        <v>0.012054637328970439</v>
+      </c>
+      <c r="F90">
+        <v>0.0060163605224196415</v>
+      </c>
+      <c r="G90">
+        <v>0.94431696629030681</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B91">
+        <v>0.020995053207415775</v>
+      </c>
+      <c r="C91">
+        <v>0.0085032759479072104</v>
+      </c>
+      <c r="D91">
+        <v>0.028734104420949303</v>
+      </c>
+      <c r="E91">
+        <v>0.027197694956156235</v>
+      </c>
+      <c r="F91">
+        <v>0.016474365883790584</v>
+      </c>
+      <c r="G91">
+        <v>0.89809550558378093</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B92">
+        <v>0.0056789483521486953</v>
+      </c>
+      <c r="C92">
+        <v>0.010894445881846546</v>
+      </c>
+      <c r="D92">
+        <v>0.033997053728737056</v>
+      </c>
+      <c r="E92">
+        <v>0.031337971023786618</v>
+      </c>
+      <c r="F92">
+        <v>0.032532716233120915</v>
+      </c>
+      <c r="G92">
+        <v>0.88555886478036028</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B93">
+        <v>0.00084306153138312661</v>
+      </c>
+      <c r="C93">
+        <v>0.011537132834010129</v>
+      </c>
+      <c r="D93">
+        <v>0.021898577553322317</v>
+      </c>
+      <c r="E93">
+        <v>0.048655863227229174</v>
+      </c>
+      <c r="F93">
+        <v>0.011617732209752679</v>
+      </c>
+      <c r="G93">
+        <v>0.90544763264430261</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B94">
+        <v>0.0064327931754669361</v>
+      </c>
+      <c r="C94">
+        <v>0.0069969800017903143</v>
+      </c>
+      <c r="D94">
+        <v>0.074735170073352467</v>
+      </c>
+      <c r="E94">
+        <v>0.037893591837928259</v>
+      </c>
+      <c r="F94">
+        <v>0.0050027576576792436</v>
+      </c>
+      <c r="G94">
+        <v>0.86893870725378275</v>
+      </c>
+      <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B95">
+        <v>0.09209364733545862</v>
+      </c>
+      <c r="C95">
+        <v>0.00070276161089270815</v>
+      </c>
+      <c r="D95">
+        <v>0.0054404229932035041</v>
+      </c>
+      <c r="E95">
+        <v>0.00090011309946142371</v>
+      </c>
+      <c r="F95">
+        <v>0.354139521352338</v>
+      </c>
+      <c r="G95">
+        <v>0.54672353360864567</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B96">
+        <v>0.0020546366402267374</v>
+      </c>
+      <c r="C96">
+        <v>0.0051133756826204401</v>
+      </c>
+      <c r="D96">
+        <v>0.018295586361876406</v>
+      </c>
+      <c r="E96">
+        <v>0.011724065604316254</v>
+      </c>
+      <c r="F96">
+        <v>0.015716207009615037</v>
+      </c>
+      <c r="G96">
+        <v>0.94709612870134519</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B97">
+        <v>0.0039180180036099115</v>
+      </c>
+      <c r="C97">
+        <v>0.0024846008635660039</v>
+      </c>
+      <c r="D97">
+        <v>0.020994007017115582</v>
+      </c>
+      <c r="E97">
+        <v>0.030972957349415547</v>
+      </c>
+      <c r="F97">
+        <v>0.0090371177624890397</v>
+      </c>
+      <c r="G97">
+        <v>0.93259329900380394</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B98">
+        <v>0.0010867898109326809</v>
+      </c>
+      <c r="C98">
+        <v>0.099071837795240023</v>
+      </c>
+      <c r="D98">
+        <v>0.0079733636106154252</v>
+      </c>
+      <c r="E98">
+        <v>0.016853136786374682</v>
+      </c>
+      <c r="F98">
+        <v>0.057351657390776002</v>
+      </c>
+      <c r="G98">
+        <v>0.81766321460606128</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B99">
+        <v>0.00042884221866912054</v>
+      </c>
+      <c r="C99">
+        <v>0.0016471723970833158</v>
+      </c>
+      <c r="D99">
+        <v>0.0062374386440327296</v>
+      </c>
+      <c r="E99">
+        <v>0.064962438672357209</v>
+      </c>
+      <c r="F99">
+        <v>0.028447549292715889</v>
+      </c>
+      <c r="G99">
+        <v>0.89827655877514179</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B100">
+        <v>0.00038659135383385977</v>
+      </c>
+      <c r="C100">
+        <v>0.029841249411328888</v>
+      </c>
+      <c r="D100">
+        <v>0.057966611555899446</v>
+      </c>
+      <c r="E100">
+        <v>0.086232107871421729</v>
+      </c>
+      <c r="F100">
+        <v>0.029137377885169225</v>
+      </c>
+      <c r="G100">
+        <v>0.79643606192234684</v>
+      </c>
+      <c r="H100">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/outputs-HGR-r202/train-g__CAG-495_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__CAG-495_split_pruned.xlsx
@@ -8,6 +8,9 @@
   <sheets>
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
+    <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -15,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="508">
   <si>
     <t>Row</t>
   </si>
@@ -642,6 +645,903 @@
   </si>
   <si>
     <t>label_UMGS1426_98.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_116.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_120.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_129.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_121.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_126.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_110.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_97.fasta</t>
   </si>
 </sst>
 </file>
@@ -662,7 +1562,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -674,16 +1574,28 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6587,4 +7499,8822 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I101"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2">
+        <v>0.91532049281977268</v>
+      </c>
+      <c r="C2">
+        <v>0.036343089922634457</v>
+      </c>
+      <c r="D2">
+        <v>0.010923390348666752</v>
+      </c>
+      <c r="E2">
+        <v>0.0085762609689344002</v>
+      </c>
+      <c r="F2">
+        <v>0.028788801990270813</v>
+      </c>
+      <c r="G2">
+        <v>4.7963949720933537e-05</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3">
+        <v>0.47516618029529184</v>
+      </c>
+      <c r="C3">
+        <v>0.07844714022014318</v>
+      </c>
+      <c r="D3">
+        <v>0.32121466281971373</v>
+      </c>
+      <c r="E3">
+        <v>0.019635315176713675</v>
+      </c>
+      <c r="F3">
+        <v>0.1055014408495412</v>
+      </c>
+      <c r="G3">
+        <v>3.5260638596417287e-05</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4">
+        <v>0.70903306532896238</v>
+      </c>
+      <c r="C4">
+        <v>0.079459797049664493</v>
+      </c>
+      <c r="D4">
+        <v>0.068218942417305334</v>
+      </c>
+      <c r="E4">
+        <v>0.046902693121674027</v>
+      </c>
+      <c r="F4">
+        <v>0.096069393240970705</v>
+      </c>
+      <c r="G4">
+        <v>0.00031610884142301872</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5">
+        <v>0.5804484031938244</v>
+      </c>
+      <c r="C5">
+        <v>0.11034783764083496</v>
+      </c>
+      <c r="D5">
+        <v>0.084020942249983938</v>
+      </c>
+      <c r="E5">
+        <v>0.13433025989219166</v>
+      </c>
+      <c r="F5">
+        <v>0.09069673523052442</v>
+      </c>
+      <c r="G5">
+        <v>0.00015582179264063509</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6">
+        <v>0.36177697391883706</v>
+      </c>
+      <c r="C6">
+        <v>0.060353924340024158</v>
+      </c>
+      <c r="D6">
+        <v>0.13334435998440847</v>
+      </c>
+      <c r="E6">
+        <v>0.055491687785560788</v>
+      </c>
+      <c r="F6">
+        <v>0.38462713615047589</v>
+      </c>
+      <c r="G6">
+        <v>0.0044059178206937175</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7">
+        <v>0.90613061706673315</v>
+      </c>
+      <c r="C7">
+        <v>0.034217718712946633</v>
+      </c>
+      <c r="D7">
+        <v>0.025411177656637415</v>
+      </c>
+      <c r="E7">
+        <v>0.02936266465176875</v>
+      </c>
+      <c r="F7">
+        <v>0.004860743889567312</v>
+      </c>
+      <c r="G7">
+        <v>1.707802234669204e-05</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8">
+        <v>0.18026173956545677</v>
+      </c>
+      <c r="C8">
+        <v>0.092414378230213437</v>
+      </c>
+      <c r="D8">
+        <v>0.29193572560596581</v>
+      </c>
+      <c r="E8">
+        <v>0.12606097574803349</v>
+      </c>
+      <c r="F8">
+        <v>0.30086139714667065</v>
+      </c>
+      <c r="G8">
+        <v>0.0084657837036598692</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9">
+        <v>0.08589272482817592</v>
+      </c>
+      <c r="C9">
+        <v>0.22917817255624623</v>
+      </c>
+      <c r="D9">
+        <v>0.25663719174867905</v>
+      </c>
+      <c r="E9">
+        <v>0.13427707590940549</v>
+      </c>
+      <c r="F9">
+        <v>0.25336467850109962</v>
+      </c>
+      <c r="G9">
+        <v>0.0406501564563937</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10">
+        <v>0.012368236677917352</v>
+      </c>
+      <c r="C10">
+        <v>0.97497344484440362</v>
+      </c>
+      <c r="D10">
+        <v>0.0049866385397469787</v>
+      </c>
+      <c r="E10">
+        <v>0.0033205901961294408</v>
+      </c>
+      <c r="F10">
+        <v>0.0043506553798891793</v>
+      </c>
+      <c r="G10">
+        <v>4.3436191336779837e-07</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11">
+        <v>0.011717321027736672</v>
+      </c>
+      <c r="C11">
+        <v>0.92730713305251922</v>
+      </c>
+      <c r="D11">
+        <v>0.027007854323126194</v>
+      </c>
+      <c r="E11">
+        <v>0.009167543889207137</v>
+      </c>
+      <c r="F11">
+        <v>0.024788639542767433</v>
+      </c>
+      <c r="G11">
+        <v>1.1508164643205513e-05</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12">
+        <v>0.04111230240860899</v>
+      </c>
+      <c r="C12">
+        <v>0.54104653578403583</v>
+      </c>
+      <c r="D12">
+        <v>0.11096222539622973</v>
+      </c>
+      <c r="E12">
+        <v>0.064624750599810626</v>
+      </c>
+      <c r="F12">
+        <v>0.24195691041759987</v>
+      </c>
+      <c r="G12">
+        <v>0.00029727539371498363</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13">
+        <v>0.0062966379700913414</v>
+      </c>
+      <c r="C13">
+        <v>0.95741588668179856</v>
+      </c>
+      <c r="D13">
+        <v>0.0074601494043582467</v>
+      </c>
+      <c r="E13">
+        <v>0.0042276392935374245</v>
+      </c>
+      <c r="F13">
+        <v>0.024597054465099678</v>
+      </c>
+      <c r="G13">
+        <v>2.6321851147680522e-06</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14">
+        <v>0.010427129842729648</v>
+      </c>
+      <c r="C14">
+        <v>0.94648193021021132</v>
+      </c>
+      <c r="D14">
+        <v>0.0039740325442721176</v>
+      </c>
+      <c r="E14">
+        <v>0.004375350465987503</v>
+      </c>
+      <c r="F14">
+        <v>0.034706383168122787</v>
+      </c>
+      <c r="G14">
+        <v>3.5173768676631058e-05</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15">
+        <v>0.0099888580782705634</v>
+      </c>
+      <c r="C15">
+        <v>0.94384950474055385</v>
+      </c>
+      <c r="D15">
+        <v>0.023923054505575411</v>
+      </c>
+      <c r="E15">
+        <v>0.012561941328173953</v>
+      </c>
+      <c r="F15">
+        <v>0.0096620105005374452</v>
+      </c>
+      <c r="G15">
+        <v>1.4630846888789679e-05</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16">
+        <v>0.0038556718586321079</v>
+      </c>
+      <c r="C16">
+        <v>0.9639173026864335</v>
+      </c>
+      <c r="D16">
+        <v>0.0010815992079069817</v>
+      </c>
+      <c r="E16">
+        <v>0.00035580570264156196</v>
+      </c>
+      <c r="F16">
+        <v>0.030786842354734938</v>
+      </c>
+      <c r="G16">
+        <v>2.778189651103508e-06</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17">
+        <v>0.0094340293892012077</v>
+      </c>
+      <c r="C17">
+        <v>0.97138159073699393</v>
+      </c>
+      <c r="D17">
+        <v>0.0058039670096025064</v>
+      </c>
+      <c r="E17">
+        <v>0.0032096152756654244</v>
+      </c>
+      <c r="F17">
+        <v>0.010167532545249339</v>
+      </c>
+      <c r="G17">
+        <v>3.2650432877268475e-06</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18">
+        <v>0.0069573829788548945</v>
+      </c>
+      <c r="C18">
+        <v>0.9489682373604329</v>
+      </c>
+      <c r="D18">
+        <v>0.0027359789921822648</v>
+      </c>
+      <c r="E18">
+        <v>0.0076959251053441459</v>
+      </c>
+      <c r="F18">
+        <v>0.033618783012945616</v>
+      </c>
+      <c r="G18">
+        <v>2.3692550240183149e-05</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19">
+        <v>0.0056569770262769438</v>
+      </c>
+      <c r="C19">
+        <v>0.95290610090434447</v>
+      </c>
+      <c r="D19">
+        <v>0.00030925888913594957</v>
+      </c>
+      <c r="E19">
+        <v>0.00081844188007784691</v>
+      </c>
+      <c r="F19">
+        <v>0.040308044434609093</v>
+      </c>
+      <c r="G19">
+        <v>1.1768655557221843e-06</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20">
+        <v>0.034235205936472932</v>
+      </c>
+      <c r="C20">
+        <v>0.94243097040437285</v>
+      </c>
+      <c r="D20">
+        <v>0.0029604628363368757</v>
+      </c>
+      <c r="E20">
+        <v>0.00080591380421950372</v>
+      </c>
+      <c r="F20">
+        <v>0.019561067472525263</v>
+      </c>
+      <c r="G20">
+        <v>6.3795460724851152e-06</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21">
+        <v>0.0046187927230871995</v>
+      </c>
+      <c r="C21">
+        <v>0.5088610833335947</v>
+      </c>
+      <c r="D21">
+        <v>0.015226781517309789</v>
+      </c>
+      <c r="E21">
+        <v>0.023194444629959517</v>
+      </c>
+      <c r="F21">
+        <v>0.44564495613143995</v>
+      </c>
+      <c r="G21">
+        <v>0.0024539416646087837</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22">
+        <v>0.014508461867469579</v>
+      </c>
+      <c r="C22">
+        <v>0.96482428180685886</v>
+      </c>
+      <c r="D22">
+        <v>0.0032601795084918443</v>
+      </c>
+      <c r="E22">
+        <v>0.010634117164645204</v>
+      </c>
+      <c r="F22">
+        <v>0.0067702075943743461</v>
+      </c>
+      <c r="G22">
+        <v>2.7520581601246749e-06</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23">
+        <v>0.03915824685838231</v>
+      </c>
+      <c r="C23">
+        <v>0.021873845179536666</v>
+      </c>
+      <c r="D23">
+        <v>0.87779282076925524</v>
+      </c>
+      <c r="E23">
+        <v>0.047160734321408875</v>
+      </c>
+      <c r="F23">
+        <v>0.013752743180202436</v>
+      </c>
+      <c r="G23">
+        <v>0.00026160969121446115</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24">
+        <v>0.013100413740563257</v>
+      </c>
+      <c r="C24">
+        <v>0.048680713284196722</v>
+      </c>
+      <c r="D24">
+        <v>0.91281262115701189</v>
+      </c>
+      <c r="E24">
+        <v>0.021396322342519935</v>
+      </c>
+      <c r="F24">
+        <v>0.0037548851063916719</v>
+      </c>
+      <c r="G24">
+        <v>0.00025504436931645096</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25">
+        <v>0.0035640518349663798</v>
+      </c>
+      <c r="C25">
+        <v>0.054434467873955401</v>
+      </c>
+      <c r="D25">
+        <v>0.91373746053061455</v>
+      </c>
+      <c r="E25">
+        <v>0.021197198923848023</v>
+      </c>
+      <c r="F25">
+        <v>0.0051228196775665261</v>
+      </c>
+      <c r="G25">
+        <v>0.0019440011590490637</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26">
+        <v>0.027168033573236806</v>
+      </c>
+      <c r="C26">
+        <v>0.047661324230783862</v>
+      </c>
+      <c r="D26">
+        <v>0.80401447715930663</v>
+      </c>
+      <c r="E26">
+        <v>0.041352771980049143</v>
+      </c>
+      <c r="F26">
+        <v>0.079640136008191517</v>
+      </c>
+      <c r="G26">
+        <v>0.00016325704843210109</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27">
+        <v>0.026248386275755941</v>
+      </c>
+      <c r="C27">
+        <v>0.036860404011640063</v>
+      </c>
+      <c r="D27">
+        <v>0.87624278450192439</v>
+      </c>
+      <c r="E27">
+        <v>0.049133947500521656</v>
+      </c>
+      <c r="F27">
+        <v>0.010980291914357057</v>
+      </c>
+      <c r="G27">
+        <v>0.00053418579580088283</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28">
+        <v>0.014612252793784997</v>
+      </c>
+      <c r="C28">
+        <v>0.018106784069800815</v>
+      </c>
+      <c r="D28">
+        <v>0.86307002549707734</v>
+      </c>
+      <c r="E28">
+        <v>0.070647102193307054</v>
+      </c>
+      <c r="F28">
+        <v>0.028748135930776877</v>
+      </c>
+      <c r="G28">
+        <v>0.0048156995152528184</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29">
+        <v>0.16420360803407183</v>
+      </c>
+      <c r="C29">
+        <v>0.087312003561722279</v>
+      </c>
+      <c r="D29">
+        <v>0.54362975515943779</v>
+      </c>
+      <c r="E29">
+        <v>0.14179501090938318</v>
+      </c>
+      <c r="F29">
+        <v>0.062404057561843924</v>
+      </c>
+      <c r="G29">
+        <v>0.00065556477354083314</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30">
+        <v>0.072375745981539785</v>
+      </c>
+      <c r="C30">
+        <v>0.16964944313082317</v>
+      </c>
+      <c r="D30">
+        <v>0.53120438362635181</v>
+      </c>
+      <c r="E30">
+        <v>0.096841031646654169</v>
+      </c>
+      <c r="F30">
+        <v>0.12473578428676231</v>
+      </c>
+      <c r="G30">
+        <v>0.0051936113278686418</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31">
+        <v>0.072529925836266773</v>
+      </c>
+      <c r="C31">
+        <v>0.071063431176532063</v>
+      </c>
+      <c r="D31">
+        <v>0.77320282280989827</v>
+      </c>
+      <c r="E31">
+        <v>0.055508067378219061</v>
+      </c>
+      <c r="F31">
+        <v>0.023324555872207494</v>
+      </c>
+      <c r="G31">
+        <v>0.0043711969268763907</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32">
+        <v>0.031972876051481837</v>
+      </c>
+      <c r="C32">
+        <v>0.041695031055672391</v>
+      </c>
+      <c r="D32">
+        <v>0.81186440343825217</v>
+      </c>
+      <c r="E32">
+        <v>0.043844358962916219</v>
+      </c>
+      <c r="F32">
+        <v>0.060728691640369002</v>
+      </c>
+      <c r="G32">
+        <v>0.0098946388513084481</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33">
+        <v>0.020185924385194981</v>
+      </c>
+      <c r="C33">
+        <v>0.032152228168236367</v>
+      </c>
+      <c r="D33">
+        <v>0.47870856347849422</v>
+      </c>
+      <c r="E33">
+        <v>0.080896671832920541</v>
+      </c>
+      <c r="F33">
+        <v>0.37603155212280787</v>
+      </c>
+      <c r="G33">
+        <v>0.012025060012345955</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34">
+        <v>0.05922836724267256</v>
+      </c>
+      <c r="C34">
+        <v>0.099857585511997526</v>
+      </c>
+      <c r="D34">
+        <v>0.59311435813675129</v>
+      </c>
+      <c r="E34">
+        <v>0.065058047510240885</v>
+      </c>
+      <c r="F34">
+        <v>0.1714898887045854</v>
+      </c>
+      <c r="G34">
+        <v>0.011251752893752387</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35">
+        <v>0.053296608019935639</v>
+      </c>
+      <c r="C35">
+        <v>0.18867283032983775</v>
+      </c>
+      <c r="D35">
+        <v>0.58254122980014011</v>
+      </c>
+      <c r="E35">
+        <v>0.068913562860232355</v>
+      </c>
+      <c r="F35">
+        <v>0.10492659513535331</v>
+      </c>
+      <c r="G35">
+        <v>0.0016491738545006652</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36">
+        <v>0.070989454424545406</v>
+      </c>
+      <c r="C36">
+        <v>0.19726630392578295</v>
+      </c>
+      <c r="D36">
+        <v>0.48897278536004207</v>
+      </c>
+      <c r="E36">
+        <v>0.14329899166335294</v>
+      </c>
+      <c r="F36">
+        <v>0.093524946752561525</v>
+      </c>
+      <c r="G36">
+        <v>0.0059475178737149852</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37">
+        <v>0.056250142984895043</v>
+      </c>
+      <c r="C37">
+        <v>0.40585942836769467</v>
+      </c>
+      <c r="D37">
+        <v>0.41147670637410549</v>
+      </c>
+      <c r="E37">
+        <v>0.058222121705433082</v>
+      </c>
+      <c r="F37">
+        <v>0.067703703427369061</v>
+      </c>
+      <c r="G37">
+        <v>0.00048789714050242691</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B38">
+        <v>0.052390351200793814</v>
+      </c>
+      <c r="C38">
+        <v>0.48436731362256025</v>
+      </c>
+      <c r="D38">
+        <v>0.32735067376784405</v>
+      </c>
+      <c r="E38">
+        <v>0.024614747175724809</v>
+      </c>
+      <c r="F38">
+        <v>0.11110868594925428</v>
+      </c>
+      <c r="G38">
+        <v>0.0001682282838226074</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B39">
+        <v>0.066968755529482157</v>
+      </c>
+      <c r="C39">
+        <v>0.15188279603766319</v>
+      </c>
+      <c r="D39">
+        <v>0.57328565419179434</v>
+      </c>
+      <c r="E39">
+        <v>0.042879035652285812</v>
+      </c>
+      <c r="F39">
+        <v>0.16347456349709052</v>
+      </c>
+      <c r="G39">
+        <v>0.0015091950916840523</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40">
+        <v>0.068461968364720696</v>
+      </c>
+      <c r="C40">
+        <v>0.17230459425195913</v>
+      </c>
+      <c r="D40">
+        <v>0.28618581518704139</v>
+      </c>
+      <c r="E40">
+        <v>0.15424706843864069</v>
+      </c>
+      <c r="F40">
+        <v>0.29952193445673914</v>
+      </c>
+      <c r="G40">
+        <v>0.019278619300898973</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <v>0.035830429584023944</v>
+      </c>
+      <c r="C41">
+        <v>0.53053738800006189</v>
+      </c>
+      <c r="D41">
+        <v>0.13017963857229131</v>
+      </c>
+      <c r="E41">
+        <v>0.080570271545205435</v>
+      </c>
+      <c r="F41">
+        <v>0.15664732895635633</v>
+      </c>
+      <c r="G41">
+        <v>0.066234943342060884</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B42">
+        <v>0.12724311794059637</v>
+      </c>
+      <c r="C42">
+        <v>0.86121861069960026</v>
+      </c>
+      <c r="D42">
+        <v>0.00047930155510622017</v>
+      </c>
+      <c r="E42">
+        <v>0.0023547014053529199</v>
+      </c>
+      <c r="F42">
+        <v>0.0087041014595068255</v>
+      </c>
+      <c r="G42">
+        <v>1.6693983739630705e-07</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B43">
+        <v>0.067236542193032239</v>
+      </c>
+      <c r="C43">
+        <v>0.3898067010791853</v>
+      </c>
+      <c r="D43">
+        <v>0.086638543682562144</v>
+      </c>
+      <c r="E43">
+        <v>0.22647467287344297</v>
+      </c>
+      <c r="F43">
+        <v>0.18168285842127757</v>
+      </c>
+      <c r="G43">
+        <v>0.04816068175049968</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44">
+        <v>0.01116074531735246</v>
+      </c>
+      <c r="C44">
+        <v>0.0033660659204784132</v>
+      </c>
+      <c r="D44">
+        <v>0.00014271278806596131</v>
+      </c>
+      <c r="E44">
+        <v>0.0037193081726200833</v>
+      </c>
+      <c r="F44">
+        <v>0.0048529760229129928</v>
+      </c>
+      <c r="G44">
+        <v>0.97675819177857004</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45">
+        <v>0.029051446137639849</v>
+      </c>
+      <c r="C45">
+        <v>0.28078210664038672</v>
+      </c>
+      <c r="D45">
+        <v>0.027309411490697953</v>
+      </c>
+      <c r="E45">
+        <v>0.2111230341704243</v>
+      </c>
+      <c r="F45">
+        <v>0.18996713878489771</v>
+      </c>
+      <c r="G45">
+        <v>0.26176686277595357</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46">
+        <v>0.0034941540148626248</v>
+      </c>
+      <c r="C46">
+        <v>0.086294705735181998</v>
+      </c>
+      <c r="D46">
+        <v>0.88572172154335516</v>
+      </c>
+      <c r="E46">
+        <v>0.015899973420276745</v>
+      </c>
+      <c r="F46">
+        <v>0.0077391594266973014</v>
+      </c>
+      <c r="G46">
+        <v>0.00085028585962632064</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47">
+        <v>0.0021816760237506057</v>
+      </c>
+      <c r="C47">
+        <v>0.053096108403323961</v>
+      </c>
+      <c r="D47">
+        <v>0.022994740300195625</v>
+      </c>
+      <c r="E47">
+        <v>0.91115841553723687</v>
+      </c>
+      <c r="F47">
+        <v>0.010274354120792127</v>
+      </c>
+      <c r="G47">
+        <v>0.00029470561470075918</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48">
+        <v>0.011120988600848043</v>
+      </c>
+      <c r="C48">
+        <v>0.029937941271630807</v>
+      </c>
+      <c r="D48">
+        <v>0.060449468547577032</v>
+      </c>
+      <c r="E48">
+        <v>0.87131884574922602</v>
+      </c>
+      <c r="F48">
+        <v>0.026140008476909098</v>
+      </c>
+      <c r="G48">
+        <v>0.0010327473538090455</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49">
+        <v>0.097111847867290838</v>
+      </c>
+      <c r="C49">
+        <v>0.12554595639524307</v>
+      </c>
+      <c r="D49">
+        <v>0.37808429640298097</v>
+      </c>
+      <c r="E49">
+        <v>0.16220687919580767</v>
+      </c>
+      <c r="F49">
+        <v>0.23367310580091785</v>
+      </c>
+      <c r="G49">
+        <v>0.0033779143377597673</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B50">
+        <v>0.19609710170757957</v>
+      </c>
+      <c r="C50">
+        <v>0.15483394283007701</v>
+      </c>
+      <c r="D50">
+        <v>0.20769729725495231</v>
+      </c>
+      <c r="E50">
+        <v>0.1417458090381917</v>
+      </c>
+      <c r="F50">
+        <v>0.2505666096784166</v>
+      </c>
+      <c r="G50">
+        <v>0.049059239490782912</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B51">
+        <v>0.36132008782995573</v>
+      </c>
+      <c r="C51">
+        <v>0.21883009362007022</v>
+      </c>
+      <c r="D51">
+        <v>0.095333738226190845</v>
+      </c>
+      <c r="E51">
+        <v>0.015225123195807402</v>
+      </c>
+      <c r="F51">
+        <v>0.28992433353379954</v>
+      </c>
+      <c r="G51">
+        <v>0.019366623594176062</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52">
+        <v>0.19002085928111345</v>
+      </c>
+      <c r="C52">
+        <v>0.19877513538305025</v>
+      </c>
+      <c r="D52">
+        <v>0.09657515646261236</v>
+      </c>
+      <c r="E52">
+        <v>0.28394580685116749</v>
+      </c>
+      <c r="F52">
+        <v>0.22349294306164755</v>
+      </c>
+      <c r="G52">
+        <v>0.0071900989604087003</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B53">
+        <v>0.1001302771089032</v>
+      </c>
+      <c r="C53">
+        <v>0.19284719241139364</v>
+      </c>
+      <c r="D53">
+        <v>0.033084499307584017</v>
+      </c>
+      <c r="E53">
+        <v>0.23281419574856055</v>
+      </c>
+      <c r="F53">
+        <v>0.43895362129469601</v>
+      </c>
+      <c r="G53">
+        <v>0.0021702141288626824</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54">
+        <v>0.03307427130843895</v>
+      </c>
+      <c r="C54">
+        <v>0.011602209379981908</v>
+      </c>
+      <c r="D54">
+        <v>0.13677620841268404</v>
+      </c>
+      <c r="E54">
+        <v>0.043463852979527699</v>
+      </c>
+      <c r="F54">
+        <v>0.77406156953171013</v>
+      </c>
+      <c r="G54">
+        <v>0.0010218883876573334</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55">
+        <v>0.012454464392714873</v>
+      </c>
+      <c r="C55">
+        <v>0.019222735085300934</v>
+      </c>
+      <c r="D55">
+        <v>0.011906820910950772</v>
+      </c>
+      <c r="E55">
+        <v>0.013961442700863603</v>
+      </c>
+      <c r="F55">
+        <v>0.94162584636817293</v>
+      </c>
+      <c r="G55">
+        <v>0.00082869054199692877</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56">
+        <v>0.012211868311952168</v>
+      </c>
+      <c r="C56">
+        <v>0.027847352482709621</v>
+      </c>
+      <c r="D56">
+        <v>0.2130995139042606</v>
+      </c>
+      <c r="E56">
+        <v>0.035827950416103045</v>
+      </c>
+      <c r="F56">
+        <v>0.70928249644225172</v>
+      </c>
+      <c r="G56">
+        <v>0.0017308184427228649</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57">
+        <v>0.043460420953369633</v>
+      </c>
+      <c r="C57">
+        <v>0.12702911715285928</v>
+      </c>
+      <c r="D57">
+        <v>0.20145292961154271</v>
+      </c>
+      <c r="E57">
+        <v>0.032663632998046824</v>
+      </c>
+      <c r="F57">
+        <v>0.59522484281499022</v>
+      </c>
+      <c r="G57">
+        <v>0.00016905646919120014</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B58">
+        <v>0.088515469980180145</v>
+      </c>
+      <c r="C58">
+        <v>0.030074763626716617</v>
+      </c>
+      <c r="D58">
+        <v>0.049112282902352374</v>
+      </c>
+      <c r="E58">
+        <v>0.015365667872771771</v>
+      </c>
+      <c r="F58">
+        <v>0.81622838849786439</v>
+      </c>
+      <c r="G58">
+        <v>0.00070342712011487579</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59">
+        <v>0.07288367011106052</v>
+      </c>
+      <c r="C59">
+        <v>0.049742390466040662</v>
+      </c>
+      <c r="D59">
+        <v>0.058073423011659409</v>
+      </c>
+      <c r="E59">
+        <v>0.027808095907860614</v>
+      </c>
+      <c r="F59">
+        <v>0.79134903900468601</v>
+      </c>
+      <c r="G59">
+        <v>0.00014338149869280183</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B60">
+        <v>0.063773611566640048</v>
+      </c>
+      <c r="C60">
+        <v>0.013473888344515796</v>
+      </c>
+      <c r="D60">
+        <v>0.02214154397445597</v>
+      </c>
+      <c r="E60">
+        <v>0.030901989334436903</v>
+      </c>
+      <c r="F60">
+        <v>0.86953932850219384</v>
+      </c>
+      <c r="G60">
+        <v>0.00016963827775744988</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61">
+        <v>0.056218618013611561</v>
+      </c>
+      <c r="C61">
+        <v>0.021956517780752118</v>
+      </c>
+      <c r="D61">
+        <v>0.046921204562310831</v>
+      </c>
+      <c r="E61">
+        <v>0.037124996889904387</v>
+      </c>
+      <c r="F61">
+        <v>0.83699966320048746</v>
+      </c>
+      <c r="G61">
+        <v>0.00077899955293371027</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B62">
+        <v>0.085164790610212954</v>
+      </c>
+      <c r="C62">
+        <v>0.024790173859814267</v>
+      </c>
+      <c r="D62">
+        <v>0.088145239831668026</v>
+      </c>
+      <c r="E62">
+        <v>0.1047716136206376</v>
+      </c>
+      <c r="F62">
+        <v>0.69337350081170424</v>
+      </c>
+      <c r="G62">
+        <v>0.0037546812659630426</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63">
+        <v>0.23869112388298305</v>
+      </c>
+      <c r="C63">
+        <v>0.019401454713158274</v>
+      </c>
+      <c r="D63">
+        <v>0.093546135305246289</v>
+      </c>
+      <c r="E63">
+        <v>0.14125953525539678</v>
+      </c>
+      <c r="F63">
+        <v>0.50406132344692856</v>
+      </c>
+      <c r="G63">
+        <v>0.0030404273962870805</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B64">
+        <v>0.024795671970353081</v>
+      </c>
+      <c r="C64">
+        <v>0.10465938929199831</v>
+      </c>
+      <c r="D64">
+        <v>0.11270973763551534</v>
+      </c>
+      <c r="E64">
+        <v>0.10480647913643269</v>
+      </c>
+      <c r="F64">
+        <v>0.65254920276668316</v>
+      </c>
+      <c r="G64">
+        <v>0.00047951919901730174</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B65">
+        <v>0.067016104395479906</v>
+      </c>
+      <c r="C65">
+        <v>0.30049338063427944</v>
+      </c>
+      <c r="D65">
+        <v>0.20551001205266523</v>
+      </c>
+      <c r="E65">
+        <v>0.13037112727269948</v>
+      </c>
+      <c r="F65">
+        <v>0.29545855256519754</v>
+      </c>
+      <c r="G65">
+        <v>0.0011508230796783349</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B66">
+        <v>0.038915491307627788</v>
+      </c>
+      <c r="C66">
+        <v>0.076274042755219013</v>
+      </c>
+      <c r="D66">
+        <v>0.20613658720063086</v>
+      </c>
+      <c r="E66">
+        <v>0.06506246734063606</v>
+      </c>
+      <c r="F66">
+        <v>0.61297318099633791</v>
+      </c>
+      <c r="G66">
+        <v>0.00063823039954850164</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B67">
+        <v>0.041189676380975482</v>
+      </c>
+      <c r="C67">
+        <v>0.12004102754603529</v>
+      </c>
+      <c r="D67">
+        <v>0.14747967538129994</v>
+      </c>
+      <c r="E67">
+        <v>0.096852193373294523</v>
+      </c>
+      <c r="F67">
+        <v>0.55511567963731467</v>
+      </c>
+      <c r="G67">
+        <v>0.03932174768108012</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B68">
+        <v>0.036560459555200077</v>
+      </c>
+      <c r="C68">
+        <v>0.1865413937693067</v>
+      </c>
+      <c r="D68">
+        <v>0.11313243669696453</v>
+      </c>
+      <c r="E68">
+        <v>0.1991069798865312</v>
+      </c>
+      <c r="F68">
+        <v>0.45300998541921289</v>
+      </c>
+      <c r="G68">
+        <v>0.011648744672784549</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B69">
+        <v>0.027699463978668893</v>
+      </c>
+      <c r="C69">
+        <v>0.11774421870392984</v>
+      </c>
+      <c r="D69">
+        <v>0.13010860036880642</v>
+      </c>
+      <c r="E69">
+        <v>0.10825005458201886</v>
+      </c>
+      <c r="F69">
+        <v>0.61391894474238162</v>
+      </c>
+      <c r="G69">
+        <v>0.0022787176241942414</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B70">
+        <v>0.12508940921054604</v>
+      </c>
+      <c r="C70">
+        <v>0.037862627126814534</v>
+      </c>
+      <c r="D70">
+        <v>0.058426251806930521</v>
+      </c>
+      <c r="E70">
+        <v>0.16781076217718269</v>
+      </c>
+      <c r="F70">
+        <v>0.18684084661837161</v>
+      </c>
+      <c r="G70">
+        <v>0.4239701030601547</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71">
+        <v>0.055299327081436367</v>
+      </c>
+      <c r="C71">
+        <v>0.10112839481589229</v>
+      </c>
+      <c r="D71">
+        <v>0.2785076860362376</v>
+      </c>
+      <c r="E71">
+        <v>0.090678440299997554</v>
+      </c>
+      <c r="F71">
+        <v>0.46903462898767095</v>
+      </c>
+      <c r="G71">
+        <v>0.0053515227787651774</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B72">
+        <v>0.012714116015321578</v>
+      </c>
+      <c r="C72">
+        <v>0.62246317495273773</v>
+      </c>
+      <c r="D72">
+        <v>0.010776901382658546</v>
+      </c>
+      <c r="E72">
+        <v>0.064826530398082061</v>
+      </c>
+      <c r="F72">
+        <v>0.28921174817022155</v>
+      </c>
+      <c r="G72">
+        <v>7.5290809783363651e-06</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B73">
+        <v>0.017436039395814385</v>
+      </c>
+      <c r="C73">
+        <v>0.16873728144278247</v>
+      </c>
+      <c r="D73">
+        <v>0.14632799425107706</v>
+      </c>
+      <c r="E73">
+        <v>0.033607371877110437</v>
+      </c>
+      <c r="F73">
+        <v>0.631628615401988</v>
+      </c>
+      <c r="G73">
+        <v>0.0022626976312278332</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B74">
+        <v>0.012803378405574594</v>
+      </c>
+      <c r="C74">
+        <v>0.096472849062459301</v>
+      </c>
+      <c r="D74">
+        <v>0.048654983635229666</v>
+      </c>
+      <c r="E74">
+        <v>0.21040335264485968</v>
+      </c>
+      <c r="F74">
+        <v>0.59703225702419238</v>
+      </c>
+      <c r="G74">
+        <v>0.034633179227684462</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B75">
+        <v>0.062071188450189371</v>
+      </c>
+      <c r="C75">
+        <v>0.32401820327579056</v>
+      </c>
+      <c r="D75">
+        <v>0.30210287163324695</v>
+      </c>
+      <c r="E75">
+        <v>0.082598858582855192</v>
+      </c>
+      <c r="F75">
+        <v>0.2258161100836468</v>
+      </c>
+      <c r="G75">
+        <v>0.0033927679742711183</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B76">
+        <v>0.0086797741384954628</v>
+      </c>
+      <c r="C76">
+        <v>0.013752664700681214</v>
+      </c>
+      <c r="D76">
+        <v>0.0058074698910369656</v>
+      </c>
+      <c r="E76">
+        <v>0.0052713828016800529</v>
+      </c>
+      <c r="F76">
+        <v>0.0093164631297070789</v>
+      </c>
+      <c r="G76">
+        <v>0.95717224533839917</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B77">
+        <v>0.01027113150964531</v>
+      </c>
+      <c r="C77">
+        <v>0.0083088969494661911</v>
+      </c>
+      <c r="D77">
+        <v>0.0028320308232454533</v>
+      </c>
+      <c r="E77">
+        <v>0.0088294803007762639</v>
+      </c>
+      <c r="F77">
+        <v>0.002711848570688972</v>
+      </c>
+      <c r="G77">
+        <v>0.96704661184617779</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+      <c r="I77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78">
+        <v>0.032364148475720909</v>
+      </c>
+      <c r="C78">
+        <v>0.0015209021439055689</v>
+      </c>
+      <c r="D78">
+        <v>0.0039791680895335064</v>
+      </c>
+      <c r="E78">
+        <v>0.016165167558216825</v>
+      </c>
+      <c r="F78">
+        <v>0.022706320789891942</v>
+      </c>
+      <c r="G78">
+        <v>0.92326429294273127</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B79">
+        <v>0.0021669582599973458</v>
+      </c>
+      <c r="C79">
+        <v>0.019292251756645583</v>
+      </c>
+      <c r="D79">
+        <v>0.0091258331182549422</v>
+      </c>
+      <c r="E79">
+        <v>0.021047943538710673</v>
+      </c>
+      <c r="F79">
+        <v>0.020350024402531076</v>
+      </c>
+      <c r="G79">
+        <v>0.92801698892386042</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B80">
+        <v>0.0014296589418424043</v>
+      </c>
+      <c r="C80">
+        <v>0.0026341775073656123</v>
+      </c>
+      <c r="D80">
+        <v>0.0058154633844959636</v>
+      </c>
+      <c r="E80">
+        <v>0.014110356869074941</v>
+      </c>
+      <c r="F80">
+        <v>0.020868456448984943</v>
+      </c>
+      <c r="G80">
+        <v>0.95514188684823609</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B81">
+        <v>0.0027019553447011962</v>
+      </c>
+      <c r="C81">
+        <v>0.018376646972099241</v>
+      </c>
+      <c r="D81">
+        <v>0.0099717692203340688</v>
+      </c>
+      <c r="E81">
+        <v>0.017340076958091744</v>
+      </c>
+      <c r="F81">
+        <v>0.024408404727523616</v>
+      </c>
+      <c r="G81">
+        <v>0.92720114677725007</v>
+      </c>
+      <c r="H81">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B82">
+        <v>0.00076341836939320437</v>
+      </c>
+      <c r="C82">
+        <v>0.009416757323181946</v>
+      </c>
+      <c r="D82">
+        <v>0.0048179425780958216</v>
+      </c>
+      <c r="E82">
+        <v>0.037046513568189623</v>
+      </c>
+      <c r="F82">
+        <v>0.0080021478326948656</v>
+      </c>
+      <c r="G82">
+        <v>0.93995322032844464</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B83">
+        <v>0.026066470930029045</v>
+      </c>
+      <c r="C83">
+        <v>0.72492466549363987</v>
+      </c>
+      <c r="D83">
+        <v>0.00021954386560713916</v>
+      </c>
+      <c r="E83">
+        <v>0.0012707646422140987</v>
+      </c>
+      <c r="F83">
+        <v>0.0022209720060242413</v>
+      </c>
+      <c r="G83">
+        <v>0.24529758306248572</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B84">
+        <v>0.0091725951630696016</v>
+      </c>
+      <c r="C84">
+        <v>0.0057344866447798784</v>
+      </c>
+      <c r="D84">
+        <v>0.066722062592081785</v>
+      </c>
+      <c r="E84">
+        <v>0.045485470365784271</v>
+      </c>
+      <c r="F84">
+        <v>0.045803128650759417</v>
+      </c>
+      <c r="G84">
+        <v>0.82708225658352508</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85">
+        <v>0.014654549889371553</v>
+      </c>
+      <c r="C85">
+        <v>0.0064903698817969108</v>
+      </c>
+      <c r="D85">
+        <v>0.012225307209055349</v>
+      </c>
+      <c r="E85">
+        <v>0.0070561114828636166</v>
+      </c>
+      <c r="F85">
+        <v>0.031086283208440077</v>
+      </c>
+      <c r="G85">
+        <v>0.9284873783284725</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B86">
+        <v>0.0097831358630676643</v>
+      </c>
+      <c r="C86">
+        <v>0.0060701616765589418</v>
+      </c>
+      <c r="D86">
+        <v>0.029815680513804357</v>
+      </c>
+      <c r="E86">
+        <v>0.022981876598417484</v>
+      </c>
+      <c r="F86">
+        <v>0.041861384064633599</v>
+      </c>
+      <c r="G86">
+        <v>0.88948776128351792</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B87">
+        <v>0.01069541827959576</v>
+      </c>
+      <c r="C87">
+        <v>0.0072706641208010745</v>
+      </c>
+      <c r="D87">
+        <v>0.061912222298157495</v>
+      </c>
+      <c r="E87">
+        <v>0.017301093685982611</v>
+      </c>
+      <c r="F87">
+        <v>0.013402471658350354</v>
+      </c>
+      <c r="G87">
+        <v>0.88941812995711267</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B88">
+        <v>0.012656915728865865</v>
+      </c>
+      <c r="C88">
+        <v>0.010338722053214289</v>
+      </c>
+      <c r="D88">
+        <v>0.016993347410031643</v>
+      </c>
+      <c r="E88">
+        <v>0.026279573131260212</v>
+      </c>
+      <c r="F88">
+        <v>0.034557695006375171</v>
+      </c>
+      <c r="G88">
+        <v>0.89917374667025274</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B89">
+        <v>0.014308871877777456</v>
+      </c>
+      <c r="C89">
+        <v>0.0089170814235488161</v>
+      </c>
+      <c r="D89">
+        <v>0.016214238439075053</v>
+      </c>
+      <c r="E89">
+        <v>0.009750346369343894</v>
+      </c>
+      <c r="F89">
+        <v>0.022239671424618961</v>
+      </c>
+      <c r="G89">
+        <v>0.92856979046563581</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B90">
+        <v>0.012591179683328683</v>
+      </c>
+      <c r="C90">
+        <v>0.012720478123368659</v>
+      </c>
+      <c r="D90">
+        <v>0.044292830065082958</v>
+      </c>
+      <c r="E90">
+        <v>0.025407743874212282</v>
+      </c>
+      <c r="F90">
+        <v>0.022803378621930919</v>
+      </c>
+      <c r="G90">
+        <v>0.88218438963207657</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B91">
+        <v>0.010489775139200052</v>
+      </c>
+      <c r="C91">
+        <v>0.0091626755792602859</v>
+      </c>
+      <c r="D91">
+        <v>0.012243722539709977</v>
+      </c>
+      <c r="E91">
+        <v>0.0062056622450799544</v>
+      </c>
+      <c r="F91">
+        <v>0.044705045603079994</v>
+      </c>
+      <c r="G91">
+        <v>0.91719311889366972</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B92">
+        <v>0.0046171517302958437</v>
+      </c>
+      <c r="C92">
+        <v>0.0076230892083780635</v>
+      </c>
+      <c r="D92">
+        <v>0.017767181392456345</v>
+      </c>
+      <c r="E92">
+        <v>0.006293348657304779</v>
+      </c>
+      <c r="F92">
+        <v>0.0070296175839488911</v>
+      </c>
+      <c r="G92">
+        <v>0.95666961142761608</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B93">
+        <v>0.01466601040285625</v>
+      </c>
+      <c r="C93">
+        <v>0.0044321543854668934</v>
+      </c>
+      <c r="D93">
+        <v>0.0040141708664946287</v>
+      </c>
+      <c r="E93">
+        <v>0.0066037550345534419</v>
+      </c>
+      <c r="F93">
+        <v>0.0037419179622811805</v>
+      </c>
+      <c r="G93">
+        <v>0.96654199134834762</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B94">
+        <v>0.003960274095446639</v>
+      </c>
+      <c r="C94">
+        <v>0.022053318743024665</v>
+      </c>
+      <c r="D94">
+        <v>0.021326166699823457</v>
+      </c>
+      <c r="E94">
+        <v>0.022687515891395192</v>
+      </c>
+      <c r="F94">
+        <v>0.024414927719624373</v>
+      </c>
+      <c r="G94">
+        <v>0.90555779685068571</v>
+      </c>
+      <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B95">
+        <v>0.0085236041557456618</v>
+      </c>
+      <c r="C95">
+        <v>0.010662969911659532</v>
+      </c>
+      <c r="D95">
+        <v>0.024961427800691487</v>
+      </c>
+      <c r="E95">
+        <v>0.0083694779389923389</v>
+      </c>
+      <c r="F95">
+        <v>0.0031340703673532278</v>
+      </c>
+      <c r="G95">
+        <v>0.94434844982555777</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96">
+        <v>0.01462157370716295</v>
+      </c>
+      <c r="C96">
+        <v>0.045458742656288603</v>
+      </c>
+      <c r="D96">
+        <v>0.021591209859464985</v>
+      </c>
+      <c r="E96">
+        <v>0.009476439891193289</v>
+      </c>
+      <c r="F96">
+        <v>0.02976703413718677</v>
+      </c>
+      <c r="G96">
+        <v>0.87908499974870347</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B97">
+        <v>0.015266980995960798</v>
+      </c>
+      <c r="C97">
+        <v>0.037024354023726606</v>
+      </c>
+      <c r="D97">
+        <v>0.051207423794772187</v>
+      </c>
+      <c r="E97">
+        <v>0.059970806107117143</v>
+      </c>
+      <c r="F97">
+        <v>0.11788344552633184</v>
+      </c>
+      <c r="G97">
+        <v>0.7186469895520915</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98">
+        <v>0.00080622329301555638</v>
+      </c>
+      <c r="C98">
+        <v>0.0081554405999208195</v>
+      </c>
+      <c r="D98">
+        <v>0.025719015141498301</v>
+      </c>
+      <c r="E98">
+        <v>0.019489253355924281</v>
+      </c>
+      <c r="F98">
+        <v>0.019090992503357464</v>
+      </c>
+      <c r="G98">
+        <v>0.92673907510628362</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B99">
+        <v>0.0096112535992161907</v>
+      </c>
+      <c r="C99">
+        <v>0.0076633321976555258</v>
+      </c>
+      <c r="D99">
+        <v>0.023610033118015926</v>
+      </c>
+      <c r="E99">
+        <v>0.024462105075245762</v>
+      </c>
+      <c r="F99">
+        <v>0.0088625831616352402</v>
+      </c>
+      <c r="G99">
+        <v>0.92579069284823134</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B100">
+        <v>0.065906000154053443</v>
+      </c>
+      <c r="C100">
+        <v>0.0023550587638971584</v>
+      </c>
+      <c r="D100">
+        <v>0.0047911512514712592</v>
+      </c>
+      <c r="E100">
+        <v>0.026956500427357401</v>
+      </c>
+      <c r="F100">
+        <v>0.034116111954009896</v>
+      </c>
+      <c r="G100">
+        <v>0.86587517744921083</v>
+      </c>
+      <c r="H100">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B101">
+        <v>0.0082271363992378107</v>
+      </c>
+      <c r="C101">
+        <v>0.0096391901900641369</v>
+      </c>
+      <c r="D101">
+        <v>0.0095341540433457172</v>
+      </c>
+      <c r="E101">
+        <v>0.0065098044039986836</v>
+      </c>
+      <c r="F101">
+        <v>0.096863252007745301</v>
+      </c>
+      <c r="G101">
+        <v>0.86922646295560835</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I101"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2">
+        <v>0.85158363269584991</v>
+      </c>
+      <c r="C2">
+        <v>0.02981904288496131</v>
+      </c>
+      <c r="D2">
+        <v>0.017408089272475089</v>
+      </c>
+      <c r="E2">
+        <v>0.095476045516829658</v>
+      </c>
+      <c r="F2">
+        <v>0.0056514642677736324</v>
+      </c>
+      <c r="G2">
+        <v>6.1725362110367363e-05</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3">
+        <v>0.7588057139359532</v>
+      </c>
+      <c r="C3">
+        <v>0.040669455618931698</v>
+      </c>
+      <c r="D3">
+        <v>0.065462004837850862</v>
+      </c>
+      <c r="E3">
+        <v>0.066486559053444416</v>
+      </c>
+      <c r="F3">
+        <v>0.068141606048248593</v>
+      </c>
+      <c r="G3">
+        <v>0.00043466050557122553</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4">
+        <v>0.51932281869091534</v>
+      </c>
+      <c r="C4">
+        <v>0.03862212057719154</v>
+      </c>
+      <c r="D4">
+        <v>0.047177762261904913</v>
+      </c>
+      <c r="E4">
+        <v>0.34088221049360301</v>
+      </c>
+      <c r="F4">
+        <v>0.048705229092969066</v>
+      </c>
+      <c r="G4">
+        <v>0.0052898588834163615</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5">
+        <v>0.78480438959329113</v>
+      </c>
+      <c r="C5">
+        <v>0.042333652195727045</v>
+      </c>
+      <c r="D5">
+        <v>0.075495900747191605</v>
+      </c>
+      <c r="E5">
+        <v>0.035629391987574394</v>
+      </c>
+      <c r="F5">
+        <v>0.061541649675209129</v>
+      </c>
+      <c r="G5">
+        <v>0.00019501580100693313</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6">
+        <v>0.91573997823213682</v>
+      </c>
+      <c r="C6">
+        <v>0.013364732332883105</v>
+      </c>
+      <c r="D6">
+        <v>0.011567005621031209</v>
+      </c>
+      <c r="E6">
+        <v>0.040351050785689388</v>
+      </c>
+      <c r="F6">
+        <v>0.018483508408278945</v>
+      </c>
+      <c r="G6">
+        <v>0.00049372461998059591</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7">
+        <v>0.47676820686416882</v>
+      </c>
+      <c r="C7">
+        <v>0.033933696701515956</v>
+      </c>
+      <c r="D7">
+        <v>0.16521044813428171</v>
+      </c>
+      <c r="E7">
+        <v>0.18024286444618803</v>
+      </c>
+      <c r="F7">
+        <v>0.052579864594296942</v>
+      </c>
+      <c r="G7">
+        <v>0.091264919259548466</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8">
+        <v>0.14766238966026363</v>
+      </c>
+      <c r="C8">
+        <v>0.074006098548311722</v>
+      </c>
+      <c r="D8">
+        <v>0.31972913244274714</v>
+      </c>
+      <c r="E8">
+        <v>0.12424705567939451</v>
+      </c>
+      <c r="F8">
+        <v>0.32805394513949465</v>
+      </c>
+      <c r="G8">
+        <v>0.0063013785297882765</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9">
+        <v>0.34135642887229745</v>
+      </c>
+      <c r="C9">
+        <v>0.038191067886043761</v>
+      </c>
+      <c r="D9">
+        <v>0.16589071636788261</v>
+      </c>
+      <c r="E9">
+        <v>0.22276385154048603</v>
+      </c>
+      <c r="F9">
+        <v>0.098129383587458263</v>
+      </c>
+      <c r="G9">
+        <v>0.13366855174583184</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10">
+        <v>0.026408889886009149</v>
+      </c>
+      <c r="C10">
+        <v>0.026544987031010159</v>
+      </c>
+      <c r="D10">
+        <v>0.11848243903728352</v>
+      </c>
+      <c r="E10">
+        <v>0.17969780038009786</v>
+      </c>
+      <c r="F10">
+        <v>0.36216499920650036</v>
+      </c>
+      <c r="G10">
+        <v>0.28670088445909891</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11">
+        <v>0.0013220214505687514</v>
+      </c>
+      <c r="C11">
+        <v>0.0030066054142574186</v>
+      </c>
+      <c r="D11">
+        <v>0.035161169872873675</v>
+      </c>
+      <c r="E11">
+        <v>0.10592878128457349</v>
+      </c>
+      <c r="F11">
+        <v>0.12303311861773926</v>
+      </c>
+      <c r="G11">
+        <v>0.73154830335998733</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12">
+        <v>0.88674050586393727</v>
+      </c>
+      <c r="C12">
+        <v>0.024376462286062876</v>
+      </c>
+      <c r="D12">
+        <v>0.035015367788600753</v>
+      </c>
+      <c r="E12">
+        <v>0.031009862291308855</v>
+      </c>
+      <c r="F12">
+        <v>0.022719229108992406</v>
+      </c>
+      <c r="G12">
+        <v>0.00013857266109803908</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13">
+        <v>0.72838224720986544</v>
+      </c>
+      <c r="C13">
+        <v>0.10852706645828182</v>
+      </c>
+      <c r="D13">
+        <v>0.054597343570721484</v>
+      </c>
+      <c r="E13">
+        <v>0.09573264708998877</v>
+      </c>
+      <c r="F13">
+        <v>0.012229322713575597</v>
+      </c>
+      <c r="G13">
+        <v>0.00053137295756698827</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14">
+        <v>0.91968284326748018</v>
+      </c>
+      <c r="C14">
+        <v>0.020037902947803349</v>
+      </c>
+      <c r="D14">
+        <v>0.028387820054058318</v>
+      </c>
+      <c r="E14">
+        <v>0.014504658713262949</v>
+      </c>
+      <c r="F14">
+        <v>0.016750521790215959</v>
+      </c>
+      <c r="G14">
+        <v>0.00063625322717933083</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15">
+        <v>0.0078508374984215534</v>
+      </c>
+      <c r="C15">
+        <v>0.80770745828403678</v>
+      </c>
+      <c r="D15">
+        <v>0.15861561149339068</v>
+      </c>
+      <c r="E15">
+        <v>0.025051589565526281</v>
+      </c>
+      <c r="F15">
+        <v>0.00075969573879513868</v>
+      </c>
+      <c r="G15">
+        <v>1.4807419829547768e-05</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16">
+        <v>0.05724700141068001</v>
+      </c>
+      <c r="C16">
+        <v>0.4120391030508741</v>
+      </c>
+      <c r="D16">
+        <v>0.11082974306121378</v>
+      </c>
+      <c r="E16">
+        <v>0.24634005913768073</v>
+      </c>
+      <c r="F16">
+        <v>0.15091780798884405</v>
+      </c>
+      <c r="G16">
+        <v>0.022626285350707348</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17">
+        <v>0.0099026089257708734</v>
+      </c>
+      <c r="C17">
+        <v>0.96572719600426993</v>
+      </c>
+      <c r="D17">
+        <v>0.013607470868868493</v>
+      </c>
+      <c r="E17">
+        <v>0.0067680130485234186</v>
+      </c>
+      <c r="F17">
+        <v>0.0039927228297364226</v>
+      </c>
+      <c r="G17">
+        <v>1.9883228307810314e-06</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18">
+        <v>0.0036428003743209343</v>
+      </c>
+      <c r="C18">
+        <v>0.95225740187385977</v>
+      </c>
+      <c r="D18">
+        <v>0.030221718792980783</v>
+      </c>
+      <c r="E18">
+        <v>0.010363857368022353</v>
+      </c>
+      <c r="F18">
+        <v>0.0035103917316634684</v>
+      </c>
+      <c r="G18">
+        <v>3.8298591527234555e-06</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19">
+        <v>0.0060492675476004135</v>
+      </c>
+      <c r="C19">
+        <v>0.87949426080582227</v>
+      </c>
+      <c r="D19">
+        <v>0.099920381046735229</v>
+      </c>
+      <c r="E19">
+        <v>0.013087731997482425</v>
+      </c>
+      <c r="F19">
+        <v>0.0014422087968449791</v>
+      </c>
+      <c r="G19">
+        <v>6.1498055146233301e-06</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20">
+        <v>0.0053324515542997417</v>
+      </c>
+      <c r="C20">
+        <v>0.92496606711111184</v>
+      </c>
+      <c r="D20">
+        <v>0.04603763386770502</v>
+      </c>
+      <c r="E20">
+        <v>0.014285011412122881</v>
+      </c>
+      <c r="F20">
+        <v>0.009349682653458001</v>
+      </c>
+      <c r="G20">
+        <v>2.9153401302623205e-05</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21">
+        <v>0.0064121322352050049</v>
+      </c>
+      <c r="C21">
+        <v>0.95428487663210959</v>
+      </c>
+      <c r="D21">
+        <v>0.015834929136388291</v>
+      </c>
+      <c r="E21">
+        <v>0.015658726143952102</v>
+      </c>
+      <c r="F21">
+        <v>0.0078022160183999949</v>
+      </c>
+      <c r="G21">
+        <v>7.1198339450526124e-06</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22">
+        <v>0.0085348230465760091</v>
+      </c>
+      <c r="C22">
+        <v>0.86853535232752144</v>
+      </c>
+      <c r="D22">
+        <v>0.10130860578542125</v>
+      </c>
+      <c r="E22">
+        <v>0.015656752493489457</v>
+      </c>
+      <c r="F22">
+        <v>0.005938350224047372</v>
+      </c>
+      <c r="G22">
+        <v>2.6116122944506886e-05</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23">
+        <v>0.0295082805284024</v>
+      </c>
+      <c r="C23">
+        <v>0.72107602345049437</v>
+      </c>
+      <c r="D23">
+        <v>0.13725515045921843</v>
+      </c>
+      <c r="E23">
+        <v>0.063178455080362197</v>
+      </c>
+      <c r="F23">
+        <v>0.041704749635091354</v>
+      </c>
+      <c r="G23">
+        <v>0.0072773408464310903</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24">
+        <v>0.025190480660155761</v>
+      </c>
+      <c r="C24">
+        <v>0.85395676903187867</v>
+      </c>
+      <c r="D24">
+        <v>0.040125139665516389</v>
+      </c>
+      <c r="E24">
+        <v>0.056562140058425026</v>
+      </c>
+      <c r="F24">
+        <v>0.023587627320661195</v>
+      </c>
+      <c r="G24">
+        <v>0.0005778432633631068</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B25">
+        <v>0.032272158307706515</v>
+      </c>
+      <c r="C25">
+        <v>0.77981469393773051</v>
+      </c>
+      <c r="D25">
+        <v>0.13827493890859352</v>
+      </c>
+      <c r="E25">
+        <v>0.026102280426277994</v>
+      </c>
+      <c r="F25">
+        <v>0.023444942892568925</v>
+      </c>
+      <c r="G25">
+        <v>9.0985527122578439e-05</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B26">
+        <v>0.0076943979547209017</v>
+      </c>
+      <c r="C26">
+        <v>0.93091965053747483</v>
+      </c>
+      <c r="D26">
+        <v>0.018663069378639902</v>
+      </c>
+      <c r="E26">
+        <v>0.023451663113368441</v>
+      </c>
+      <c r="F26">
+        <v>0.019257109754855634</v>
+      </c>
+      <c r="G26">
+        <v>1.4109260940281906e-05</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27">
+        <v>0.024484115610811923</v>
+      </c>
+      <c r="C27">
+        <v>0.65506509158037163</v>
+      </c>
+      <c r="D27">
+        <v>0.14145631124769062</v>
+      </c>
+      <c r="E27">
+        <v>0.065843922299697766</v>
+      </c>
+      <c r="F27">
+        <v>0.11302697959239139</v>
+      </c>
+      <c r="G27">
+        <v>0.00012357966903659191</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B28">
+        <v>0.096181454826301999</v>
+      </c>
+      <c r="C28">
+        <v>0.17195306017333781</v>
+      </c>
+      <c r="D28">
+        <v>0.41322688981618166</v>
+      </c>
+      <c r="E28">
+        <v>0.14894295825682458</v>
+      </c>
+      <c r="F28">
+        <v>0.15122655190752096</v>
+      </c>
+      <c r="G28">
+        <v>0.018469085019833072</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29">
+        <v>0.012183338421685229</v>
+      </c>
+      <c r="C29">
+        <v>0.85742151017814394</v>
+      </c>
+      <c r="D29">
+        <v>0.077259734382839021</v>
+      </c>
+      <c r="E29">
+        <v>0.016563656476495783</v>
+      </c>
+      <c r="F29">
+        <v>0.036551696587345459</v>
+      </c>
+      <c r="G29">
+        <v>2.0063953490737074e-05</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30">
+        <v>0.0052721461276393862</v>
+      </c>
+      <c r="C30">
+        <v>0.89355361562786617</v>
+      </c>
+      <c r="D30">
+        <v>0.038780747444267828</v>
+      </c>
+      <c r="E30">
+        <v>0.0083212404047363579</v>
+      </c>
+      <c r="F30">
+        <v>0.054062975142027535</v>
+      </c>
+      <c r="G30">
+        <v>9.2752534627382721e-06</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31">
+        <v>0.083626596856637841</v>
+      </c>
+      <c r="C31">
+        <v>0.30999716002053224</v>
+      </c>
+      <c r="D31">
+        <v>0.29973381238670899</v>
+      </c>
+      <c r="E31">
+        <v>0.12163411122008418</v>
+      </c>
+      <c r="F31">
+        <v>0.12865283610401018</v>
+      </c>
+      <c r="G31">
+        <v>0.056355483412026487</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32">
+        <v>0.093757777387569116</v>
+      </c>
+      <c r="C32">
+        <v>0.1388276096825197</v>
+      </c>
+      <c r="D32">
+        <v>0.14255554937456885</v>
+      </c>
+      <c r="E32">
+        <v>0.29939086665874137</v>
+      </c>
+      <c r="F32">
+        <v>0.30425166375336488</v>
+      </c>
+      <c r="G32">
+        <v>0.021216533143236061</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33">
+        <v>0.064915212808397155</v>
+      </c>
+      <c r="C33">
+        <v>0.7059593296471377</v>
+      </c>
+      <c r="D33">
+        <v>0.085508378366012189</v>
+      </c>
+      <c r="E33">
+        <v>0.082022951968155677</v>
+      </c>
+      <c r="F33">
+        <v>0.060328983717477927</v>
+      </c>
+      <c r="G33">
+        <v>0.0012651434928192241</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34">
+        <v>0.14865450846854508</v>
+      </c>
+      <c r="C34">
+        <v>0.019992811506615003</v>
+      </c>
+      <c r="D34">
+        <v>0.22739782483642823</v>
+      </c>
+      <c r="E34">
+        <v>0.07328849370422956</v>
+      </c>
+      <c r="F34">
+        <v>0.48524452902196291</v>
+      </c>
+      <c r="G34">
+        <v>0.045421832462219314</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35">
+        <v>0.0071752104604430964</v>
+      </c>
+      <c r="C35">
+        <v>0.28606912210709073</v>
+      </c>
+      <c r="D35">
+        <v>0.12203212800232131</v>
+      </c>
+      <c r="E35">
+        <v>0.071272419015421432</v>
+      </c>
+      <c r="F35">
+        <v>0.43116113253681032</v>
+      </c>
+      <c r="G35">
+        <v>0.082289987877913112</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B36">
+        <v>0.01446196454038475</v>
+      </c>
+      <c r="C36">
+        <v>0.0095183104808149871</v>
+      </c>
+      <c r="D36">
+        <v>0.95065220558295427</v>
+      </c>
+      <c r="E36">
+        <v>0.021594528767083159</v>
+      </c>
+      <c r="F36">
+        <v>0.0035712174991954738</v>
+      </c>
+      <c r="G36">
+        <v>0.00020177312956734948</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37">
+        <v>0.05111020763211567</v>
+      </c>
+      <c r="C37">
+        <v>0.042978758895956544</v>
+      </c>
+      <c r="D37">
+        <v>0.81577273220354474</v>
+      </c>
+      <c r="E37">
+        <v>0.050309793042277444</v>
+      </c>
+      <c r="F37">
+        <v>0.038259795494111085</v>
+      </c>
+      <c r="G37">
+        <v>0.0015687127319947204</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38">
+        <v>0.0075317928866685709</v>
+      </c>
+      <c r="C38">
+        <v>0.08940312504763992</v>
+      </c>
+      <c r="D38">
+        <v>0.83413779604123484</v>
+      </c>
+      <c r="E38">
+        <v>0.046761659986045076</v>
+      </c>
+      <c r="F38">
+        <v>0.022043277543658334</v>
+      </c>
+      <c r="G38">
+        <v>0.00012234849475315177</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39">
+        <v>0.014678786791853813</v>
+      </c>
+      <c r="C39">
+        <v>0.044209150149990044</v>
+      </c>
+      <c r="D39">
+        <v>0.54926309169615251</v>
+      </c>
+      <c r="E39">
+        <v>0.37299849686030156</v>
+      </c>
+      <c r="F39">
+        <v>0.014566806724737263</v>
+      </c>
+      <c r="G39">
+        <v>0.0042836677769647552</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40">
+        <v>0.031867072664709076</v>
+      </c>
+      <c r="C40">
+        <v>0.024303569072373462</v>
+      </c>
+      <c r="D40">
+        <v>0.8585636344543599</v>
+      </c>
+      <c r="E40">
+        <v>0.081001546164866767</v>
+      </c>
+      <c r="F40">
+        <v>0.0037145738148944298</v>
+      </c>
+      <c r="G40">
+        <v>0.0005496038287961919</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B41">
+        <v>0.019654505352366323</v>
+      </c>
+      <c r="C41">
+        <v>0.06940888197350073</v>
+      </c>
+      <c r="D41">
+        <v>0.83522887191182393</v>
+      </c>
+      <c r="E41">
+        <v>0.046839252034527497</v>
+      </c>
+      <c r="F41">
+        <v>0.026728073411483401</v>
+      </c>
+      <c r="G41">
+        <v>0.0021404153162980807</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B42">
+        <v>0.015378009183545427</v>
+      </c>
+      <c r="C42">
+        <v>0.041240224041088493</v>
+      </c>
+      <c r="D42">
+        <v>0.48012131890042054</v>
+      </c>
+      <c r="E42">
+        <v>0.061072386816417551</v>
+      </c>
+      <c r="F42">
+        <v>0.12349058673563744</v>
+      </c>
+      <c r="G42">
+        <v>0.27869747432289038</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B43">
+        <v>0.017277022231611112</v>
+      </c>
+      <c r="C43">
+        <v>0.045411778624247584</v>
+      </c>
+      <c r="D43">
+        <v>0.6637638872876005</v>
+      </c>
+      <c r="E43">
+        <v>0.11063606989683962</v>
+      </c>
+      <c r="F43">
+        <v>0.13082205155998505</v>
+      </c>
+      <c r="G43">
+        <v>0.032089190399716111</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B44">
+        <v>0.054234761011462733</v>
+      </c>
+      <c r="C44">
+        <v>0.048806673313063945</v>
+      </c>
+      <c r="D44">
+        <v>0.80604615770679688</v>
+      </c>
+      <c r="E44">
+        <v>0.074655146593977109</v>
+      </c>
+      <c r="F44">
+        <v>0.014732008983489971</v>
+      </c>
+      <c r="G44">
+        <v>0.0015252523912093398</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B45">
+        <v>0.020613641991607111</v>
+      </c>
+      <c r="C45">
+        <v>0.054773253981710887</v>
+      </c>
+      <c r="D45">
+        <v>0.72487257376598691</v>
+      </c>
+      <c r="E45">
+        <v>0.065869532751483342</v>
+      </c>
+      <c r="F45">
+        <v>0.12202364324493836</v>
+      </c>
+      <c r="G45">
+        <v>0.011847354264273358</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46">
+        <v>0.019407349609575689</v>
+      </c>
+      <c r="C46">
+        <v>0.024538509562497365</v>
+      </c>
+      <c r="D46">
+        <v>0.60593600342931386</v>
+      </c>
+      <c r="E46">
+        <v>0.054641835065905434</v>
+      </c>
+      <c r="F46">
+        <v>0.29144780285516592</v>
+      </c>
+      <c r="G46">
+        <v>0.0040284994775419093</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B47">
+        <v>0.059081990380443664</v>
+      </c>
+      <c r="C47">
+        <v>0.083711402087123993</v>
+      </c>
+      <c r="D47">
+        <v>0.52789173581700488</v>
+      </c>
+      <c r="E47">
+        <v>0.084604849778705277</v>
+      </c>
+      <c r="F47">
+        <v>0.23192656439417644</v>
+      </c>
+      <c r="G47">
+        <v>0.012783457542545803</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B48">
+        <v>0.074925440148673028</v>
+      </c>
+      <c r="C48">
+        <v>0.074527013015676685</v>
+      </c>
+      <c r="D48">
+        <v>0.43584989913076155</v>
+      </c>
+      <c r="E48">
+        <v>0.14640644348685977</v>
+      </c>
+      <c r="F48">
+        <v>0.26027252548626462</v>
+      </c>
+      <c r="G48">
+        <v>0.0080186787317645686</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B49">
+        <v>0.032813826068120146</v>
+      </c>
+      <c r="C49">
+        <v>0.31273173151986983</v>
+      </c>
+      <c r="D49">
+        <v>0.27233040875527631</v>
+      </c>
+      <c r="E49">
+        <v>0.11739536347245372</v>
+      </c>
+      <c r="F49">
+        <v>0.26024791152900084</v>
+      </c>
+      <c r="G49">
+        <v>0.0044807586552791266</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B50">
+        <v>0.062340015929203671</v>
+      </c>
+      <c r="C50">
+        <v>0.29963180407840989</v>
+      </c>
+      <c r="D50">
+        <v>0.34052535877682699</v>
+      </c>
+      <c r="E50">
+        <v>0.069512751217941357</v>
+      </c>
+      <c r="F50">
+        <v>0.21730398127006625</v>
+      </c>
+      <c r="G50">
+        <v>0.010686088727551791</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B51">
+        <v>0.037005464152240278</v>
+      </c>
+      <c r="C51">
+        <v>0.069250783426284809</v>
+      </c>
+      <c r="D51">
+        <v>0.15201416507769322</v>
+      </c>
+      <c r="E51">
+        <v>0.035202894040059225</v>
+      </c>
+      <c r="F51">
+        <v>0.56606528226976016</v>
+      </c>
+      <c r="G51">
+        <v>0.14046141103396226</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B52">
+        <v>0.0091422684627947247</v>
+      </c>
+      <c r="C52">
+        <v>0.010205669975167149</v>
+      </c>
+      <c r="D52">
+        <v>0.88704726756437158</v>
+      </c>
+      <c r="E52">
+        <v>0.051734504240885756</v>
+      </c>
+      <c r="F52">
+        <v>0.039495930830179382</v>
+      </c>
+      <c r="G52">
+        <v>0.0023743589266013664</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B53">
+        <v>0.037435458355212448</v>
+      </c>
+      <c r="C53">
+        <v>0.05658691838391737</v>
+      </c>
+      <c r="D53">
+        <v>0.11410428914086576</v>
+      </c>
+      <c r="E53">
+        <v>0.75181397900881552</v>
+      </c>
+      <c r="F53">
+        <v>0.036046500582762549</v>
+      </c>
+      <c r="G53">
+        <v>0.0040128545284262027</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B54">
+        <v>0.042321687425819168</v>
+      </c>
+      <c r="C54">
+        <v>0.10722946167885652</v>
+      </c>
+      <c r="D54">
+        <v>0.12826097800348094</v>
+      </c>
+      <c r="E54">
+        <v>0.57900230768912553</v>
+      </c>
+      <c r="F54">
+        <v>0.12494161296736293</v>
+      </c>
+      <c r="G54">
+        <v>0.018243952235354799</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B55">
+        <v>0.036351478178623435</v>
+      </c>
+      <c r="C55">
+        <v>0.033603887250655648</v>
+      </c>
+      <c r="D55">
+        <v>0.09768472138362029</v>
+      </c>
+      <c r="E55">
+        <v>0.82402884609571136</v>
+      </c>
+      <c r="F55">
+        <v>0.0065331248767064257</v>
+      </c>
+      <c r="G55">
+        <v>0.0017979422146828076</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B56">
+        <v>0.035697639720733816</v>
+      </c>
+      <c r="C56">
+        <v>0.028847142402566989</v>
+      </c>
+      <c r="D56">
+        <v>0.13421745781442351</v>
+      </c>
+      <c r="E56">
+        <v>0.20327533379029131</v>
+      </c>
+      <c r="F56">
+        <v>0.58635887496560446</v>
+      </c>
+      <c r="G56">
+        <v>0.01160355130637993</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B57">
+        <v>0.043956032428753067</v>
+      </c>
+      <c r="C57">
+        <v>0.070881912362907751</v>
+      </c>
+      <c r="D57">
+        <v>0.60004900560511321</v>
+      </c>
+      <c r="E57">
+        <v>0.097419925375920702</v>
+      </c>
+      <c r="F57">
+        <v>0.16464951534895406</v>
+      </c>
+      <c r="G57">
+        <v>0.023043608878351454</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B58">
+        <v>0.20919159842533852</v>
+      </c>
+      <c r="C58">
+        <v>0.016068644151990049</v>
+      </c>
+      <c r="D58">
+        <v>0.1124535834517728</v>
+      </c>
+      <c r="E58">
+        <v>0.161807116435501</v>
+      </c>
+      <c r="F58">
+        <v>0.49764467099556836</v>
+      </c>
+      <c r="G58">
+        <v>0.0028343865398293535</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B59">
+        <v>0.055823522919604941</v>
+      </c>
+      <c r="C59">
+        <v>0.14292384825490922</v>
+      </c>
+      <c r="D59">
+        <v>0.20349544289339389</v>
+      </c>
+      <c r="E59">
+        <v>0.10593944659438803</v>
+      </c>
+      <c r="F59">
+        <v>0.1549321893735538</v>
+      </c>
+      <c r="G59">
+        <v>0.33688554996415015</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B60">
+        <v>0.0039520246045726473</v>
+      </c>
+      <c r="C60">
+        <v>0.10312856871018233</v>
+      </c>
+      <c r="D60">
+        <v>0.039900603900345215</v>
+      </c>
+      <c r="E60">
+        <v>0.83773182015343306</v>
+      </c>
+      <c r="F60">
+        <v>0.011175744434949078</v>
+      </c>
+      <c r="G60">
+        <v>0.0041112381965177159</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61">
+        <v>0.005314475692989715</v>
+      </c>
+      <c r="C61">
+        <v>0.030708486694920975</v>
+      </c>
+      <c r="D61">
+        <v>0.025245171730432798</v>
+      </c>
+      <c r="E61">
+        <v>0.0091443661990021092</v>
+      </c>
+      <c r="F61">
+        <v>0.92953073195063862</v>
+      </c>
+      <c r="G61">
+        <v>5.6767732015817239e-05</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B62">
+        <v>0.030094734632804411</v>
+      </c>
+      <c r="C62">
+        <v>0.054038756675467516</v>
+      </c>
+      <c r="D62">
+        <v>0.2429197900669933</v>
+      </c>
+      <c r="E62">
+        <v>0.17744673602522318</v>
+      </c>
+      <c r="F62">
+        <v>0.47712630717722043</v>
+      </c>
+      <c r="G62">
+        <v>0.0183736754222911</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B63">
+        <v>0.014689951618229566</v>
+      </c>
+      <c r="C63">
+        <v>0.028069982782905702</v>
+      </c>
+      <c r="D63">
+        <v>0.035677547365949018</v>
+      </c>
+      <c r="E63">
+        <v>0.026790666488299489</v>
+      </c>
+      <c r="F63">
+        <v>0.89352087191740015</v>
+      </c>
+      <c r="G63">
+        <v>0.0012509798272160137</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B64">
+        <v>0.087038884731216903</v>
+      </c>
+      <c r="C64">
+        <v>0.14158969870143534</v>
+      </c>
+      <c r="D64">
+        <v>0.065053370876120689</v>
+      </c>
+      <c r="E64">
+        <v>0.05554824699893289</v>
+      </c>
+      <c r="F64">
+        <v>0.64734021548119292</v>
+      </c>
+      <c r="G64">
+        <v>0.0034295832111013481</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B65">
+        <v>0.0092338152885249134</v>
+      </c>
+      <c r="C65">
+        <v>0.0074860505287537077</v>
+      </c>
+      <c r="D65">
+        <v>0.069582394511065612</v>
+      </c>
+      <c r="E65">
+        <v>0.0036053875150556893</v>
+      </c>
+      <c r="F65">
+        <v>0.90862765845879112</v>
+      </c>
+      <c r="G65">
+        <v>0.0014646936978088376</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B66">
+        <v>0.03673789584957507</v>
+      </c>
+      <c r="C66">
+        <v>0.044023892564762593</v>
+      </c>
+      <c r="D66">
+        <v>0.36238617173469417</v>
+      </c>
+      <c r="E66">
+        <v>0.060782504558683913</v>
+      </c>
+      <c r="F66">
+        <v>0.49226079060408628</v>
+      </c>
+      <c r="G66">
+        <v>0.0038087446881979576</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B67">
+        <v>0.029536464012568341</v>
+      </c>
+      <c r="C67">
+        <v>0.013734310049270226</v>
+      </c>
+      <c r="D67">
+        <v>0.052001971455451615</v>
+      </c>
+      <c r="E67">
+        <v>0.032244283023090244</v>
+      </c>
+      <c r="F67">
+        <v>0.87131051613624444</v>
+      </c>
+      <c r="G67">
+        <v>0.0011724553233751433</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B68">
+        <v>0.013781105420678086</v>
+      </c>
+      <c r="C68">
+        <v>0.019535240485042939</v>
+      </c>
+      <c r="D68">
+        <v>0.086956776493647581</v>
+      </c>
+      <c r="E68">
+        <v>0.031187879427786228</v>
+      </c>
+      <c r="F68">
+        <v>0.84481362223875633</v>
+      </c>
+      <c r="G68">
+        <v>0.0037253759340888678</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B69">
+        <v>0.043057241798633822</v>
+      </c>
+      <c r="C69">
+        <v>0.066211262292369941</v>
+      </c>
+      <c r="D69">
+        <v>0.1153462390601461</v>
+      </c>
+      <c r="E69">
+        <v>0.065394601661142165</v>
+      </c>
+      <c r="F69">
+        <v>0.69033048367904826</v>
+      </c>
+      <c r="G69">
+        <v>0.019660171508659764</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B70">
+        <v>0.024993151778493983</v>
+      </c>
+      <c r="C70">
+        <v>0.0071090442186783499</v>
+      </c>
+      <c r="D70">
+        <v>0.059607446574178241</v>
+      </c>
+      <c r="E70">
+        <v>0.03995416134032833</v>
+      </c>
+      <c r="F70">
+        <v>0.86517795481820103</v>
+      </c>
+      <c r="G70">
+        <v>0.0031582412701200786</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B71">
+        <v>0.02207818978866679</v>
+      </c>
+      <c r="C71">
+        <v>0.013781052617346832</v>
+      </c>
+      <c r="D71">
+        <v>0.071533817233853561</v>
+      </c>
+      <c r="E71">
+        <v>0.041325220683135676</v>
+      </c>
+      <c r="F71">
+        <v>0.60262067487818627</v>
+      </c>
+      <c r="G71">
+        <v>0.24866104479881088</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B72">
+        <v>0.077044611019579282</v>
+      </c>
+      <c r="C72">
+        <v>0.086219099758639312</v>
+      </c>
+      <c r="D72">
+        <v>0.1508456329706917</v>
+      </c>
+      <c r="E72">
+        <v>0.17409949033762784</v>
+      </c>
+      <c r="F72">
+        <v>0.50271365937277857</v>
+      </c>
+      <c r="G72">
+        <v>0.009077506540683419</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B73">
+        <v>0.026765862270629191</v>
+      </c>
+      <c r="C73">
+        <v>0.26619784740169872</v>
+      </c>
+      <c r="D73">
+        <v>0.11350736251263931</v>
+      </c>
+      <c r="E73">
+        <v>0.087350270896935131</v>
+      </c>
+      <c r="F73">
+        <v>0.50452664051791096</v>
+      </c>
+      <c r="G73">
+        <v>0.001652016400186633</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B74">
+        <v>0.015485248619572043</v>
+      </c>
+      <c r="C74">
+        <v>0.053824921068179724</v>
+      </c>
+      <c r="D74">
+        <v>0.090906427040030741</v>
+      </c>
+      <c r="E74">
+        <v>0.049534299526666964</v>
+      </c>
+      <c r="F74">
+        <v>0.78948972866843448</v>
+      </c>
+      <c r="G74">
+        <v>0.00075937507711600918</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B75">
+        <v>0.0049526103629094235</v>
+      </c>
+      <c r="C75">
+        <v>0.028342901590673306</v>
+      </c>
+      <c r="D75">
+        <v>0.014054069176820424</v>
+      </c>
+      <c r="E75">
+        <v>0.03306909187390783</v>
+      </c>
+      <c r="F75">
+        <v>0.91926233706370497</v>
+      </c>
+      <c r="G75">
+        <v>0.00031898993198406408</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B76">
+        <v>0.0291436712834569</v>
+      </c>
+      <c r="C76">
+        <v>0.13695646074794349</v>
+      </c>
+      <c r="D76">
+        <v>0.10869852435622429</v>
+      </c>
+      <c r="E76">
+        <v>0.1761480013540058</v>
+      </c>
+      <c r="F76">
+        <v>0.18128847238245849</v>
+      </c>
+      <c r="G76">
+        <v>0.36776486987591095</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B77">
+        <v>0.091407057513283124</v>
+      </c>
+      <c r="C77">
+        <v>0.18971834445736102</v>
+      </c>
+      <c r="D77">
+        <v>0.032788026533134333</v>
+      </c>
+      <c r="E77">
+        <v>0.43521645314512203</v>
+      </c>
+      <c r="F77">
+        <v>0.23242588317933616</v>
+      </c>
+      <c r="G77">
+        <v>0.018444235171763267</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B78">
+        <v>0.0001210610622468371</v>
+      </c>
+      <c r="C78">
+        <v>0.10620250794427862</v>
+      </c>
+      <c r="D78">
+        <v>0.00031689152495199423</v>
+      </c>
+      <c r="E78">
+        <v>0.087833190743857578</v>
+      </c>
+      <c r="F78">
+        <v>0.24331930636060323</v>
+      </c>
+      <c r="G78">
+        <v>0.56220704236406172</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B79">
+        <v>0.0046450873505718996</v>
+      </c>
+      <c r="C79">
+        <v>0.011783458139789971</v>
+      </c>
+      <c r="D79">
+        <v>0.0059948129892088853</v>
+      </c>
+      <c r="E79">
+        <v>0.0099285826168021684</v>
+      </c>
+      <c r="F79">
+        <v>0.008822065109976792</v>
+      </c>
+      <c r="G79">
+        <v>0.9588259937936503</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B80">
+        <v>0.004276095259093878</v>
+      </c>
+      <c r="C80">
+        <v>0.013612939296690187</v>
+      </c>
+      <c r="D80">
+        <v>0.010249872609325505</v>
+      </c>
+      <c r="E80">
+        <v>0.0021776082506428343</v>
+      </c>
+      <c r="F80">
+        <v>0.015137175364932851</v>
+      </c>
+      <c r="G80">
+        <v>0.95454630921931483</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B81">
+        <v>0.0027936815885678894</v>
+      </c>
+      <c r="C81">
+        <v>0.020549576847382608</v>
+      </c>
+      <c r="D81">
+        <v>0.019496243283095484</v>
+      </c>
+      <c r="E81">
+        <v>0.0025998168489414506</v>
+      </c>
+      <c r="F81">
+        <v>0.00024974360209337816</v>
+      </c>
+      <c r="G81">
+        <v>0.95431093782991927</v>
+      </c>
+      <c r="H81">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B82">
+        <v>0.0033554781203585138</v>
+      </c>
+      <c r="C82">
+        <v>0.014227569653525753</v>
+      </c>
+      <c r="D82">
+        <v>0.021374961682954222</v>
+      </c>
+      <c r="E82">
+        <v>0.0059322202574399003</v>
+      </c>
+      <c r="F82">
+        <v>0.011300362205260388</v>
+      </c>
+      <c r="G82">
+        <v>0.94380940808046121</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B83">
+        <v>0.0012155117869159834</v>
+      </c>
+      <c r="C83">
+        <v>0.011499278238099472</v>
+      </c>
+      <c r="D83">
+        <v>0.013837994522273689</v>
+      </c>
+      <c r="E83">
+        <v>0.00495999293257388</v>
+      </c>
+      <c r="F83">
+        <v>0.0017556684152956812</v>
+      </c>
+      <c r="G83">
+        <v>0.96673155410484124</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B84">
+        <v>0.00061596069690219408</v>
+      </c>
+      <c r="C84">
+        <v>0.01166793798740398</v>
+      </c>
+      <c r="D84">
+        <v>0.022417876697134718</v>
+      </c>
+      <c r="E84">
+        <v>0.00863333043196347</v>
+      </c>
+      <c r="F84">
+        <v>0.002672420705203047</v>
+      </c>
+      <c r="G84">
+        <v>0.9539924734813926</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B85">
+        <v>0.022233165096834779</v>
+      </c>
+      <c r="C85">
+        <v>0.0083105345622060973</v>
+      </c>
+      <c r="D85">
+        <v>0.052077024572088876</v>
+      </c>
+      <c r="E85">
+        <v>0.022664102643847737</v>
+      </c>
+      <c r="F85">
+        <v>0.005388040967433531</v>
+      </c>
+      <c r="G85">
+        <v>0.88932713215758896</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B86">
+        <v>0.0007134867750795865</v>
+      </c>
+      <c r="C86">
+        <v>0.0043243598312978698</v>
+      </c>
+      <c r="D86">
+        <v>0.0077712683544366749</v>
+      </c>
+      <c r="E86">
+        <v>0.038756213986679819</v>
+      </c>
+      <c r="F86">
+        <v>0.012088620964716929</v>
+      </c>
+      <c r="G86">
+        <v>0.93634605008778915</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B87">
+        <v>0.0067117995276244962</v>
+      </c>
+      <c r="C87">
+        <v>0.0065206180103622091</v>
+      </c>
+      <c r="D87">
+        <v>0.046952737492644572</v>
+      </c>
+      <c r="E87">
+        <v>0.0097100317165505334</v>
+      </c>
+      <c r="F87">
+        <v>0.031934890463255254</v>
+      </c>
+      <c r="G87">
+        <v>0.89816992278956298</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B88">
+        <v>0.020278198632232153</v>
+      </c>
+      <c r="C88">
+        <v>0.0082832988471387686</v>
+      </c>
+      <c r="D88">
+        <v>0.033549170317095756</v>
+      </c>
+      <c r="E88">
+        <v>0.033917048429620997</v>
+      </c>
+      <c r="F88">
+        <v>0.045014320124904937</v>
+      </c>
+      <c r="G88">
+        <v>0.85895796364900734</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B89">
+        <v>0.030336950093278185</v>
+      </c>
+      <c r="C89">
+        <v>0.01371915421027539</v>
+      </c>
+      <c r="D89">
+        <v>0.05654224294499912</v>
+      </c>
+      <c r="E89">
+        <v>0.037713021881038367</v>
+      </c>
+      <c r="F89">
+        <v>0.032208268215622129</v>
+      </c>
+      <c r="G89">
+        <v>0.82948036265478686</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B90">
+        <v>0.0041422510404165464</v>
+      </c>
+      <c r="C90">
+        <v>0.0059957520671388301</v>
+      </c>
+      <c r="D90">
+        <v>0.021517483723531079</v>
+      </c>
+      <c r="E90">
+        <v>0.0033616746119774499</v>
+      </c>
+      <c r="F90">
+        <v>0.0079954682394693371</v>
+      </c>
+      <c r="G90">
+        <v>0.95698737031746672</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B91">
+        <v>0.011860344376464932</v>
+      </c>
+      <c r="C91">
+        <v>0.0057965061924675643</v>
+      </c>
+      <c r="D91">
+        <v>0.028708519029230831</v>
+      </c>
+      <c r="E91">
+        <v>0.023657150738715202</v>
+      </c>
+      <c r="F91">
+        <v>0.0067034971068776769</v>
+      </c>
+      <c r="G91">
+        <v>0.92327398255624382</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B92">
+        <v>0.011964882036207033</v>
+      </c>
+      <c r="C92">
+        <v>0.0082199578429500431</v>
+      </c>
+      <c r="D92">
+        <v>0.028082655408112063</v>
+      </c>
+      <c r="E92">
+        <v>0.019024534441979376</v>
+      </c>
+      <c r="F92">
+        <v>0.0074339060841800376</v>
+      </c>
+      <c r="G92">
+        <v>0.92527406418657143</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B93">
+        <v>0.0042515381999312834</v>
+      </c>
+      <c r="C93">
+        <v>0.0011583301469966526</v>
+      </c>
+      <c r="D93">
+        <v>0.0026557838833548564</v>
+      </c>
+      <c r="E93">
+        <v>0.0043863295932130928</v>
+      </c>
+      <c r="F93">
+        <v>0.011115709480082198</v>
+      </c>
+      <c r="G93">
+        <v>0.97643230869642195</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B94">
+        <v>0.0015641668411793593</v>
+      </c>
+      <c r="C94">
+        <v>0.0015359982147468642</v>
+      </c>
+      <c r="D94">
+        <v>0.10128246345513917</v>
+      </c>
+      <c r="E94">
+        <v>0.019303448765840149</v>
+      </c>
+      <c r="F94">
+        <v>0.0095179911097994056</v>
+      </c>
+      <c r="G94">
+        <v>0.86679593161329505</v>
+      </c>
+      <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B95">
+        <v>0.029097932749435805</v>
+      </c>
+      <c r="C95">
+        <v>0.0044791649240313418</v>
+      </c>
+      <c r="D95">
+        <v>0.044334182153234057</v>
+      </c>
+      <c r="E95">
+        <v>0.011041797953303756</v>
+      </c>
+      <c r="F95">
+        <v>0.067140021961356502</v>
+      </c>
+      <c r="G95">
+        <v>0.84390690025863846</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96">
+        <v>0.015550866996742768</v>
+      </c>
+      <c r="C96">
+        <v>0.017403552385755534</v>
+      </c>
+      <c r="D96">
+        <v>0.073496986497115294</v>
+      </c>
+      <c r="E96">
+        <v>0.051973986597980318</v>
+      </c>
+      <c r="F96">
+        <v>0.0428184240550833</v>
+      </c>
+      <c r="G96">
+        <v>0.79875618346732269</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B97">
+        <v>0.20366568818240205</v>
+      </c>
+      <c r="C97">
+        <v>0.016328468416738583</v>
+      </c>
+      <c r="D97">
+        <v>0.063492782684339458</v>
+      </c>
+      <c r="E97">
+        <v>0.041016338420026575</v>
+      </c>
+      <c r="F97">
+        <v>0.19979349843093622</v>
+      </c>
+      <c r="G97">
+        <v>0.47570322386555708</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B98">
+        <v>0.0013657577016188672</v>
+      </c>
+      <c r="C98">
+        <v>0.024856722605124722</v>
+      </c>
+      <c r="D98">
+        <v>0.043444364113243754</v>
+      </c>
+      <c r="E98">
+        <v>0.0078051329234926073</v>
+      </c>
+      <c r="F98">
+        <v>0.0041672550820782131</v>
+      </c>
+      <c r="G98">
+        <v>0.91836076757444174</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B99">
+        <v>0.014185685920510414</v>
+      </c>
+      <c r="C99">
+        <v>0.019059359528823878</v>
+      </c>
+      <c r="D99">
+        <v>0.024748554818819438</v>
+      </c>
+      <c r="E99">
+        <v>0.028915591016702855</v>
+      </c>
+      <c r="F99">
+        <v>0.074692817402281744</v>
+      </c>
+      <c r="G99">
+        <v>0.83839799131286163</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B100">
+        <v>0.0058137339186255625</v>
+      </c>
+      <c r="C100">
+        <v>0.0036208267109075344</v>
+      </c>
+      <c r="D100">
+        <v>0.023558719043374643</v>
+      </c>
+      <c r="E100">
+        <v>0.031686424105573104</v>
+      </c>
+      <c r="F100">
+        <v>0.031300687992049624</v>
+      </c>
+      <c r="G100">
+        <v>0.90401960822946947</v>
+      </c>
+      <c r="H100">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B101">
+        <v>0.0025139263342447218</v>
+      </c>
+      <c r="C101">
+        <v>0.0001867539703053331</v>
+      </c>
+      <c r="D101">
+        <v>0.016129228908428748</v>
+      </c>
+      <c r="E101">
+        <v>0.032407387962291735</v>
+      </c>
+      <c r="F101">
+        <v>0.024416354355600141</v>
+      </c>
+      <c r="G101">
+        <v>0.92434634846912933</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I100"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2">
+        <v>0.61696108985967668</v>
+      </c>
+      <c r="C2">
+        <v>0.088721981811376666</v>
+      </c>
+      <c r="D2">
+        <v>0.019911486408575478</v>
+      </c>
+      <c r="E2">
+        <v>0.17740692820454296</v>
+      </c>
+      <c r="F2">
+        <v>0.094367117423036953</v>
+      </c>
+      <c r="G2">
+        <v>0.002631396292791275</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3">
+        <v>0.75943612730272858</v>
+      </c>
+      <c r="C3">
+        <v>0.0059848272182531732</v>
+      </c>
+      <c r="D3">
+        <v>0.11061480809328421</v>
+      </c>
+      <c r="E3">
+        <v>0.02351559125140357</v>
+      </c>
+      <c r="F3">
+        <v>0.10026103090293498</v>
+      </c>
+      <c r="G3">
+        <v>0.00018761523139561886</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4">
+        <v>0.88893096979341824</v>
+      </c>
+      <c r="C4">
+        <v>0.023102699627706554</v>
+      </c>
+      <c r="D4">
+        <v>0.0074378002659729039</v>
+      </c>
+      <c r="E4">
+        <v>0.041879880988134013</v>
+      </c>
+      <c r="F4">
+        <v>0.038360989238612558</v>
+      </c>
+      <c r="G4">
+        <v>0.00028766008615564351</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5">
+        <v>0.38162414208638229</v>
+      </c>
+      <c r="C5">
+        <v>0.02764633688679809</v>
+      </c>
+      <c r="D5">
+        <v>0.14157044286706541</v>
+      </c>
+      <c r="E5">
+        <v>0.14179844125178159</v>
+      </c>
+      <c r="F5">
+        <v>0.28023670122886551</v>
+      </c>
+      <c r="G5">
+        <v>0.027123935679107043</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6">
+        <v>0.64883605500307406</v>
+      </c>
+      <c r="C6">
+        <v>0.024290173771835191</v>
+      </c>
+      <c r="D6">
+        <v>0.10078665761881613</v>
+      </c>
+      <c r="E6">
+        <v>0.10528729806040457</v>
+      </c>
+      <c r="F6">
+        <v>0.11398330033005344</v>
+      </c>
+      <c r="G6">
+        <v>0.0068165152158168258</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7">
+        <v>0.47119729927879889</v>
+      </c>
+      <c r="C7">
+        <v>0.14915909168300151</v>
+      </c>
+      <c r="D7">
+        <v>0.23937368120279909</v>
+      </c>
+      <c r="E7">
+        <v>0.039995760006254343</v>
+      </c>
+      <c r="F7">
+        <v>0.097683721109352209</v>
+      </c>
+      <c r="G7">
+        <v>0.0025904467197939559</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8">
+        <v>0.40012436816069913</v>
+      </c>
+      <c r="C8">
+        <v>0.14904031516249819</v>
+      </c>
+      <c r="D8">
+        <v>0.089324849833744571</v>
+      </c>
+      <c r="E8">
+        <v>0.15744233183577686</v>
+      </c>
+      <c r="F8">
+        <v>0.20093385766038599</v>
+      </c>
+      <c r="G8">
+        <v>0.0031342773468952924</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9">
+        <v>0.065483837077451298</v>
+      </c>
+      <c r="C9">
+        <v>0.06784444552972374</v>
+      </c>
+      <c r="D9">
+        <v>0.062784479382175948</v>
+      </c>
+      <c r="E9">
+        <v>0.1332901556291386</v>
+      </c>
+      <c r="F9">
+        <v>0.46973404181899664</v>
+      </c>
+      <c r="G9">
+        <v>0.20086304056251392</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10">
+        <v>0.0063320796465511026</v>
+      </c>
+      <c r="C10">
+        <v>0.083108239795444488</v>
+      </c>
+      <c r="D10">
+        <v>0.2699632684648185</v>
+      </c>
+      <c r="E10">
+        <v>0.24332005364523782</v>
+      </c>
+      <c r="F10">
+        <v>0.35281145769310157</v>
+      </c>
+      <c r="G10">
+        <v>0.044464900754846534</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11">
+        <v>0.015964524998970709</v>
+      </c>
+      <c r="C11">
+        <v>0.15438598643361651</v>
+      </c>
+      <c r="D11">
+        <v>0.15849223070297441</v>
+      </c>
+      <c r="E11">
+        <v>0.08517612189058732</v>
+      </c>
+      <c r="F11">
+        <v>0.23401915328038686</v>
+      </c>
+      <c r="G11">
+        <v>0.35196198269346435</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12">
+        <v>0.83106979343837784</v>
+      </c>
+      <c r="C12">
+        <v>0.0061298360003503851</v>
+      </c>
+      <c r="D12">
+        <v>0.12909043288190747</v>
+      </c>
+      <c r="E12">
+        <v>0.020866006676292483</v>
+      </c>
+      <c r="F12">
+        <v>0.012686112818790712</v>
+      </c>
+      <c r="G12">
+        <v>0.00015781818428117674</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13">
+        <v>0.0035927575217806055</v>
+      </c>
+      <c r="C13">
+        <v>0.96530967797583977</v>
+      </c>
+      <c r="D13">
+        <v>0.013485790199762629</v>
+      </c>
+      <c r="E13">
+        <v>0.016181828307024543</v>
+      </c>
+      <c r="F13">
+        <v>0.0014191559227418431</v>
+      </c>
+      <c r="G13">
+        <v>1.0790072850650912e-05</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14">
+        <v>0.0055099242119872613</v>
+      </c>
+      <c r="C14">
+        <v>0.97117977266582711</v>
+      </c>
+      <c r="D14">
+        <v>0.013663500020502021</v>
+      </c>
+      <c r="E14">
+        <v>0.007594058733360289</v>
+      </c>
+      <c r="F14">
+        <v>0.0020452277985165859</v>
+      </c>
+      <c r="G14">
+        <v>7.516569806738324e-06</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15">
+        <v>0.0090688865637201521</v>
+      </c>
+      <c r="C15">
+        <v>0.95962680310775617</v>
+      </c>
+      <c r="D15">
+        <v>0.018964816637105589</v>
+      </c>
+      <c r="E15">
+        <v>0.0077518097074402428</v>
+      </c>
+      <c r="F15">
+        <v>0.0045864015843083052</v>
+      </c>
+      <c r="G15">
+        <v>1.2823996695134178e-06</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B16">
+        <v>0.0031844558499273517</v>
+      </c>
+      <c r="C16">
+        <v>0.96666088252391746</v>
+      </c>
+      <c r="D16">
+        <v>0.0052477452440566133</v>
+      </c>
+      <c r="E16">
+        <v>0.020395640279632362</v>
+      </c>
+      <c r="F16">
+        <v>0.004504169987422358</v>
+      </c>
+      <c r="G16">
+        <v>7.1061150438238853e-06</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B17">
+        <v>0.0090469528713908783</v>
+      </c>
+      <c r="C17">
+        <v>0.9527710426473921</v>
+      </c>
+      <c r="D17">
+        <v>0.023101227932412965</v>
+      </c>
+      <c r="E17">
+        <v>0.011342350315425478</v>
+      </c>
+      <c r="F17">
+        <v>0.0037233270403037441</v>
+      </c>
+      <c r="G17">
+        <v>1.5099193074920896e-05</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18">
+        <v>0.034016944428622541</v>
+      </c>
+      <c r="C18">
+        <v>0.83091430562275304</v>
+      </c>
+      <c r="D18">
+        <v>0.069832872398264814</v>
+      </c>
+      <c r="E18">
+        <v>0.029023205138823432</v>
+      </c>
+      <c r="F18">
+        <v>0.036168818294125597</v>
+      </c>
+      <c r="G18">
+        <v>4.3854117410415541e-05</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B19">
+        <v>0.0027575598177030426</v>
+      </c>
+      <c r="C19">
+        <v>0.97065738026309534</v>
+      </c>
+      <c r="D19">
+        <v>0.011599151790361428</v>
+      </c>
+      <c r="E19">
+        <v>0.012577585426233273</v>
+      </c>
+      <c r="F19">
+        <v>0.0024020969121729902</v>
+      </c>
+      <c r="G19">
+        <v>6.2257904339226104e-06</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B20">
+        <v>0.0031937850055133313</v>
+      </c>
+      <c r="C20">
+        <v>0.97273166743727435</v>
+      </c>
+      <c r="D20">
+        <v>0.014321873899825418</v>
+      </c>
+      <c r="E20">
+        <v>0.0089528765121297711</v>
+      </c>
+      <c r="F20">
+        <v>0.00079779211605692586</v>
+      </c>
+      <c r="G20">
+        <v>2.0050292002772257e-06</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B21">
+        <v>0.0032783414886671585</v>
+      </c>
+      <c r="C21">
+        <v>0.97291106249069803</v>
+      </c>
+      <c r="D21">
+        <v>0.012336272802265192</v>
+      </c>
+      <c r="E21">
+        <v>0.010571540976570218</v>
+      </c>
+      <c r="F21">
+        <v>0.00090231752931670464</v>
+      </c>
+      <c r="G21">
+        <v>4.6471248271564314e-07</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22">
+        <v>0.0045742900151499819</v>
+      </c>
+      <c r="C22">
+        <v>0.94495966354219318</v>
+      </c>
+      <c r="D22">
+        <v>0.027960476998047445</v>
+      </c>
+      <c r="E22">
+        <v>0.00635251146442999</v>
+      </c>
+      <c r="F22">
+        <v>0.01614582778798599</v>
+      </c>
+      <c r="G22">
+        <v>7.2301921933651938e-06</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23">
+        <v>0.076636720187111582</v>
+      </c>
+      <c r="C23">
+        <v>0.69811963132406052</v>
+      </c>
+      <c r="D23">
+        <v>0.076816808515326837</v>
+      </c>
+      <c r="E23">
+        <v>0.029768330502699961</v>
+      </c>
+      <c r="F23">
+        <v>0.11811258854225991</v>
+      </c>
+      <c r="G23">
+        <v>0.00054592092854106422</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B24">
+        <v>0.030673332235278822</v>
+      </c>
+      <c r="C24">
+        <v>0.92052576142122233</v>
+      </c>
+      <c r="D24">
+        <v>0.011413192129372895</v>
+      </c>
+      <c r="E24">
+        <v>0.026208554025968285</v>
+      </c>
+      <c r="F24">
+        <v>0.011159673759093229</v>
+      </c>
+      <c r="G24">
+        <v>1.9486429064620221e-05</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B25">
+        <v>0.0046802832076323648</v>
+      </c>
+      <c r="C25">
+        <v>0.95145515894514321</v>
+      </c>
+      <c r="D25">
+        <v>0.003756733808986367</v>
+      </c>
+      <c r="E25">
+        <v>0.0086256178996540946</v>
+      </c>
+      <c r="F25">
+        <v>0.031468903273267297</v>
+      </c>
+      <c r="G25">
+        <v>1.3302865316742086e-05</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B26">
+        <v>0.025078152625868318</v>
+      </c>
+      <c r="C26">
+        <v>0.88826873173837939</v>
+      </c>
+      <c r="D26">
+        <v>0.03575315732402691</v>
+      </c>
+      <c r="E26">
+        <v>0.026824011933960331</v>
+      </c>
+      <c r="F26">
+        <v>0.023957438568135644</v>
+      </c>
+      <c r="G26">
+        <v>0.00011850780962931426</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27">
+        <v>0.1513646427110848</v>
+      </c>
+      <c r="C27">
+        <v>0.18792487285919879</v>
+      </c>
+      <c r="D27">
+        <v>0.23252239619515833</v>
+      </c>
+      <c r="E27">
+        <v>0.20464365984550806</v>
+      </c>
+      <c r="F27">
+        <v>0.22044447404853593</v>
+      </c>
+      <c r="G27">
+        <v>0.0030999543405140616</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B28">
+        <v>0.0039322763026976458</v>
+      </c>
+      <c r="C28">
+        <v>0.95180998607727907</v>
+      </c>
+      <c r="D28">
+        <v>0.030616784777564899</v>
+      </c>
+      <c r="E28">
+        <v>0.011020045200545803</v>
+      </c>
+      <c r="F28">
+        <v>0.0026049095773146291</v>
+      </c>
+      <c r="G28">
+        <v>1.5998064597861147e-05</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B29">
+        <v>0.0043517385204738124</v>
+      </c>
+      <c r="C29">
+        <v>0.9477461577924462</v>
+      </c>
+      <c r="D29">
+        <v>0.02104733760475147</v>
+      </c>
+      <c r="E29">
+        <v>0.014705466194612453</v>
+      </c>
+      <c r="F29">
+        <v>0.012116979239613175</v>
+      </c>
+      <c r="G29">
+        <v>3.2320648102796401e-05</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B30">
+        <v>0.22659390393123535</v>
+      </c>
+      <c r="C30">
+        <v>0.3581957589837112</v>
+      </c>
+      <c r="D30">
+        <v>0.042555470819464473</v>
+      </c>
+      <c r="E30">
+        <v>0.23943912116345617</v>
+      </c>
+      <c r="F30">
+        <v>0.11805598675054572</v>
+      </c>
+      <c r="G30">
+        <v>0.015159758351587092</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B31">
+        <v>0.0051407226651364107</v>
+      </c>
+      <c r="C31">
+        <v>0.90245318304039357</v>
+      </c>
+      <c r="D31">
+        <v>0.018787834827675681</v>
+      </c>
+      <c r="E31">
+        <v>0.01716504210996057</v>
+      </c>
+      <c r="F31">
+        <v>0.056167852929990492</v>
+      </c>
+      <c r="G31">
+        <v>0.00028536442684320745</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B32">
+        <v>0.0023402521250363607</v>
+      </c>
+      <c r="C32">
+        <v>0.9793694630272467</v>
+      </c>
+      <c r="D32">
+        <v>0.0035067743043804395</v>
+      </c>
+      <c r="E32">
+        <v>0.0084070765859986553</v>
+      </c>
+      <c r="F32">
+        <v>0.0063735392944371727</v>
+      </c>
+      <c r="G32">
+        <v>2.8946629006588532e-06</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B33">
+        <v>0.0008956265517808601</v>
+      </c>
+      <c r="C33">
+        <v>0.67969865690836762</v>
+      </c>
+      <c r="D33">
+        <v>0.16618379458265639</v>
+      </c>
+      <c r="E33">
+        <v>0.04559758209134062</v>
+      </c>
+      <c r="F33">
+        <v>0.10673088088249001</v>
+      </c>
+      <c r="G33">
+        <v>0.00089345898336457192</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B34">
+        <v>0.0025592754839756596</v>
+      </c>
+      <c r="C34">
+        <v>0.81914713242564219</v>
+      </c>
+      <c r="D34">
+        <v>0.014966012109311677</v>
+      </c>
+      <c r="E34">
+        <v>0.10465657001605382</v>
+      </c>
+      <c r="F34">
+        <v>0.058661284797373654</v>
+      </c>
+      <c r="G34">
+        <v>9.7251676429560467e-06</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B35">
+        <v>0.00010399704897389486</v>
+      </c>
+      <c r="C35">
+        <v>0.61082935769687141</v>
+      </c>
+      <c r="D35">
+        <v>0.049626035322109734</v>
+      </c>
+      <c r="E35">
+        <v>0.023659718085512173</v>
+      </c>
+      <c r="F35">
+        <v>0.31480252508483281</v>
+      </c>
+      <c r="G35">
+        <v>0.00097836676169999371</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B36">
+        <v>0.0019275624301270328</v>
+      </c>
+      <c r="C36">
+        <v>0.0014099710815948215</v>
+      </c>
+      <c r="D36">
+        <v>0.95306454404296415</v>
+      </c>
+      <c r="E36">
+        <v>0.035037511522433555</v>
+      </c>
+      <c r="F36">
+        <v>0.0072397598541157791</v>
+      </c>
+      <c r="G36">
+        <v>0.0013206510687647425</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B37">
+        <v>0.15382904256971328</v>
+      </c>
+      <c r="C37">
+        <v>0.072161643831305161</v>
+      </c>
+      <c r="D37">
+        <v>0.65442565744909076</v>
+      </c>
+      <c r="E37">
+        <v>0.08174094477169315</v>
+      </c>
+      <c r="F37">
+        <v>0.034887511470805613</v>
+      </c>
+      <c r="G37">
+        <v>0.0029551999073919519</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B38">
+        <v>0.075878754761031772</v>
+      </c>
+      <c r="C38">
+        <v>0.035691004139551966</v>
+      </c>
+      <c r="D38">
+        <v>0.678668435793641</v>
+      </c>
+      <c r="E38">
+        <v>0.10708338434098416</v>
+      </c>
+      <c r="F38">
+        <v>0.10092515363588334</v>
+      </c>
+      <c r="G38">
+        <v>0.0017532673289079362</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B39">
+        <v>0.02987091203621918</v>
+      </c>
+      <c r="C39">
+        <v>0.18308969406434747</v>
+      </c>
+      <c r="D39">
+        <v>0.64768038714902898</v>
+      </c>
+      <c r="E39">
+        <v>0.047740990526806831</v>
+      </c>
+      <c r="F39">
+        <v>0.090733824334855717</v>
+      </c>
+      <c r="G39">
+        <v>0.00088419188874195827</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B40">
+        <v>0.21739414383810893</v>
+      </c>
+      <c r="C40">
+        <v>0.01783137403515328</v>
+      </c>
+      <c r="D40">
+        <v>0.69786306476570947</v>
+      </c>
+      <c r="E40">
+        <v>0.053800744234870558</v>
+      </c>
+      <c r="F40">
+        <v>0.0097568883117537496</v>
+      </c>
+      <c r="G40">
+        <v>0.0033537848144038615</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B41">
+        <v>0.10449559707715041</v>
+      </c>
+      <c r="C41">
+        <v>0.028803478893485935</v>
+      </c>
+      <c r="D41">
+        <v>0.63636051924808112</v>
+      </c>
+      <c r="E41">
+        <v>0.14474744248252183</v>
+      </c>
+      <c r="F41">
+        <v>0.079982905590712375</v>
+      </c>
+      <c r="G41">
+        <v>0.0056100567080483495</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B42">
+        <v>0.004447045748714175</v>
+      </c>
+      <c r="C42">
+        <v>0.0049911584655498286</v>
+      </c>
+      <c r="D42">
+        <v>0.85660759136114073</v>
+      </c>
+      <c r="E42">
+        <v>0.043106865061232465</v>
+      </c>
+      <c r="F42">
+        <v>0.085530796015042765</v>
+      </c>
+      <c r="G42">
+        <v>0.0053165433483201322</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B43">
+        <v>0.10873071925319013</v>
+      </c>
+      <c r="C43">
+        <v>0.022429988382884125</v>
+      </c>
+      <c r="D43">
+        <v>0.60168320851112456</v>
+      </c>
+      <c r="E43">
+        <v>0.10126565652582499</v>
+      </c>
+      <c r="F43">
+        <v>0.1462770566945755</v>
+      </c>
+      <c r="G43">
+        <v>0.019613370632400772</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44">
+        <v>0.018052368292466901</v>
+      </c>
+      <c r="C44">
+        <v>0.01857406060007127</v>
+      </c>
+      <c r="D44">
+        <v>0.89080920970473276</v>
+      </c>
+      <c r="E44">
+        <v>0.053997576620552969</v>
+      </c>
+      <c r="F44">
+        <v>0.014569592699124253</v>
+      </c>
+      <c r="G44">
+        <v>0.0039971920830518849</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B45">
+        <v>0.054981967351773249</v>
+      </c>
+      <c r="C45">
+        <v>0.10086360922451564</v>
+      </c>
+      <c r="D45">
+        <v>0.5158524584059565</v>
+      </c>
+      <c r="E45">
+        <v>0.078678160479099674</v>
+      </c>
+      <c r="F45">
+        <v>0.23754555814952838</v>
+      </c>
+      <c r="G45">
+        <v>0.012078246389126518</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B46">
+        <v>0.095244940598094713</v>
+      </c>
+      <c r="C46">
+        <v>0.0084382958018338894</v>
+      </c>
+      <c r="D46">
+        <v>0.0084605821796975532</v>
+      </c>
+      <c r="E46">
+        <v>0.010699472837357723</v>
+      </c>
+      <c r="F46">
+        <v>0.026287690436037247</v>
+      </c>
+      <c r="G46">
+        <v>0.85086901814697891</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B47">
+        <v>0.043378563847838572</v>
+      </c>
+      <c r="C47">
+        <v>0.026654365564960029</v>
+      </c>
+      <c r="D47">
+        <v>0.094806779819232107</v>
+      </c>
+      <c r="E47">
+        <v>0.74985172682173806</v>
+      </c>
+      <c r="F47">
+        <v>0.074557074515962399</v>
+      </c>
+      <c r="G47">
+        <v>0.010751489430268657</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B48">
+        <v>0.0045962600255953162</v>
+      </c>
+      <c r="C48">
+        <v>0.041156258471932612</v>
+      </c>
+      <c r="D48">
+        <v>0.12655900763956496</v>
+      </c>
+      <c r="E48">
+        <v>0.70152935355016832</v>
+      </c>
+      <c r="F48">
+        <v>0.11811202010806297</v>
+      </c>
+      <c r="G48">
+        <v>0.0080471002046757899</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B49">
+        <v>0.054094282179397941</v>
+      </c>
+      <c r="C49">
+        <v>0.099251787589511115</v>
+      </c>
+      <c r="D49">
+        <v>0.21522220746883403</v>
+      </c>
+      <c r="E49">
+        <v>0.38851190500072214</v>
+      </c>
+      <c r="F49">
+        <v>0.24059219157717307</v>
+      </c>
+      <c r="G49">
+        <v>0.0023276261843617235</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B50">
+        <v>0.029200433923080211</v>
+      </c>
+      <c r="C50">
+        <v>0.12147760247565727</v>
+      </c>
+      <c r="D50">
+        <v>0.21369642086092686</v>
+      </c>
+      <c r="E50">
+        <v>0.50756960319314293</v>
+      </c>
+      <c r="F50">
+        <v>0.098353545029659178</v>
+      </c>
+      <c r="G50">
+        <v>0.029702394517533329</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B51">
+        <v>0.12596926449856438</v>
+      </c>
+      <c r="C51">
+        <v>0.15790934333094664</v>
+      </c>
+      <c r="D51">
+        <v>0.11631792501943498</v>
+      </c>
+      <c r="E51">
+        <v>0.38663534255157711</v>
+      </c>
+      <c r="F51">
+        <v>0.21156055778766147</v>
+      </c>
+      <c r="G51">
+        <v>0.0016075668118154078</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B52">
+        <v>0.21601752072034477</v>
+      </c>
+      <c r="C52">
+        <v>0.026604332719935106</v>
+      </c>
+      <c r="D52">
+        <v>0.091279644786031941</v>
+      </c>
+      <c r="E52">
+        <v>0.5199646089918164</v>
+      </c>
+      <c r="F52">
+        <v>0.12817445780822095</v>
+      </c>
+      <c r="G52">
+        <v>0.017959434973650892</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B53">
+        <v>0.13507985773505424</v>
+      </c>
+      <c r="C53">
+        <v>0.14456166038437859</v>
+      </c>
+      <c r="D53">
+        <v>0.10718864373405677</v>
+      </c>
+      <c r="E53">
+        <v>0.440045623523868</v>
+      </c>
+      <c r="F53">
+        <v>0.15842534213618467</v>
+      </c>
+      <c r="G53">
+        <v>0.014698872486457727</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B54">
+        <v>0.27970928291305996</v>
+      </c>
+      <c r="C54">
+        <v>0.063791750155987106</v>
+      </c>
+      <c r="D54">
+        <v>0.011319886649799434</v>
+      </c>
+      <c r="E54">
+        <v>0.4282485255266697</v>
+      </c>
+      <c r="F54">
+        <v>0.21511364384848417</v>
+      </c>
+      <c r="G54">
+        <v>0.0018169109059996641</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B55">
+        <v>0.1845311667462177</v>
+      </c>
+      <c r="C55">
+        <v>0.035758119692341828</v>
+      </c>
+      <c r="D55">
+        <v>0.24233230114226431</v>
+      </c>
+      <c r="E55">
+        <v>0.35543558912441114</v>
+      </c>
+      <c r="F55">
+        <v>0.17378952098932288</v>
+      </c>
+      <c r="G55">
+        <v>0.008153302305442145</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B56">
+        <v>0.060677114307711735</v>
+      </c>
+      <c r="C56">
+        <v>0.12225420902944506</v>
+      </c>
+      <c r="D56">
+        <v>0.41313914724879947</v>
+      </c>
+      <c r="E56">
+        <v>0.34059570582631543</v>
+      </c>
+      <c r="F56">
+        <v>0.015410217121000455</v>
+      </c>
+      <c r="G56">
+        <v>0.047923606466727685</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B57">
+        <v>0.20934071926366624</v>
+      </c>
+      <c r="C57">
+        <v>0.24367080409035102</v>
+      </c>
+      <c r="D57">
+        <v>0.19982830475659244</v>
+      </c>
+      <c r="E57">
+        <v>0.23804928684868487</v>
+      </c>
+      <c r="F57">
+        <v>0.10196915544199621</v>
+      </c>
+      <c r="G57">
+        <v>0.0071417295987092578</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B58">
+        <v>0.21093000395482794</v>
+      </c>
+      <c r="C58">
+        <v>0.074057221458975198</v>
+      </c>
+      <c r="D58">
+        <v>0.11334472749555319</v>
+      </c>
+      <c r="E58">
+        <v>0.37654107743091936</v>
+      </c>
+      <c r="F58">
+        <v>0.15312943162935602</v>
+      </c>
+      <c r="G58">
+        <v>0.071997538030368263</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B59">
+        <v>0.040641492103593017</v>
+      </c>
+      <c r="C59">
+        <v>0.060217288970657985</v>
+      </c>
+      <c r="D59">
+        <v>0.51377015492286726</v>
+      </c>
+      <c r="E59">
+        <v>0.30802914699144041</v>
+      </c>
+      <c r="F59">
+        <v>0.036044730774724192</v>
+      </c>
+      <c r="G59">
+        <v>0.041297186236717139</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B60">
+        <v>0.0086466355971547091</v>
+      </c>
+      <c r="C60">
+        <v>0.17513355079061604</v>
+      </c>
+      <c r="D60">
+        <v>0.16443220672031264</v>
+      </c>
+      <c r="E60">
+        <v>0.22824298998813367</v>
+      </c>
+      <c r="F60">
+        <v>0.2171959561447932</v>
+      </c>
+      <c r="G60">
+        <v>0.20634866075898969</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B61">
+        <v>0.012304877497523306</v>
+      </c>
+      <c r="C61">
+        <v>0.095283425014901224</v>
+      </c>
+      <c r="D61">
+        <v>0.060673266556683716</v>
+      </c>
+      <c r="E61">
+        <v>0.047639060744149274</v>
+      </c>
+      <c r="F61">
+        <v>0.78116310001996681</v>
+      </c>
+      <c r="G61">
+        <v>0.0029362701667756878</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B62">
+        <v>0.017529604654056667</v>
+      </c>
+      <c r="C62">
+        <v>0.0016105892526742001</v>
+      </c>
+      <c r="D62">
+        <v>0.051478801524400493</v>
+      </c>
+      <c r="E62">
+        <v>0.024095159333655563</v>
+      </c>
+      <c r="F62">
+        <v>0.90331276982282604</v>
+      </c>
+      <c r="G62">
+        <v>0.0019730754123870615</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B63">
+        <v>0.010312104321659776</v>
+      </c>
+      <c r="C63">
+        <v>0.042357430748146435</v>
+      </c>
+      <c r="D63">
+        <v>0.032302326717577275</v>
+      </c>
+      <c r="E63">
+        <v>0.045700792547731073</v>
+      </c>
+      <c r="F63">
+        <v>0.86822907893004775</v>
+      </c>
+      <c r="G63">
+        <v>0.0010982667348377146</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B64">
+        <v>0.15379220766164273</v>
+      </c>
+      <c r="C64">
+        <v>0.11734320305179456</v>
+      </c>
+      <c r="D64">
+        <v>0.13943039388083647</v>
+      </c>
+      <c r="E64">
+        <v>0.10071061387487118</v>
+      </c>
+      <c r="F64">
+        <v>0.47813755622050486</v>
+      </c>
+      <c r="G64">
+        <v>0.010586025310350231</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B65">
+        <v>0.077217130333052678</v>
+      </c>
+      <c r="C65">
+        <v>0.02400305018541294</v>
+      </c>
+      <c r="D65">
+        <v>0.019240221624506098</v>
+      </c>
+      <c r="E65">
+        <v>0.021564464300861945</v>
+      </c>
+      <c r="F65">
+        <v>0.85319726570975596</v>
+      </c>
+      <c r="G65">
+        <v>0.0047778678464103913</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B66">
+        <v>0.075556616925849349</v>
+      </c>
+      <c r="C66">
+        <v>0.11966530695918454</v>
+      </c>
+      <c r="D66">
+        <v>0.031459291039626455</v>
+      </c>
+      <c r="E66">
+        <v>0.032604596240300834</v>
+      </c>
+      <c r="F66">
+        <v>0.73678753644226547</v>
+      </c>
+      <c r="G66">
+        <v>0.0039266523927733686</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B67">
+        <v>0.022915410405929117</v>
+      </c>
+      <c r="C67">
+        <v>0.052443380175869039</v>
+      </c>
+      <c r="D67">
+        <v>0.075199439133469562</v>
+      </c>
+      <c r="E67">
+        <v>0.052765589113681406</v>
+      </c>
+      <c r="F67">
+        <v>0.79636995204201799</v>
+      </c>
+      <c r="G67">
+        <v>0.00030622912903287324</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B68">
+        <v>0.0072475230705002979</v>
+      </c>
+      <c r="C68">
+        <v>0.0050336127708414148</v>
+      </c>
+      <c r="D68">
+        <v>0.0052527734041086993</v>
+      </c>
+      <c r="E68">
+        <v>0.018071147660469054</v>
+      </c>
+      <c r="F68">
+        <v>0.96408579192219812</v>
+      </c>
+      <c r="G68">
+        <v>0.00030915117188235445</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B69">
+        <v>0.08258449406150746</v>
+      </c>
+      <c r="C69">
+        <v>0.01689203418412405</v>
+      </c>
+      <c r="D69">
+        <v>0.017913466784218148</v>
+      </c>
+      <c r="E69">
+        <v>0.098434319445742782</v>
+      </c>
+      <c r="F69">
+        <v>0.68038883757161883</v>
+      </c>
+      <c r="G69">
+        <v>0.10378684795278878</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B70">
+        <v>0.046793986367000308</v>
+      </c>
+      <c r="C70">
+        <v>0.058142991157460487</v>
+      </c>
+      <c r="D70">
+        <v>0.34659655650947419</v>
+      </c>
+      <c r="E70">
+        <v>0.14065545811121274</v>
+      </c>
+      <c r="F70">
+        <v>0.29163969358573943</v>
+      </c>
+      <c r="G70">
+        <v>0.11617131426911288</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B71">
+        <v>0.0010768831388488569</v>
+      </c>
+      <c r="C71">
+        <v>0.061275348316623714</v>
+      </c>
+      <c r="D71">
+        <v>0.045845230220729588</v>
+      </c>
+      <c r="E71">
+        <v>0.070693478056844491</v>
+      </c>
+      <c r="F71">
+        <v>0.8141027127937166</v>
+      </c>
+      <c r="G71">
+        <v>0.007006347473236741</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B72">
+        <v>0.014630034619705232</v>
+      </c>
+      <c r="C72">
+        <v>0.052555674499579208</v>
+      </c>
+      <c r="D72">
+        <v>0.038308463671974963</v>
+      </c>
+      <c r="E72">
+        <v>0.077041375283882996</v>
+      </c>
+      <c r="F72">
+        <v>0.79659542407270534</v>
+      </c>
+      <c r="G72">
+        <v>0.020869027852152347</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B73">
+        <v>0.0052055376253878375</v>
+      </c>
+      <c r="C73">
+        <v>0.021922020386449977</v>
+      </c>
+      <c r="D73">
+        <v>0.044822961212191287</v>
+      </c>
+      <c r="E73">
+        <v>0.22750435003611741</v>
+      </c>
+      <c r="F73">
+        <v>0.69508757235182128</v>
+      </c>
+      <c r="G73">
+        <v>0.0054575583880322291</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B74">
+        <v>0.018294225219967517</v>
+      </c>
+      <c r="C74">
+        <v>0.050952272375314883</v>
+      </c>
+      <c r="D74">
+        <v>0.1822477172265819</v>
+      </c>
+      <c r="E74">
+        <v>0.27593968393286039</v>
+      </c>
+      <c r="F74">
+        <v>0.20061709952968615</v>
+      </c>
+      <c r="G74">
+        <v>0.27194900171558928</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B75">
+        <v>0.045228069164466492</v>
+      </c>
+      <c r="C75">
+        <v>0.0024513657139065702</v>
+      </c>
+      <c r="D75">
+        <v>0.0015627393943039639</v>
+      </c>
+      <c r="E75">
+        <v>0.03620583385633859</v>
+      </c>
+      <c r="F75">
+        <v>0.0022885943251330495</v>
+      </c>
+      <c r="G75">
+        <v>0.9122633975458514</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B76">
+        <v>0.28719892425819094</v>
+      </c>
+      <c r="C76">
+        <v>0.01169955011687167</v>
+      </c>
+      <c r="D76">
+        <v>0.2118294790886158</v>
+      </c>
+      <c r="E76">
+        <v>0.084802933242006939</v>
+      </c>
+      <c r="F76">
+        <v>0.0030774714747255636</v>
+      </c>
+      <c r="G76">
+        <v>0.40139164181958908</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B77">
+        <v>0.0027531670587359462</v>
+      </c>
+      <c r="C77">
+        <v>0.0071795732697134615</v>
+      </c>
+      <c r="D77">
+        <v>0.021022223574144842</v>
+      </c>
+      <c r="E77">
+        <v>0.013453335927354863</v>
+      </c>
+      <c r="F77">
+        <v>0.0056197848749468008</v>
+      </c>
+      <c r="G77">
+        <v>0.94997191529510405</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+      <c r="I77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B78">
+        <v>0.021934837997826948</v>
+      </c>
+      <c r="C78">
+        <v>0.0013345718391463313</v>
+      </c>
+      <c r="D78">
+        <v>0.008190818241575611</v>
+      </c>
+      <c r="E78">
+        <v>0.0058383170322423034</v>
+      </c>
+      <c r="F78">
+        <v>0.013453767464081183</v>
+      </c>
+      <c r="G78">
+        <v>0.94924768742512766</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B79">
+        <v>1.7629605999194751e-05</v>
+      </c>
+      <c r="C79">
+        <v>0.0055765079017176386</v>
+      </c>
+      <c r="D79">
+        <v>0.028506487053938042</v>
+      </c>
+      <c r="E79">
+        <v>0.020667106885979794</v>
+      </c>
+      <c r="F79">
+        <v>0.1126171493960105</v>
+      </c>
+      <c r="G79">
+        <v>0.83261511915635478</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B80">
+        <v>0.046409884409410365</v>
+      </c>
+      <c r="C80">
+        <v>0.019301869642886563</v>
+      </c>
+      <c r="D80">
+        <v>0.27676438425254929</v>
+      </c>
+      <c r="E80">
+        <v>0.087401013097398728</v>
+      </c>
+      <c r="F80">
+        <v>0.069152755902372548</v>
+      </c>
+      <c r="G80">
+        <v>0.5009700926953824</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B81">
+        <v>0.011729207210164933</v>
+      </c>
+      <c r="C81">
+        <v>0.0024085945940998795</v>
+      </c>
+      <c r="D81">
+        <v>0.013374436761416877</v>
+      </c>
+      <c r="E81">
+        <v>0.015233664284570167</v>
+      </c>
+      <c r="F81">
+        <v>0.012313734776388911</v>
+      </c>
+      <c r="G81">
+        <v>0.94494036237335921</v>
+      </c>
+      <c r="H81">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B82">
+        <v>0.0092208842555194168</v>
+      </c>
+      <c r="C82">
+        <v>0.0054232073215772702</v>
+      </c>
+      <c r="D82">
+        <v>0.027904069559348117</v>
+      </c>
+      <c r="E82">
+        <v>0.026077674525967813</v>
+      </c>
+      <c r="F82">
+        <v>0.034236097144524344</v>
+      </c>
+      <c r="G82">
+        <v>0.89713806719306299</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B83">
+        <v>0.0073502117331376553</v>
+      </c>
+      <c r="C83">
+        <v>0.0050423418389870956</v>
+      </c>
+      <c r="D83">
+        <v>0.019024866558533849</v>
+      </c>
+      <c r="E83">
+        <v>0.032234898523427008</v>
+      </c>
+      <c r="F83">
+        <v>0.0092525825735379052</v>
+      </c>
+      <c r="G83">
+        <v>0.9270950987723765</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B84">
+        <v>0.027684794870407176</v>
+      </c>
+      <c r="C84">
+        <v>0.0036416410198097022</v>
+      </c>
+      <c r="D84">
+        <v>0.011041464083268516</v>
+      </c>
+      <c r="E84">
+        <v>0.018337130418864121</v>
+      </c>
+      <c r="F84">
+        <v>0.017495188653759673</v>
+      </c>
+      <c r="G84">
+        <v>0.9217997809538907</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B85">
+        <v>0.012330386442357909</v>
+      </c>
+      <c r="C85">
+        <v>0.0055447419020808759</v>
+      </c>
+      <c r="D85">
+        <v>0.023720909537756296</v>
+      </c>
+      <c r="E85">
+        <v>0.014100534052142333</v>
+      </c>
+      <c r="F85">
+        <v>0.0197620382200814</v>
+      </c>
+      <c r="G85">
+        <v>0.92454138984558121</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B86">
+        <v>0.013347899664887784</v>
+      </c>
+      <c r="C86">
+        <v>0.0055212945420650729</v>
+      </c>
+      <c r="D86">
+        <v>0.021871449371662917</v>
+      </c>
+      <c r="E86">
+        <v>0.016865448247647279</v>
+      </c>
+      <c r="F86">
+        <v>0.0099053034130900212</v>
+      </c>
+      <c r="G86">
+        <v>0.93248860476064699</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B87">
+        <v>0.0045706117744074518</v>
+      </c>
+      <c r="C87">
+        <v>0.0092329283782343619</v>
+      </c>
+      <c r="D87">
+        <v>0.12817506001581586</v>
+      </c>
+      <c r="E87">
+        <v>0.022219114430599193</v>
+      </c>
+      <c r="F87">
+        <v>0.0047664638897008966</v>
+      </c>
+      <c r="G87">
+        <v>0.83103582151124222</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B88">
+        <v>0.039006239205363169</v>
+      </c>
+      <c r="C88">
+        <v>0.0036400513270205253</v>
+      </c>
+      <c r="D88">
+        <v>0.051765552285037451</v>
+      </c>
+      <c r="E88">
+        <v>0.036691765202868078</v>
+      </c>
+      <c r="F88">
+        <v>0.00431010845465204</v>
+      </c>
+      <c r="G88">
+        <v>0.86458628352505873</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B89">
+        <v>0.062273441785027819</v>
+      </c>
+      <c r="C89">
+        <v>0.0017434463318321742</v>
+      </c>
+      <c r="D89">
+        <v>0.0038193136706111252</v>
+      </c>
+      <c r="E89">
+        <v>0.011463562492885864</v>
+      </c>
+      <c r="F89">
+        <v>0.0087626992337757961</v>
+      </c>
+      <c r="G89">
+        <v>0.91193753648586728</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B90">
+        <v>0.0038576167932743858</v>
+      </c>
+      <c r="C90">
+        <v>0.0079774612128769955</v>
+      </c>
+      <c r="D90">
+        <v>0.025776957852151613</v>
+      </c>
+      <c r="E90">
+        <v>0.012054637328970439</v>
+      </c>
+      <c r="F90">
+        <v>0.0060163605224196415</v>
+      </c>
+      <c r="G90">
+        <v>0.94431696629030681</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B91">
+        <v>0.020995053207415775</v>
+      </c>
+      <c r="C91">
+        <v>0.0085032759479072104</v>
+      </c>
+      <c r="D91">
+        <v>0.028734104420949303</v>
+      </c>
+      <c r="E91">
+        <v>0.027197694956156235</v>
+      </c>
+      <c r="F91">
+        <v>0.016474365883790584</v>
+      </c>
+      <c r="G91">
+        <v>0.89809550558378093</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B92">
+        <v>0.0056789483521486953</v>
+      </c>
+      <c r="C92">
+        <v>0.010894445881846546</v>
+      </c>
+      <c r="D92">
+        <v>0.033997053728737056</v>
+      </c>
+      <c r="E92">
+        <v>0.031337971023786618</v>
+      </c>
+      <c r="F92">
+        <v>0.032532716233120915</v>
+      </c>
+      <c r="G92">
+        <v>0.88555886478036028</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B93">
+        <v>0.00084306153138312661</v>
+      </c>
+      <c r="C93">
+        <v>0.011537132834010129</v>
+      </c>
+      <c r="D93">
+        <v>0.021898577553322317</v>
+      </c>
+      <c r="E93">
+        <v>0.048655863227229174</v>
+      </c>
+      <c r="F93">
+        <v>0.011617732209752679</v>
+      </c>
+      <c r="G93">
+        <v>0.90544763264430261</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B94">
+        <v>0.0064327931754669361</v>
+      </c>
+      <c r="C94">
+        <v>0.0069969800017903143</v>
+      </c>
+      <c r="D94">
+        <v>0.074735170073352467</v>
+      </c>
+      <c r="E94">
+        <v>0.037893591837928259</v>
+      </c>
+      <c r="F94">
+        <v>0.0050027576576792436</v>
+      </c>
+      <c r="G94">
+        <v>0.86893870725378275</v>
+      </c>
+      <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B95">
+        <v>0.09209364733545862</v>
+      </c>
+      <c r="C95">
+        <v>0.00070276161089270815</v>
+      </c>
+      <c r="D95">
+        <v>0.0054404229932035041</v>
+      </c>
+      <c r="E95">
+        <v>0.00090011309946142371</v>
+      </c>
+      <c r="F95">
+        <v>0.354139521352338</v>
+      </c>
+      <c r="G95">
+        <v>0.54672353360864567</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B96">
+        <v>0.0020546366402267374</v>
+      </c>
+      <c r="C96">
+        <v>0.0051133756826204401</v>
+      </c>
+      <c r="D96">
+        <v>0.018295586361876406</v>
+      </c>
+      <c r="E96">
+        <v>0.011724065604316254</v>
+      </c>
+      <c r="F96">
+        <v>0.015716207009615037</v>
+      </c>
+      <c r="G96">
+        <v>0.94709612870134519</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B97">
+        <v>0.0039180180036099115</v>
+      </c>
+      <c r="C97">
+        <v>0.0024846008635660039</v>
+      </c>
+      <c r="D97">
+        <v>0.020994007017115582</v>
+      </c>
+      <c r="E97">
+        <v>0.030972957349415547</v>
+      </c>
+      <c r="F97">
+        <v>0.0090371177624890397</v>
+      </c>
+      <c r="G97">
+        <v>0.93259329900380394</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B98">
+        <v>0.0010867898109326809</v>
+      </c>
+      <c r="C98">
+        <v>0.099071837795240023</v>
+      </c>
+      <c r="D98">
+        <v>0.0079733636106154252</v>
+      </c>
+      <c r="E98">
+        <v>0.016853136786374682</v>
+      </c>
+      <c r="F98">
+        <v>0.057351657390776002</v>
+      </c>
+      <c r="G98">
+        <v>0.81766321460606128</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B99">
+        <v>0.00042884221866912054</v>
+      </c>
+      <c r="C99">
+        <v>0.0016471723970833158</v>
+      </c>
+      <c r="D99">
+        <v>0.0062374386440327296</v>
+      </c>
+      <c r="E99">
+        <v>0.064962438672357209</v>
+      </c>
+      <c r="F99">
+        <v>0.028447549292715889</v>
+      </c>
+      <c r="G99">
+        <v>0.89827655877514179</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B100">
+        <v>0.00038659135383385977</v>
+      </c>
+      <c r="C100">
+        <v>0.029841249411328888</v>
+      </c>
+      <c r="D100">
+        <v>0.057966611555899446</v>
+      </c>
+      <c r="E100">
+        <v>0.086232107871421729</v>
+      </c>
+      <c r="F100">
+        <v>0.029137377885169225</v>
+      </c>
+      <c r="G100">
+        <v>0.79643606192234684</v>
+      </c>
+      <c r="H100">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>